--- a/Data/Antera_inputs_v2.xlsx
+++ b/Data/Antera_inputs_v2.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giparoli\Documents\Projetos\AEco\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73815FD-836F-4499-8E1E-6B43FC4D2FBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F519CA48-6812-4377-AACE-83792A41E7FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32025" yWindow="3315" windowWidth="17280" windowHeight="9075" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Antera_spray_eletric" sheetId="13" r:id="rId1"/>
-    <sheet name="Antera_spray_etanol" sheetId="11" r:id="rId2"/>
-    <sheet name="Antera_spray" sheetId="8" r:id="rId3"/>
-    <sheet name="Antera_imaging" sheetId="10" r:id="rId4"/>
-    <sheet name="Antera_corrective" sheetId="15" r:id="rId5"/>
+    <sheet name="Antera_spray_etanol" sheetId="11" r:id="rId1"/>
+    <sheet name="Antera_original" sheetId="8" r:id="rId2"/>
+    <sheet name="Antera_imaging" sheetId="10" r:id="rId3"/>
+    <sheet name="Antera_corrective" sheetId="15" r:id="rId4"/>
+    <sheet name="Antera_updated" sheetId="16" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,123 +35,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={F8F9CCAF-D3F4-0F4E-B33B-907DC0DE517B}</author>
-    <author>tc={F086E506-AC20-6846-B64E-22093791C28E}</author>
-    <author>tc={0C594D73-6D29-3441-8717-4FD5572D2896}</author>
-    <author>tc={B6DEDC3B-06E6-C44E-9598-87D7C92C3A76}</author>
-    <author>tc={FE77C0A2-3059-4143-8931-5AD3E17C3A94}</author>
-    <author>tc={B5D25206-0775-3446-ACA5-140BF872C399}</author>
-    <author>tc={AB93D80B-EBFA-D348-B9A5-15193123D025}</author>
-    <author>tc={B800E858-ECF1-4D4C-A584-9A0CFADBB76A}</author>
-    <author>tc={778D8662-283D-5C45-95C2-1E757CBCC50C}</author>
-    <author>tc={90EB8737-D363-1544-B836-AD83B0EE3CBE}</author>
-    <author>tc={26D369D8-F6E3-0E47-99E4-7E6D649F1979}</author>
-    <author>tc={63A4ECEF-B81F-474F-BED4-189C5CA328A2}</author>
-  </authors>
-  <commentList>
-    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{F8F9CCAF-D3F4-0F4E-B33B-907DC0DE517B}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    107087 kWh/month @ G1170. Considering 500 workers in the building, the average per worker is 214.17.</t>
-      </text>
-    </comment>
-    <comment ref="C20" authorId="1" shapeId="0" xr:uid="{F086E506-AC20-6846-B64E-22093791C28E}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    190 m³/month @ G1170. Considering 500 workers in the building, the average per worker is 0.38</t>
-      </text>
-    </comment>
-    <comment ref="C21" authorId="2" shapeId="0" xr:uid="{0C594D73-6D29-3441-8717-4FD5572D2896}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    750 m³/month @ G1170. Considering 500 workers in the building, the average per worker is 1.5</t>
-      </text>
-    </comment>
-    <comment ref="C26" authorId="3" shapeId="0" xr:uid="{B6DEDC3B-06E6-C44E-9598-87D7C92C3A76}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Rebitadeira automática</t>
-      </text>
-    </comment>
-    <comment ref="C27" authorId="4" shapeId="0" xr:uid="{FE77C0A2-3059-4143-8931-5AD3E17C3A94}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Considerando 3 estufas (composto), 1 rebitadeiras automáticas, 1 robô pintura, 2 CNC (portas e furos), 1 robô pick and place (composto)</t>
-      </text>
-    </comment>
-    <comment ref="C46" authorId="5" shapeId="0" xr:uid="{B5D25206-0775-3446-ACA5-140BF872C399}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    80000 kWh/month @ G1360. Considering 18000 m², the average per m² is 4.44</t>
-      </text>
-    </comment>
-    <comment ref="C47" authorId="6" shapeId="0" xr:uid="{AB93D80B-EBFA-D348-B9A5-15193123D025}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    80 m³/month @ G1360. Considering 18000 m², the average per m² is 0.00444</t>
-      </text>
-    </comment>
-    <comment ref="C48" authorId="7" shapeId="0" xr:uid="{B800E858-ECF1-4D4C-A584-9A0CFADBB76A}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    64 m³/month @ G1360. Considering 18000 m², the average per m² is 0.00356</t>
-      </text>
-    </comment>
-    <comment ref="C49" authorId="8" shapeId="0" xr:uid="{778D8662-283D-5C45-95C2-1E757CBCC50C}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    0.27 m³/month @ G1360. Considering 18000 m², the average per m² is 0.000015</t>
-      </text>
-    </comment>
-    <comment ref="C51" authorId="9" shapeId="0" xr:uid="{90EB8737-D363-1544-B836-AD83B0EE3CBE}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Considerando que a distância média de entrega no BR é 800km, extrapolando esse valor para os outros destinos também (considerando que além do transporte marítmo, será enviado via terra até o cliente final)</t>
-      </text>
-    </comment>
-    <comment ref="C54" authorId="10" shapeId="0" xr:uid="{26D369D8-F6E3-0E47-99E4-7E6D649F1979}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    MTOW em t</t>
-      </text>
-    </comment>
-    <comment ref="C56" authorId="11" shapeId="0" xr:uid="{63A4ECEF-B81F-474F-BED4-189C5CA328A2}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Em cada container cabem 4 aviões, porém vários componentes serão integrados nos EUA, portanto considerei 70% do MTOW</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={937B8EF6-3ACB-684B-9318-BB25DDDFB781}</author>
@@ -268,7 +151,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={D6FE15BF-07DF-4CAB-B9A8-116B04BE3B4C}</author>
@@ -394,7 +277,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={926FD618-AE36-254D-B022-7BF805878D85}</author>
@@ -511,7 +394,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={8C054751-4A7B-6E45-9554-4A31F80DE816}</author>
@@ -637,8 +520,125 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B64A9405-CA93-4BAF-AD93-813FE3D4E86A}</author>
+    <author>tc={CF598D54-235C-4B3A-8F29-2CAF51DD7B92}</author>
+    <author>tc={1CD5EAD8-E134-4A74-9CA7-92E495E330C0}</author>
+    <author>tc={C77D5C73-4A57-4CE0-BCE7-C000D2E41C3B}</author>
+    <author>tc={701E875C-64FF-41FD-9D8E-78BDB78A00DA}</author>
+    <author>tc={6C696F9D-3591-4E6C-9717-D0C55179ACEC}</author>
+    <author>tc={CBDA8666-7368-4103-BF88-9923ADC52B79}</author>
+    <author>tc={8802BE35-D9DF-44FC-931F-ACF4E9E3C9C6}</author>
+    <author>tc={8B47847B-A2CF-42EA-B640-30D524F8E5DF}</author>
+    <author>tc={28048AEF-849D-4636-9121-F9110AD8BDEE}</author>
+    <author>tc={E0A483E3-691D-4FC4-B705-5BF3DACFF8CC}</author>
+    <author>tc={DCF0E7F6-F3D5-4E8A-BE82-4D2AED9EC04A}</author>
+  </authors>
+  <commentList>
+    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{B64A9405-CA93-4BAF-AD93-813FE3D4E86A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    107087 kWh/month @ G1170. Considering 500 workers in the building, the average per worker is 214.17.</t>
+      </text>
+    </comment>
+    <comment ref="C23" authorId="1" shapeId="0" xr:uid="{CF598D54-235C-4B3A-8F29-2CAF51DD7B92}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    190 m³/month @ G1170. Considering 500 workers in the building, the average per worker is 0.38</t>
+      </text>
+    </comment>
+    <comment ref="C24" authorId="2" shapeId="0" xr:uid="{1CD5EAD8-E134-4A74-9CA7-92E495E330C0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    750 m³/month @ G1170. Considering 500 workers in the building, the average per worker is 1.5</t>
+      </text>
+    </comment>
+    <comment ref="C29" authorId="3" shapeId="0" xr:uid="{C77D5C73-4A57-4CE0-BCE7-C000D2E41C3B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Rebitadeira automática</t>
+      </text>
+    </comment>
+    <comment ref="C30" authorId="4" shapeId="0" xr:uid="{701E875C-64FF-41FD-9D8E-78BDB78A00DA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Considerando 3 estufas (composto), 1 rebitadeiras automáticas, 1 robô pintura, 2 CNC (portas e furos), 1 robô pick and place (composto)</t>
+      </text>
+    </comment>
+    <comment ref="C49" authorId="5" shapeId="0" xr:uid="{6C696F9D-3591-4E6C-9717-D0C55179ACEC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    80000 kWh/month @ G1360. Considering 18000 m², the average per m² is 4.44</t>
+      </text>
+    </comment>
+    <comment ref="C50" authorId="6" shapeId="0" xr:uid="{CBDA8666-7368-4103-BF88-9923ADC52B79}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    80 m³/month @ G1360. Considering 18000 m², the average per m² is 0.00444</t>
+      </text>
+    </comment>
+    <comment ref="C51" authorId="7" shapeId="0" xr:uid="{8802BE35-D9DF-44FC-931F-ACF4E9E3C9C6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    64 m³/month @ G1360. Considering 18000 m², the average per m² is 0.00356</t>
+      </text>
+    </comment>
+    <comment ref="C52" authorId="8" shapeId="0" xr:uid="{8B47847B-A2CF-42EA-B640-30D524F8E5DF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    0.27 m³/month @ G1360. Considering 18000 m², the average per m² is 0.000015</t>
+      </text>
+    </comment>
+    <comment ref="C54" authorId="9" shapeId="0" xr:uid="{28048AEF-849D-4636-9121-F9110AD8BDEE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Considerando que a distância média de entrega no BR é 800km, extrapolando esse valor para os outros destinos também (considerando que além do transporte marítmo, será enviado via terra até o cliente final)</t>
+      </text>
+    </comment>
+    <comment ref="C57" authorId="10" shapeId="0" xr:uid="{E0A483E3-691D-4FC4-B705-5BF3DACFF8CC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    MTOW em t</t>
+      </text>
+    </comment>
+    <comment ref="C59" authorId="11" shapeId="0" xr:uid="{DCF0E7F6-F3D5-4E8A-BE82-4D2AED9EC04A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Em cada container cabem 4 aviões, porém vários componentes serão integrados nos EUA, portanto considerei 70% do MTOW</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="243">
   <si>
     <t>nominal</t>
   </si>
@@ -1301,40 +1301,95 @@
     </r>
   </si>
   <si>
-    <t>ff_energy</t>
-  </si>
-  <si>
-    <t>flight cycles per year (spraying mission), 20 flights to complete one mission (filling hopper everytime)</t>
-  </si>
-  <si>
-    <t>flight hours per flight cycle (spraying mission), each takeoff-landing cycle takes 12,56 min</t>
-  </si>
-  <si>
-    <t>kWh/FC</t>
-  </si>
-  <si>
-    <t>t_energy</t>
-  </si>
-  <si>
-    <t>Energy consumption per flight cycle</t>
-  </si>
-  <si>
-    <t>t_recharge</t>
-  </si>
-  <si>
-    <t>Time used to recharge once the battery pack</t>
-  </si>
-  <si>
-    <t>ff_recharge</t>
-  </si>
-  <si>
-    <t>kW</t>
-  </si>
-  <si>
     <t>ff_cruise</t>
   </si>
   <si>
     <t>t_cruise</t>
+  </si>
+  <si>
+    <t>Aircraft Ops
+Imaging</t>
+  </si>
+  <si>
+    <t>Aircraft Ops Spraying</t>
+  </si>
+  <si>
+    <t>ff_cruise_img</t>
+  </si>
+  <si>
+    <t>ff_takeoff_img</t>
+  </si>
+  <si>
+    <t>ff_solo_img</t>
+  </si>
+  <si>
+    <t>ff_curva_img</t>
+  </si>
+  <si>
+    <t>ff_ferry_img</t>
+  </si>
+  <si>
+    <t>t_cruise_img</t>
+  </si>
+  <si>
+    <t>t_takeoff_img</t>
+  </si>
+  <si>
+    <t>t_solo_img</t>
+  </si>
+  <si>
+    <t>t_curva_img</t>
+  </si>
+  <si>
+    <t>t_ferry_img</t>
+  </si>
+  <si>
+    <t>ff_cruise_spr</t>
+  </si>
+  <si>
+    <t>ff_takeoff_spr</t>
+  </si>
+  <si>
+    <t>ff_solo_spr</t>
+  </si>
+  <si>
+    <t>ff_curva_spr</t>
+  </si>
+  <si>
+    <t>ff_ferry_spr</t>
+  </si>
+  <si>
+    <t>t_cruise_spr</t>
+  </si>
+  <si>
+    <t>t_takeoff_spr</t>
+  </si>
+  <si>
+    <t>t_solo_spr</t>
+  </si>
+  <si>
+    <t>t_curva_spr</t>
+  </si>
+  <si>
+    <t>t_ferry_spr</t>
+  </si>
+  <si>
+    <t>flights_year_img</t>
+  </si>
+  <si>
+    <t>FH_img</t>
+  </si>
+  <si>
+    <t>productivity_img</t>
+  </si>
+  <si>
+    <t>flights_year_spr</t>
+  </si>
+  <si>
+    <t>FH_spr</t>
+  </si>
+  <si>
+    <t>productivity_spr</t>
   </si>
 </sst>
 </file>
@@ -1346,7 +1401,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1400,6 +1455,12 @@
       <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -2084,47 +2145,6 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C19" dT="2019-12-31T13:50:55.89" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{F8F9CCAF-D3F4-0F4E-B33B-907DC0DE517B}">
-    <text>107087 kWh/month @ G1170. Considering 500 workers in the building, the average per worker is 214.17.</text>
-  </threadedComment>
-  <threadedComment ref="C20" dT="2019-12-31T14:01:21.91" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{F086E506-AC20-6846-B64E-22093791C28E}">
-    <text>190 m³/month @ G1170. Considering 500 workers in the building, the average per worker is 0.38</text>
-  </threadedComment>
-  <threadedComment ref="C21" dT="2019-12-31T14:02:51.19" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{0C594D73-6D29-3441-8717-4FD5572D2896}">
-    <text>750 m³/month @ G1170. Considering 500 workers in the building, the average per worker is 1.5</text>
-  </threadedComment>
-  <threadedComment ref="C26" dT="2021-06-08T03:06:52.41" personId="{172B4ACD-BB32-3A40-A6EE-78502C39DADA}" id="{B6DEDC3B-06E6-C44E-9598-87D7C92C3A76}">
-    <text>Rebitadeira automática</text>
-  </threadedComment>
-  <threadedComment ref="C27" dT="2021-06-07T19:51:07.06" personId="{172B4ACD-BB32-3A40-A6EE-78502C39DADA}" id="{FE77C0A2-3059-4143-8931-5AD3E17C3A94}">
-    <text>Considerando 3 estufas (composto), 1 rebitadeiras automáticas, 1 robô pintura, 2 CNC (portas e furos), 1 robô pick and place (composto)</text>
-  </threadedComment>
-  <threadedComment ref="C46" dT="2019-12-31T14:53:25.54" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{B5D25206-0775-3446-ACA5-140BF872C399}">
-    <text>80000 kWh/month @ G1360. Considering 18000 m², the average per m² is 4.44</text>
-  </threadedComment>
-  <threadedComment ref="C47" dT="2019-12-31T14:55:29.34" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{AB93D80B-EBFA-D348-B9A5-15193123D025}">
-    <text>80 m³/month @ G1360. Considering 18000 m², the average per m² is 0.00444</text>
-  </threadedComment>
-  <threadedComment ref="C48" dT="2019-12-31T16:34:31.50" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{B800E858-ECF1-4D4C-A584-9A0CFADBB76A}">
-    <text>64 m³/month @ G1360. Considering 18000 m², the average per m² is 0.00356</text>
-  </threadedComment>
-  <threadedComment ref="C49" dT="2019-12-31T16:35:39.91" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{778D8662-283D-5C45-95C2-1E757CBCC50C}">
-    <text>0.27 m³/month @ G1360. Considering 18000 m², the average per m² is 0.000015</text>
-  </threadedComment>
-  <threadedComment ref="C51" dT="2021-06-07T18:01:09.55" personId="{172B4ACD-BB32-3A40-A6EE-78502C39DADA}" id="{90EB8737-D363-1544-B836-AD83B0EE3CBE}">
-    <text>Considerando que a distância média de entrega no BR é 800km, extrapolando esse valor para os outros destinos também (considerando que além do transporte marítmo, será enviado via terra até o cliente final)</text>
-  </threadedComment>
-  <threadedComment ref="C54" dT="2021-06-07T18:31:21.06" personId="{172B4ACD-BB32-3A40-A6EE-78502C39DADA}" id="{26D369D8-F6E3-0E47-99E4-7E6D649F1979}">
-    <text>MTOW em t</text>
-  </threadedComment>
-  <threadedComment ref="C56" dT="2021-06-07T18:32:51.41" personId="{172B4ACD-BB32-3A40-A6EE-78502C39DADA}" id="{63A4ECEF-B81F-474F-BED4-189C5CA328A2}">
-    <text>Em cada container cabem 4 aviões, porém vários componentes serão integrados nos EUA, portanto considerei 70% do MTOW</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="C19" dT="2019-12-31T13:50:55.89" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{937B8EF6-3ACB-684B-9318-BB25DDDFB781}">
     <text>107087 kWh/month @ G1170. Considering 500 workers in the building, the average per worker is 214.17.</text>
   </threadedComment>
@@ -2164,7 +2184,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="C19" dT="2019-12-31T13:50:55.89" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{D6FE15BF-07DF-4CAB-B9A8-116B04BE3B4C}">
     <text>107087 kWh/month @ G1170. Considering 500 workers in the building, the average per worker is 214.17.</text>
@@ -2208,7 +2228,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="C19" dT="2019-12-31T13:50:55.89" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{926FD618-AE36-254D-B022-7BF805878D85}">
     <text>107087 kWh/month @ G1170. Considering 500 workers in the building, the average per worker is 214.17.</text>
@@ -2249,7 +2269,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="C19" dT="2019-12-31T13:50:55.89" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{8C054751-4A7B-6E45-9554-4A31F80DE816}">
     <text>107087 kWh/month @ G1170. Considering 500 workers in the building, the average per worker is 214.17.</text>
@@ -2293,2069 +2313,48 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBDDE3FA-8A99-2B4D-A7F3-4D79B40A0A80}">
-  <dimension ref="A1:M123"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="7.109375" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="75.77734375" style="2" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="66" t="s">
-        <v>212</v>
-      </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1">
-      <c r="A4" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" s="54">
-        <v>0.83</v>
-      </c>
-      <c r="D4" s="11">
-        <f>C4*0.9</f>
-        <v>0.747</v>
-      </c>
-      <c r="E4" s="11">
-        <f>C4*1.1</f>
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1">
-      <c r="A5" s="68"/>
-      <c r="B5" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" s="54">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11">
-        <f t="shared" ref="D5:D62" si="0">C5*0.9</f>
-        <v>0.9</v>
-      </c>
-      <c r="E5" s="11">
-        <f t="shared" ref="E5:E62" si="1">C5*1.1</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="68"/>
-      <c r="B6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="26">
-        <v>845.5</v>
-      </c>
-      <c r="D6" s="11">
-        <f t="shared" si="0"/>
-        <v>760.95</v>
-      </c>
-      <c r="E6" s="11">
-        <f t="shared" si="1"/>
-        <v>930.05000000000007</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="68"/>
-      <c r="B7" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="54">
-        <v>219</v>
-      </c>
-      <c r="D7" s="11">
-        <f t="shared" si="0"/>
-        <v>197.1</v>
-      </c>
-      <c r="E7" s="11">
-        <f t="shared" si="1"/>
-        <v>240.9</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="68"/>
-      <c r="B8" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="54">
-        <f>12.56/60</f>
-        <v>0.20933333333333334</v>
-      </c>
-      <c r="D8" s="11">
-        <f t="shared" si="0"/>
-        <v>0.18840000000000001</v>
-      </c>
-      <c r="E8" s="11">
-        <f t="shared" si="1"/>
-        <v>0.2302666666666667</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="68"/>
-      <c r="B9" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="54">
-        <v>49.8</v>
-      </c>
-      <c r="D9" s="11">
-        <f t="shared" si="0"/>
-        <v>44.82</v>
-      </c>
-      <c r="E9" s="11">
-        <f t="shared" si="1"/>
-        <v>54.78</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="68"/>
-      <c r="B10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="11">
-        <f>AVERAGE(23,38,31)</f>
-        <v>30.666666666666668</v>
-      </c>
-      <c r="D10" s="11">
-        <f t="shared" si="0"/>
-        <v>27.6</v>
-      </c>
-      <c r="E10" s="11">
-        <f t="shared" si="1"/>
-        <v>33.733333333333334</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="68"/>
-      <c r="B11" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="54">
-        <f>2000*0.43</f>
-        <v>860</v>
-      </c>
-      <c r="D11" s="11">
-        <f t="shared" si="0"/>
-        <v>774</v>
-      </c>
-      <c r="E11" s="11">
-        <f t="shared" si="1"/>
-        <v>946.00000000000011</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="68"/>
-      <c r="B12" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="54">
-        <f>2000*0.57</f>
-        <v>1140</v>
-      </c>
-      <c r="D12" s="11">
-        <f t="shared" si="0"/>
-        <v>1026</v>
-      </c>
-      <c r="E12" s="11">
-        <f t="shared" si="1"/>
-        <v>1254</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="68"/>
-      <c r="B13" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="50">
-        <v>10</v>
-      </c>
-      <c r="D13" s="50">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E13" s="50">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="68"/>
-      <c r="B14" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="50">
-        <v>20</v>
-      </c>
-      <c r="D14" s="50">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E14" s="50">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="68"/>
-      <c r="B15" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="50">
-        <v>70</v>
-      </c>
-      <c r="D15" s="50">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="E15" s="50">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="68"/>
-      <c r="B16" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="50">
-        <v>10</v>
-      </c>
-      <c r="D16" s="50">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E16" s="50">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="68"/>
-      <c r="B17" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="50">
-        <v>20</v>
-      </c>
-      <c r="D17" s="50">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E17" s="50">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="69"/>
-      <c r="B18" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="50">
-        <v>70</v>
-      </c>
-      <c r="D18" s="50">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="E18" s="50">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="30" customFormat="1" ht="14.7" customHeight="1">
-      <c r="A19" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="44">
-        <f>214.17*C23</f>
-        <v>510.43849999999998</v>
-      </c>
-      <c r="D19" s="44">
-        <f t="shared" si="0"/>
-        <v>459.39465000000001</v>
-      </c>
-      <c r="E19" s="44">
-        <f t="shared" si="1"/>
-        <v>561.48235</v>
-      </c>
-      <c r="F19" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="30" customFormat="1">
-      <c r="A20" s="71"/>
-      <c r="B20" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="44">
-        <f>0.38*C23</f>
-        <v>0.90566666666666662</v>
-      </c>
-      <c r="D20" s="44">
-        <f t="shared" si="0"/>
-        <v>0.81509999999999994</v>
-      </c>
-      <c r="E20" s="44">
-        <f t="shared" si="1"/>
-        <v>0.99623333333333342</v>
-      </c>
-      <c r="F20" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="45" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="30" customFormat="1">
-      <c r="A21" s="71"/>
-      <c r="B21" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="44">
-        <f>1.5*C23</f>
-        <v>3.5750000000000002</v>
-      </c>
-      <c r="D21" s="44">
-        <f t="shared" si="0"/>
-        <v>3.2175000000000002</v>
-      </c>
-      <c r="E21" s="44">
-        <f t="shared" si="1"/>
-        <v>3.9325000000000006</v>
-      </c>
-      <c r="F21" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="45" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.55" customHeight="1">
-      <c r="A22" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="46">
-        <f>5*12</f>
-        <v>60</v>
-      </c>
-      <c r="D22" s="46">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="E22" s="46">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="73"/>
-      <c r="B23" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="24">
-        <f>(10+26+43+43+21)/C22</f>
-        <v>2.3833333333333333</v>
-      </c>
-      <c r="D23" s="24">
-        <f t="shared" si="0"/>
-        <v>2.145</v>
-      </c>
-      <c r="E23" s="24">
-        <f t="shared" si="1"/>
-        <v>2.621666666666667</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="73"/>
-      <c r="B24" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C24" s="54">
-        <f>750*3</f>
-        <v>2250</v>
-      </c>
-      <c r="D24" s="24">
-        <f t="shared" si="0"/>
-        <v>2025</v>
-      </c>
-      <c r="E24" s="24">
-        <f t="shared" si="1"/>
-        <v>2475</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="73"/>
-      <c r="B25" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="54">
-        <f>(750+170+310+60)*3</f>
-        <v>3870</v>
-      </c>
-      <c r="D25" s="24">
-        <f t="shared" si="0"/>
-        <v>3483</v>
-      </c>
-      <c r="E25" s="24">
-        <f t="shared" si="1"/>
-        <v>4257</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="73"/>
-      <c r="B26" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="C26" s="59">
-        <v>1</v>
-      </c>
-      <c r="D26" s="33">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="E26" s="33">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="34" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="73"/>
-      <c r="B27" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" s="59">
-        <v>8</v>
-      </c>
-      <c r="D27" s="33">
-        <f t="shared" si="0"/>
-        <v>7.2</v>
-      </c>
-      <c r="E27" s="33">
-        <f t="shared" si="1"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27" s="34" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="73"/>
-      <c r="B28" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="24">
-        <v>3</v>
-      </c>
-      <c r="D28" s="24">
-        <f t="shared" si="0"/>
-        <v>2.7</v>
-      </c>
-      <c r="E28" s="24">
-        <f t="shared" si="1"/>
-        <v>3.3000000000000003</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="73"/>
-      <c r="B29" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="24">
-        <v>1</v>
-      </c>
-      <c r="D29" s="24">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="E29" s="24">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="73"/>
-      <c r="B30" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="24">
-        <v>1000</v>
-      </c>
-      <c r="D30" s="24">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="E30" s="24">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="14.55" customHeight="1">
-      <c r="A31" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="54">
-        <f>0.29+0.09+0.16</f>
-        <v>0.54</v>
-      </c>
-      <c r="D31" s="12">
-        <f t="shared" si="0"/>
-        <v>0.48600000000000004</v>
-      </c>
-      <c r="E31" s="12">
-        <f t="shared" si="1"/>
-        <v>0.59400000000000008</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="14.55" customHeight="1">
-      <c r="A32" s="75"/>
-      <c r="B32" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="54">
-        <f>0.2</f>
-        <v>0.2</v>
-      </c>
-      <c r="D32" s="12">
-        <f t="shared" si="0"/>
-        <v>0.18000000000000002</v>
-      </c>
-      <c r="E32" s="12">
-        <f t="shared" si="1"/>
-        <v>0.22000000000000003</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="75"/>
-      <c r="B33" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" s="54">
-        <f>0.26</f>
-        <v>0.26</v>
-      </c>
-      <c r="D33" s="12">
-        <f t="shared" si="0"/>
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="E33" s="12">
-        <f t="shared" si="1"/>
-        <v>0.28600000000000003</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="75"/>
-      <c r="B34" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="54">
-        <v>0</v>
-      </c>
-      <c r="D34" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="75"/>
-      <c r="B35" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="12">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D35" s="12">
-        <f t="shared" si="0"/>
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="E35" s="12">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001E-5</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="75"/>
-      <c r="B36" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="12">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D36" s="12">
-        <f t="shared" si="0"/>
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="E36" s="12">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001E-5</v>
-      </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="75"/>
-      <c r="B37" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="12">
-        <v>1.25</v>
-      </c>
-      <c r="D37" s="12">
-        <f t="shared" si="0"/>
-        <v>1.125</v>
-      </c>
-      <c r="E37" s="12">
-        <f t="shared" si="1"/>
-        <v>1.375</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="75"/>
-      <c r="B38" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="12">
-        <v>1.25</v>
-      </c>
-      <c r="D38" s="12">
-        <f t="shared" si="0"/>
-        <v>1.125</v>
-      </c>
-      <c r="E38" s="12">
-        <f t="shared" si="1"/>
-        <v>1.375</v>
-      </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="75"/>
-      <c r="B39" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C39" s="12">
-        <v>1</v>
-      </c>
-      <c r="D39" s="12">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="E39" s="12">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="75"/>
-      <c r="B40" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="D40" s="12">
-        <f t="shared" si="0"/>
-        <v>1.08</v>
-      </c>
-      <c r="E40" s="12">
-        <f t="shared" si="1"/>
-        <v>1.32</v>
-      </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="75"/>
-      <c r="B41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="12">
-        <v>1</v>
-      </c>
-      <c r="D41" s="12">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="E41" s="12">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="75"/>
-      <c r="B42" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="12">
-        <v>1</v>
-      </c>
-      <c r="D42" s="12">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="E42" s="12">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A43" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="38">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D43" s="38">
-        <f t="shared" si="0"/>
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="E43" s="38">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001E-5</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43" s="39" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A44" s="77"/>
-      <c r="B44" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" s="38">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D44" s="38">
-        <f t="shared" si="0"/>
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="E44" s="38">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001E-5</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G44" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-    </row>
-    <row r="45" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A45" s="77"/>
-      <c r="B45" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" s="38">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D45" s="38">
-        <f t="shared" si="0"/>
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="E45" s="38">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001E-5</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G45" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
-    </row>
-    <row r="46" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A46" s="77"/>
-      <c r="B46" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="C46" s="53">
-        <f>4.44*$C$19</f>
-        <v>2266.3469399999999</v>
-      </c>
-      <c r="D46" s="38">
-        <f t="shared" si="0"/>
-        <v>2039.7122460000001</v>
-      </c>
-      <c r="E46" s="38">
-        <f t="shared" si="1"/>
-        <v>2492.9816340000002</v>
-      </c>
-      <c r="F46" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="G46" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="H46" s="48"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="51"/>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="77"/>
-      <c r="B47" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="36">
-        <f>0.00444*C25</f>
-        <v>17.1828</v>
-      </c>
-      <c r="D47" s="36">
-        <f t="shared" si="0"/>
-        <v>15.46452</v>
-      </c>
-      <c r="E47" s="36">
-        <f t="shared" si="1"/>
-        <v>18.90108</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="G47" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="51"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="77"/>
-      <c r="B48" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" s="36">
-        <f>0.00356*C25</f>
-        <v>13.777199999999999</v>
-      </c>
-      <c r="D48" s="36">
-        <f t="shared" si="0"/>
-        <v>12.399479999999999</v>
-      </c>
-      <c r="E48" s="36">
-        <f t="shared" si="1"/>
-        <v>15.154920000000001</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="G48" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="77"/>
-      <c r="B49" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="36">
-        <f>0.000015*C25</f>
-        <v>5.8050000000000004E-2</v>
-      </c>
-      <c r="D49" s="36">
-        <f t="shared" si="0"/>
-        <v>5.2245000000000007E-2</v>
-      </c>
-      <c r="E49" s="36">
-        <f t="shared" si="1"/>
-        <v>6.3855000000000009E-2</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="G49" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="I49" s="51"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="51"/>
-      <c r="M49" s="51"/>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="78"/>
-      <c r="B50" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="C50" s="36">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D50" s="36">
-        <f t="shared" si="0"/>
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="E50" s="36">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001E-5</v>
-      </c>
-      <c r="F50" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="G50" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="51"/>
-      <c r="M50" s="51"/>
-    </row>
-    <row r="51" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A51" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" s="54">
-        <f>800</f>
-        <v>800</v>
-      </c>
-      <c r="D51" s="15">
-        <f t="shared" si="0"/>
-        <v>720</v>
-      </c>
-      <c r="E51" s="15">
-        <f t="shared" si="1"/>
-        <v>880.00000000000011</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="61"/>
-      <c r="B52" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" s="15">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D52" s="15">
-        <f t="shared" si="0"/>
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="E52" s="15">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001E-5</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G52" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="61"/>
-      <c r="B53" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="15">
-        <f>AVERAGE(1808,8554,18177,14838,1304)</f>
-        <v>8936.2000000000007</v>
-      </c>
-      <c r="D53" s="15">
-        <f t="shared" si="0"/>
-        <v>8042.5800000000008</v>
-      </c>
-      <c r="E53" s="15">
-        <f t="shared" si="1"/>
-        <v>9829.8200000000015</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="61"/>
-      <c r="B54" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C54" s="54">
-        <f>1150/1000</f>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="D54" s="15">
-        <f t="shared" si="0"/>
-        <v>1.0349999999999999</v>
-      </c>
-      <c r="E54" s="15">
-        <f t="shared" si="1"/>
-        <v>1.2649999999999999</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G54" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="61"/>
-      <c r="B55" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" s="15">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D55" s="15">
-        <f t="shared" si="0"/>
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="E55" s="15">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001E-5</v>
-      </c>
-      <c r="F55" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="61"/>
-      <c r="B56" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C56" s="54">
-        <f>(C54*0.7)*4</f>
-        <v>3.2199999999999998</v>
-      </c>
-      <c r="D56" s="15">
-        <f t="shared" si="0"/>
-        <v>2.8979999999999997</v>
-      </c>
-      <c r="E56" s="15">
-        <f t="shared" si="1"/>
-        <v>3.5419999999999998</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G56" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="62"/>
-      <c r="B57" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="C57" s="56">
-        <f>12.56*164/66</f>
-        <v>31.209696969696971</v>
-      </c>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="G57" s="19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="62"/>
-      <c r="B58" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="C58" s="56">
-        <f>12.56*60</f>
-        <v>753.6</v>
-      </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="G58" s="19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="62"/>
-      <c r="B59" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="C59" s="56">
-        <f>41</f>
-        <v>41</v>
-      </c>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="G59" s="19"/>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="62"/>
-      <c r="B60" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="C60" s="56">
-        <f>4*60*60</f>
-        <v>14400</v>
-      </c>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="G60" s="19" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="62"/>
-      <c r="B61" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C61" s="27">
-        <v>2</v>
-      </c>
-      <c r="D61" s="18">
-        <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-      <c r="E61" s="18">
-        <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F61" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="G61" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="K61" s="13"/>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="62"/>
-      <c r="B62" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="C62" s="27">
-        <f>C61</f>
-        <v>2</v>
-      </c>
-      <c r="D62" s="18">
-        <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-      <c r="E62" s="18">
-        <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F62" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="G62" s="19"/>
-      <c r="K62" s="13"/>
-    </row>
-    <row r="63" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A63" s="62"/>
-      <c r="B63" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C63" s="27">
-        <v>0.95</v>
-      </c>
-      <c r="D63" s="18">
-        <f t="shared" ref="D63:D88" si="2">C63*0.9</f>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="E63" s="18">
-        <f t="shared" ref="E63:E88" si="3">C63*1.1</f>
-        <v>1.0449999999999999</v>
-      </c>
-      <c r="F63" s="21"/>
-      <c r="G63" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="K63" s="13"/>
-    </row>
-    <row r="64" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A64" s="62"/>
-      <c r="B64" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="C64" s="27">
-        <v>1</v>
-      </c>
-      <c r="D64" s="18">
-        <f t="shared" si="2"/>
-        <v>0.9</v>
-      </c>
-      <c r="E64" s="18">
-        <f t="shared" si="3"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F64" s="21"/>
-      <c r="G64" s="19"/>
-      <c r="K64" s="13"/>
-    </row>
-    <row r="65" spans="1:11" ht="14.55" customHeight="1">
-      <c r="A65" s="62"/>
-      <c r="B65" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C65" s="27">
-        <v>10</v>
-      </c>
-      <c r="D65" s="18">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="E65" s="18">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="F65" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="G65" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="K65" s="13"/>
-    </row>
-    <row r="66" spans="1:11" ht="14.55" customHeight="1">
-      <c r="A66" s="62"/>
-      <c r="B66" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="C66" s="27">
-        <f>150/C62</f>
-        <v>75</v>
-      </c>
-      <c r="D66" s="18">
-        <f t="shared" si="2"/>
-        <v>67.5</v>
-      </c>
-      <c r="E66" s="18">
-        <f t="shared" si="3"/>
-        <v>82.5</v>
-      </c>
-      <c r="F66" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="G66" s="19"/>
-      <c r="K66" s="13"/>
-    </row>
-    <row r="67" spans="1:11" ht="14.55" customHeight="1">
-      <c r="A67" s="62"/>
-      <c r="B67" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C67" s="18">
-        <v>2.3315789473684214</v>
-      </c>
-      <c r="D67" s="18">
-        <f t="shared" si="2"/>
-        <v>2.0984210526315792</v>
-      </c>
-      <c r="E67" s="18">
-        <f t="shared" si="3"/>
-        <v>2.5647368421052636</v>
-      </c>
-      <c r="F67" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G67" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="K67" s="13"/>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="62"/>
-      <c r="B68" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C68" s="18">
-        <v>4.4784688995215309E-2</v>
-      </c>
-      <c r="D68" s="18">
-        <f t="shared" si="2"/>
-        <v>4.0306220095693776E-2</v>
-      </c>
-      <c r="E68" s="18">
-        <f t="shared" si="3"/>
-        <v>4.9263157894736842E-2</v>
-      </c>
-      <c r="F68" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G68" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="K68" s="13"/>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="62"/>
-      <c r="B69" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="C69" s="18">
-        <v>4.2497607655502394</v>
-      </c>
-      <c r="D69" s="18">
-        <f t="shared" si="2"/>
-        <v>3.8247846889952157</v>
-      </c>
-      <c r="E69" s="18">
-        <f t="shared" si="3"/>
-        <v>4.674736842105264</v>
-      </c>
-      <c r="F69" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G69" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="K69" s="13"/>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="63"/>
-      <c r="B70" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C70" s="18">
-        <v>6</v>
-      </c>
-      <c r="D70" s="18">
-        <f t="shared" si="2"/>
-        <v>5.4</v>
-      </c>
-      <c r="E70" s="18">
-        <f t="shared" si="3"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="F70" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G70" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="K70" s="13"/>
-    </row>
-    <row r="71" spans="1:11" ht="14.55" customHeight="1">
-      <c r="A71" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="B71" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C71" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="D71" s="41">
-        <f t="shared" si="2"/>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="E71" s="41">
-        <f t="shared" si="3"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="F71" s="42"/>
-      <c r="G71" s="42" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="65"/>
-      <c r="B72" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C72" s="49">
-        <v>0.2</v>
-      </c>
-      <c r="D72" s="41">
-        <f t="shared" si="2"/>
-        <v>0.18000000000000002</v>
-      </c>
-      <c r="E72" s="41">
-        <f t="shared" si="3"/>
-        <v>0.22000000000000003</v>
-      </c>
-      <c r="F72" s="42"/>
-      <c r="G72" s="42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="65"/>
-      <c r="B73" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C73" s="49">
-        <v>0.2</v>
-      </c>
-      <c r="D73" s="41">
-        <f t="shared" si="2"/>
-        <v>0.18000000000000002</v>
-      </c>
-      <c r="E73" s="41">
-        <f t="shared" si="3"/>
-        <v>0.22000000000000003</v>
-      </c>
-      <c r="F73" s="42"/>
-      <c r="G73" s="42" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="65"/>
-      <c r="B74" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C74" s="50">
-        <v>0.2</v>
-      </c>
-      <c r="D74" s="41">
-        <f t="shared" si="2"/>
-        <v>0.18000000000000002</v>
-      </c>
-      <c r="E74" s="41">
-        <f t="shared" si="3"/>
-        <v>0.22000000000000003</v>
-      </c>
-      <c r="F74" s="42"/>
-      <c r="G74" s="42" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="65"/>
-      <c r="B75" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="C75" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="D75" s="41">
-        <f t="shared" si="2"/>
-        <v>0.45</v>
-      </c>
-      <c r="E75" s="41">
-        <f t="shared" si="3"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F75" s="42"/>
-      <c r="G75" s="42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="65"/>
-      <c r="B76" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="C76" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="D76" s="41">
-        <f t="shared" si="2"/>
-        <v>0.45</v>
-      </c>
-      <c r="E76" s="41">
-        <f t="shared" si="3"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F76" s="42"/>
-      <c r="G76" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="K76" s="13"/>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="65"/>
-      <c r="B77" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C77" s="50">
-        <v>0.25</v>
-      </c>
-      <c r="D77" s="41">
-        <f t="shared" si="2"/>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="E77" s="41">
-        <f t="shared" si="3"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="F77" s="42"/>
-      <c r="G77" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="K77" s="13"/>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="65"/>
-      <c r="B78" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C78" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="D78" s="41">
-        <f t="shared" si="2"/>
-        <v>9.0000000000000011E-2</v>
-      </c>
-      <c r="E78" s="41">
-        <f t="shared" si="3"/>
-        <v>0.11000000000000001</v>
-      </c>
-      <c r="F78" s="42"/>
-      <c r="G78" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="K78" s="13"/>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="65"/>
-      <c r="B79" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C79" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="D79" s="41">
-        <f t="shared" si="2"/>
-        <v>9.0000000000000011E-2</v>
-      </c>
-      <c r="E79" s="41">
-        <f t="shared" si="3"/>
-        <v>0.11000000000000001</v>
-      </c>
-      <c r="F79" s="42"/>
-      <c r="G79" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="K79" s="13"/>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="65"/>
-      <c r="B80" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C80" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="D80" s="41">
-        <f t="shared" si="2"/>
-        <v>9.0000000000000011E-2</v>
-      </c>
-      <c r="E80" s="41">
-        <f t="shared" si="3"/>
-        <v>0.11000000000000001</v>
-      </c>
-      <c r="F80" s="42"/>
-      <c r="G80" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="K80" s="13"/>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="65"/>
-      <c r="B81" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C81" s="50">
-        <v>0.45</v>
-      </c>
-      <c r="D81" s="41">
-        <f t="shared" si="2"/>
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="E81" s="41">
-        <f t="shared" si="3"/>
-        <v>0.49500000000000005</v>
-      </c>
-      <c r="F81" s="42"/>
-      <c r="G81" s="42" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="65"/>
-      <c r="B82" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="C82" s="50">
-        <v>0.45</v>
-      </c>
-      <c r="D82" s="41">
-        <f t="shared" si="2"/>
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="E82" s="41">
-        <f t="shared" si="3"/>
-        <v>0.49500000000000005</v>
-      </c>
-      <c r="F82" s="42"/>
-      <c r="G82" s="42" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="65"/>
-      <c r="B83" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C83" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="D83" s="41">
-        <f t="shared" si="2"/>
-        <v>0.45</v>
-      </c>
-      <c r="E83" s="41">
-        <f t="shared" si="3"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F83" s="42"/>
-      <c r="G83" s="42" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="65"/>
-      <c r="B84" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C84" s="49">
-        <v>0.7</v>
-      </c>
-      <c r="D84" s="41">
-        <f t="shared" si="2"/>
-        <v>0.63</v>
-      </c>
-      <c r="E84" s="41">
-        <f t="shared" si="3"/>
-        <v>0.77</v>
-      </c>
-      <c r="F84" s="42"/>
-      <c r="G84" s="42" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="65"/>
-      <c r="B85" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C85" s="49">
-        <v>0.7</v>
-      </c>
-      <c r="D85" s="41">
-        <f t="shared" si="2"/>
-        <v>0.63</v>
-      </c>
-      <c r="E85" s="41">
-        <f t="shared" si="3"/>
-        <v>0.77</v>
-      </c>
-      <c r="F85" s="42"/>
-      <c r="G85" s="42" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="65"/>
-      <c r="B86" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C86" s="49">
-        <v>0.7</v>
-      </c>
-      <c r="D86" s="41">
-        <f t="shared" si="2"/>
-        <v>0.63</v>
-      </c>
-      <c r="E86" s="41">
-        <f t="shared" si="3"/>
-        <v>0.77</v>
-      </c>
-      <c r="F86" s="42"/>
-      <c r="G86" s="42" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="65"/>
-      <c r="B87" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="C87" s="49">
-        <v>0.05</v>
-      </c>
-      <c r="D87" s="41">
-        <f t="shared" si="2"/>
-        <v>4.5000000000000005E-2</v>
-      </c>
-      <c r="E87" s="41">
-        <f t="shared" si="3"/>
-        <v>5.5000000000000007E-2</v>
-      </c>
-      <c r="F87" s="42"/>
-      <c r="G87" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="K87" s="13"/>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="65"/>
-      <c r="B88" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="C88" s="49">
-        <v>0.05</v>
-      </c>
-      <c r="D88" s="41">
-        <f t="shared" si="2"/>
-        <v>4.5000000000000005E-2</v>
-      </c>
-      <c r="E88" s="41">
-        <f t="shared" si="3"/>
-        <v>5.5000000000000007E-2</v>
-      </c>
-      <c r="F88" s="42"/>
-      <c r="G88" s="42" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="105" spans="11:11">
-      <c r="K105" s="13"/>
-    </row>
-    <row r="109" spans="11:11">
-      <c r="K109" s="13"/>
-    </row>
-    <row r="110" spans="11:11">
-      <c r="K110" s="13"/>
-    </row>
-    <row r="111" spans="11:11">
-      <c r="K111" s="13"/>
-    </row>
-    <row r="112" spans="11:11">
-      <c r="K112" s="13"/>
-    </row>
-    <row r="113" spans="11:11">
-      <c r="K113" s="13"/>
-    </row>
-    <row r="114" spans="11:11">
-      <c r="K114" s="13"/>
-    </row>
-    <row r="115" spans="11:11">
-      <c r="K115" s="13"/>
-    </row>
-    <row r="116" spans="11:11">
-      <c r="K116" s="13"/>
-    </row>
-    <row r="117" spans="11:11">
-      <c r="K117" s="13"/>
-    </row>
-    <row r="118" spans="11:11">
-      <c r="K118" s="13"/>
-    </row>
-    <row r="119" spans="11:11">
-      <c r="K119" s="13"/>
-    </row>
-    <row r="120" spans="11:11">
-      <c r="K120" s="13"/>
-    </row>
-    <row r="121" spans="11:11">
-      <c r="K121" s="13"/>
-    </row>
-    <row r="123" spans="11:11">
-      <c r="K123" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="A57:A70"/>
-    <mergeCell ref="A71:A88"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A4:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A30"/>
-    <mergeCell ref="A31:A42"/>
-    <mergeCell ref="A43:A50"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
+<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C22" dT="2019-12-31T13:50:55.89" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{B64A9405-CA93-4BAF-AD93-813FE3D4E86A}">
+    <text>107087 kWh/month @ G1170. Considering 500 workers in the building, the average per worker is 214.17.</text>
+  </threadedComment>
+  <threadedComment ref="C23" dT="2019-12-31T14:01:21.91" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{CF598D54-235C-4B3A-8F29-2CAF51DD7B92}">
+    <text>190 m³/month @ G1170. Considering 500 workers in the building, the average per worker is 0.38</text>
+  </threadedComment>
+  <threadedComment ref="C24" dT="2019-12-31T14:02:51.19" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{1CD5EAD8-E134-4A74-9CA7-92E495E330C0}">
+    <text>750 m³/month @ G1170. Considering 500 workers in the building, the average per worker is 1.5</text>
+  </threadedComment>
+  <threadedComment ref="C29" dT="2021-06-08T03:06:52.41" personId="{172B4ACD-BB32-3A40-A6EE-78502C39DADA}" id="{C77D5C73-4A57-4CE0-BCE7-C000D2E41C3B}">
+    <text>Rebitadeira automática</text>
+  </threadedComment>
+  <threadedComment ref="C30" dT="2021-06-07T19:51:07.06" personId="{172B4ACD-BB32-3A40-A6EE-78502C39DADA}" id="{701E875C-64FF-41FD-9D8E-78BDB78A00DA}">
+    <text>Considerando 3 estufas (composto), 1 rebitadeiras automáticas, 1 robô pintura, 2 CNC (portas e furos), 1 robô pick and place (composto)</text>
+  </threadedComment>
+  <threadedComment ref="C49" dT="2019-12-31T14:53:25.54" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{6C696F9D-3591-4E6C-9717-D0C55179ACEC}">
+    <text>80000 kWh/month @ G1360. Considering 18000 m², the average per m² is 4.44</text>
+  </threadedComment>
+  <threadedComment ref="C50" dT="2019-12-31T14:55:29.34" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{CBDA8666-7368-4103-BF88-9923ADC52B79}">
+    <text>80 m³/month @ G1360. Considering 18000 m², the average per m² is 0.00444</text>
+  </threadedComment>
+  <threadedComment ref="C51" dT="2019-12-31T16:34:31.50" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{8802BE35-D9DF-44FC-931F-ACF4E9E3C9C6}">
+    <text>64 m³/month @ G1360. Considering 18000 m², the average per m² is 0.00356</text>
+  </threadedComment>
+  <threadedComment ref="C52" dT="2019-12-31T16:35:39.91" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{8B47847B-A2CF-42EA-B640-30D524F8E5DF}">
+    <text>0.27 m³/month @ G1360. Considering 18000 m², the average per m² is 0.000015</text>
+  </threadedComment>
+  <threadedComment ref="C54" dT="2021-06-07T18:01:09.55" personId="{172B4ACD-BB32-3A40-A6EE-78502C39DADA}" id="{28048AEF-849D-4636-9121-F9110AD8BDEE}">
+    <text>Considerando que a distância média de entrega no BR é 800km, extrapolando esse valor para os outros destinos também (considerando que além do transporte marítmo, será enviado via terra até o cliente final)</text>
+  </threadedComment>
+  <threadedComment ref="C57" dT="2021-06-07T18:31:21.06" personId="{172B4ACD-BB32-3A40-A6EE-78502C39DADA}" id="{E0A483E3-691D-4FC4-B705-5BF3DACFF8CC}">
+    <text>MTOW em t</text>
+  </threadedComment>
+  <threadedComment ref="C59" dT="2021-06-07T18:32:51.41" personId="{172B4ACD-BB32-3A40-A6EE-78502C39DADA}" id="{DCF0E7F6-F3D5-4E8A-BE82-4D2AED9EC04A}">
+    <text>Em cada container cabem 4 aviões, porém vários componentes serão integrados nos EUA, portanto considerei 70% do MTOW</text>
+  </threadedComment>
+</ThreadedComments>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B232C13D-411F-C34C-8B06-A5C237365F81}">
   <dimension ref="A1:M129"/>
   <sheetViews>
@@ -6580,13 +4579,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C712432D-C946-4E76-9C56-C65B4186EF49}">
   <dimension ref="A1:M118"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -7896,7 +5895,7 @@
         <v>33</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C57" s="55">
         <f>46.96/7937</f>
@@ -8013,7 +6012,7 @@
     <row r="62" spans="1:13">
       <c r="A62" s="62"/>
       <c r="B62" s="17" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C62" s="55">
         <f>6.32*60</f>
@@ -8204,7 +6203,7 @@
         <v>2.0984210526315792</v>
       </c>
       <c r="E70" s="18">
-        <f t="shared" ref="E69:E73" si="3">C70*1.1</f>
+        <f t="shared" ref="E70:E73" si="3">C70*1.1</f>
         <v>2.5647368421052636</v>
       </c>
       <c r="F70" s="19" t="s">
@@ -8736,12 +6735,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA00D02-D56C-1F44-AD44-46BF31C323D9}">
   <dimension ref="A1:M126"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -10053,7 +8052,7 @@
         <v>33</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C57" s="55">
         <f>36.52/7937</f>
@@ -10170,7 +8169,7 @@
     <row r="62" spans="1:13">
       <c r="A62" s="62"/>
       <c r="B62" s="17" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C62" s="55">
         <f>48.66*60</f>
@@ -10334,11 +8333,11 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D69" s="18">
-        <f t="shared" ref="D68:D91" si="2">C69*0.9</f>
+        <f t="shared" ref="D69:D91" si="2">C69*0.9</f>
         <v>9.0000000000000002E-6</v>
       </c>
       <c r="E69" s="18">
-        <f t="shared" ref="E68:E91" si="3">C69*1.1</f>
+        <f t="shared" ref="E69:E91" si="3">C69*1.1</f>
         <v>1.1000000000000001E-5</v>
       </c>
       <c r="F69" s="21" t="s">
@@ -10875,6 +8874,2164 @@
     </row>
     <row r="126" spans="11:11">
       <c r="K126" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="A57:A73"/>
+    <mergeCell ref="A74:A91"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="A31:A42"/>
+    <mergeCell ref="A43:A50"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E134E5-91A9-214F-A953-DB87B8BF84DC}">
+  <dimension ref="A1:M115"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="7.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="75.77734375" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="66" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1">
+      <c r="A4" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="54">
+        <v>0.83</v>
+      </c>
+      <c r="D4" s="11">
+        <f>C4*0.9</f>
+        <v>0.747</v>
+      </c>
+      <c r="E4" s="11">
+        <f>C4*1.1</f>
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1">
+      <c r="A5" s="68"/>
+      <c r="B5" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="54">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11">
+        <f t="shared" ref="D5:D67" si="0">C5*0.9</f>
+        <v>0.9</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" ref="E5:E67" si="1">C5*1.1</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="68"/>
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="26">
+        <v>563.97</v>
+      </c>
+      <c r="D6" s="11">
+        <f t="shared" si="0"/>
+        <v>507.57300000000004</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="1"/>
+        <v>620.36700000000008</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="68"/>
+      <c r="B7" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="54">
+        <v>90</v>
+      </c>
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="1"/>
+        <v>99.000000000000014</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="68"/>
+      <c r="B8" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="54">
+        <f>22.93/60</f>
+        <v>0.38216666666666665</v>
+      </c>
+      <c r="D8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34394999999999998</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="1"/>
+        <v>0.42038333333333333</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="68"/>
+      <c r="B9" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="54">
+        <v>69.17</v>
+      </c>
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
+        <v>62.253</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="1"/>
+        <v>76.087000000000003</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="68"/>
+      <c r="B10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="11">
+        <f>AVERAGE(23,38,31)</f>
+        <v>30.666666666666668</v>
+      </c>
+      <c r="D10" s="11">
+        <f t="shared" si="0"/>
+        <v>27.6</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="1"/>
+        <v>33.733333333333334</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="68"/>
+      <c r="B11" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="54">
+        <f>8204*0.43</f>
+        <v>3527.72</v>
+      </c>
+      <c r="D11" s="11">
+        <f t="shared" si="0"/>
+        <v>3174.9479999999999</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="1"/>
+        <v>3880.4920000000002</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="68"/>
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="54">
+        <f>8204*0.57</f>
+        <v>4676.28</v>
+      </c>
+      <c r="D12" s="11">
+        <f t="shared" si="0"/>
+        <v>4208.652</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="1"/>
+        <v>5143.9080000000004</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="68"/>
+      <c r="B13" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="50">
+        <v>15</v>
+      </c>
+      <c r="D13" s="50">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="E13" s="50">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="68"/>
+      <c r="B14" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="50">
+        <v>70</v>
+      </c>
+      <c r="D14" s="50">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="E14" s="50">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="68"/>
+      <c r="B15" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="50">
+        <v>15</v>
+      </c>
+      <c r="D15" s="50">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="E15" s="50">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="68"/>
+      <c r="B16" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="50">
+        <v>10</v>
+      </c>
+      <c r="D16" s="50">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E16" s="50">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="68"/>
+      <c r="B17" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="50">
+        <v>20</v>
+      </c>
+      <c r="D17" s="50">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E17" s="50">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="69"/>
+      <c r="B18" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="50">
+        <v>70</v>
+      </c>
+      <c r="D18" s="50">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="E18" s="50">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="30" customFormat="1" ht="14.7" customHeight="1">
+      <c r="A19" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="44">
+        <f>214.17*C23</f>
+        <v>510.43849999999998</v>
+      </c>
+      <c r="D19" s="44">
+        <f t="shared" si="0"/>
+        <v>459.39465000000001</v>
+      </c>
+      <c r="E19" s="44">
+        <f t="shared" si="1"/>
+        <v>561.48235</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="30" customFormat="1">
+      <c r="A20" s="71"/>
+      <c r="B20" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="44">
+        <f>0.38*C23</f>
+        <v>0.90566666666666662</v>
+      </c>
+      <c r="D20" s="44">
+        <f t="shared" si="0"/>
+        <v>0.81509999999999994</v>
+      </c>
+      <c r="E20" s="44">
+        <f t="shared" si="1"/>
+        <v>0.99623333333333342</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="30" customFormat="1">
+      <c r="A21" s="71"/>
+      <c r="B21" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="44">
+        <f>1.5*C23</f>
+        <v>3.5750000000000002</v>
+      </c>
+      <c r="D21" s="44">
+        <f t="shared" si="0"/>
+        <v>3.2175000000000002</v>
+      </c>
+      <c r="E21" s="44">
+        <f t="shared" si="1"/>
+        <v>3.9325000000000006</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.55" customHeight="1">
+      <c r="A22" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="46">
+        <f>5*12</f>
+        <v>60</v>
+      </c>
+      <c r="D22" s="46">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="E22" s="46">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="73"/>
+      <c r="B23" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="24">
+        <f>(10+26+43+43+21)/C22</f>
+        <v>2.3833333333333333</v>
+      </c>
+      <c r="D23" s="24">
+        <f t="shared" si="0"/>
+        <v>2.145</v>
+      </c>
+      <c r="E23" s="24">
+        <f t="shared" si="1"/>
+        <v>2.621666666666667</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="73"/>
+      <c r="B24" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="54">
+        <f>750*3</f>
+        <v>2250</v>
+      </c>
+      <c r="D24" s="24">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="E24" s="24">
+        <f t="shared" si="1"/>
+        <v>2475</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="73"/>
+      <c r="B25" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="54">
+        <f>(750+170+310+60)*3</f>
+        <v>3870</v>
+      </c>
+      <c r="D25" s="24">
+        <f t="shared" si="0"/>
+        <v>3483</v>
+      </c>
+      <c r="E25" s="24">
+        <f t="shared" si="1"/>
+        <v>4257</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="73"/>
+      <c r="B26" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="59">
+        <v>1</v>
+      </c>
+      <c r="D26" s="33">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="E26" s="33">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="73"/>
+      <c r="B27" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="59">
+        <v>8</v>
+      </c>
+      <c r="D27" s="33">
+        <f t="shared" si="0"/>
+        <v>7.2</v>
+      </c>
+      <c r="E27" s="33">
+        <f t="shared" si="1"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="73"/>
+      <c r="B28" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="24">
+        <v>3</v>
+      </c>
+      <c r="D28" s="24">
+        <f t="shared" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="E28" s="24">
+        <f t="shared" si="1"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="73"/>
+      <c r="B29" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="24">
+        <v>1</v>
+      </c>
+      <c r="D29" s="24">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="E29" s="24">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="73"/>
+      <c r="B30" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="24">
+        <v>1000</v>
+      </c>
+      <c r="D30" s="24">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="E30" s="24">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14.55" customHeight="1">
+      <c r="A31" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="54">
+        <f>0.29+0.09+0.16</f>
+        <v>0.54</v>
+      </c>
+      <c r="D31" s="12">
+        <f t="shared" si="0"/>
+        <v>0.48600000000000004</v>
+      </c>
+      <c r="E31" s="12">
+        <f t="shared" si="1"/>
+        <v>0.59400000000000008</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="14.55" customHeight="1">
+      <c r="A32" s="75"/>
+      <c r="B32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="54">
+        <f>0.2</f>
+        <v>0.2</v>
+      </c>
+      <c r="D32" s="12">
+        <f t="shared" si="0"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="E32" s="12">
+        <f t="shared" si="1"/>
+        <v>0.22000000000000003</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="75"/>
+      <c r="B33" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="54">
+        <f>0.26</f>
+        <v>0.26</v>
+      </c>
+      <c r="D33" s="12">
+        <f t="shared" si="0"/>
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="E33" s="12">
+        <f t="shared" si="1"/>
+        <v>0.28600000000000003</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="75"/>
+      <c r="B34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="54">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D34" s="12">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="E34" s="12">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001E-5</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="75"/>
+      <c r="B35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="54">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D35" s="12">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="E35" s="12">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001E-5</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="75"/>
+      <c r="B36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="54">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D36" s="12">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="E36" s="12">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001E-5</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="75"/>
+      <c r="B37" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="D37" s="12">
+        <f t="shared" si="0"/>
+        <v>1.125</v>
+      </c>
+      <c r="E37" s="12">
+        <f t="shared" si="1"/>
+        <v>1.375</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="75"/>
+      <c r="B38" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="D38" s="12">
+        <f t="shared" si="0"/>
+        <v>1.125</v>
+      </c>
+      <c r="E38" s="12">
+        <f t="shared" si="1"/>
+        <v>1.375</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="75"/>
+      <c r="B39" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="12">
+        <v>1</v>
+      </c>
+      <c r="D39" s="12">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="E39" s="12">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="75"/>
+      <c r="B40" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="D40" s="12">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+      <c r="E40" s="12">
+        <f t="shared" si="1"/>
+        <v>1.32</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="75"/>
+      <c r="B41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="12">
+        <v>1</v>
+      </c>
+      <c r="D41" s="12">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="E41" s="12">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="75"/>
+      <c r="B42" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="12">
+        <v>1</v>
+      </c>
+      <c r="D42" s="12">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="E42" s="12">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="14.55" customHeight="1">
+      <c r="A43" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="38">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D43" s="38">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="E43" s="38">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001E-5</v>
+      </c>
+      <c r="F43" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" s="39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="14.55" customHeight="1">
+      <c r="A44" s="77"/>
+      <c r="B44" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="38">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D44" s="38">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="E44" s="38">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001E-5</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="51"/>
+    </row>
+    <row r="45" spans="1:13" ht="14.55" customHeight="1">
+      <c r="A45" s="77"/>
+      <c r="B45" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="38">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D45" s="38">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="E45" s="38">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001E-5</v>
+      </c>
+      <c r="F45" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+    </row>
+    <row r="46" spans="1:13" ht="14.55" customHeight="1">
+      <c r="A46" s="77"/>
+      <c r="B46" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="C46" s="53">
+        <f>4.44*$C$19</f>
+        <v>2266.3469399999999</v>
+      </c>
+      <c r="D46" s="38">
+        <f t="shared" si="0"/>
+        <v>2039.7122460000001</v>
+      </c>
+      <c r="E46" s="38">
+        <f t="shared" si="1"/>
+        <v>2492.9816340000002</v>
+      </c>
+      <c r="F46" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="H46" s="48"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="51"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="77"/>
+      <c r="B47" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="36">
+        <f>0.00444*C25</f>
+        <v>17.1828</v>
+      </c>
+      <c r="D47" s="36">
+        <f t="shared" si="0"/>
+        <v>15.46452</v>
+      </c>
+      <c r="E47" s="36">
+        <f t="shared" si="1"/>
+        <v>18.90108</v>
+      </c>
+      <c r="F47" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="51"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="77"/>
+      <c r="B48" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="36">
+        <f>0.00356*C25</f>
+        <v>13.777199999999999</v>
+      </c>
+      <c r="D48" s="36">
+        <f t="shared" si="0"/>
+        <v>12.399479999999999</v>
+      </c>
+      <c r="E48" s="36">
+        <f t="shared" si="1"/>
+        <v>15.154920000000001</v>
+      </c>
+      <c r="F48" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G48" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="51"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="77"/>
+      <c r="B49" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="36">
+        <f>0.000015*C25</f>
+        <v>5.8050000000000004E-2</v>
+      </c>
+      <c r="D49" s="36">
+        <f t="shared" si="0"/>
+        <v>5.2245000000000007E-2</v>
+      </c>
+      <c r="E49" s="36">
+        <f t="shared" si="1"/>
+        <v>6.3855000000000009E-2</v>
+      </c>
+      <c r="F49" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="51"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="78"/>
+      <c r="B50" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="36">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D50" s="36">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="E50" s="36">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001E-5</v>
+      </c>
+      <c r="F50" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G50" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="51"/>
+      <c r="M50" s="51"/>
+    </row>
+    <row r="51" spans="1:13" ht="14.55" customHeight="1">
+      <c r="A51" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="54">
+        <f>800</f>
+        <v>800</v>
+      </c>
+      <c r="D51" s="15">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="E51" s="15">
+        <f t="shared" si="1"/>
+        <v>880.00000000000011</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="61"/>
+      <c r="B52" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D52" s="15">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="E52" s="15">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001E-5</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="61"/>
+      <c r="B53" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="15">
+        <f>AVERAGE(1808,8554,18177,14838,1304)</f>
+        <v>8936.2000000000007</v>
+      </c>
+      <c r="D53" s="15">
+        <f t="shared" si="0"/>
+        <v>8042.5800000000008</v>
+      </c>
+      <c r="E53" s="15">
+        <f t="shared" si="1"/>
+        <v>9829.8200000000015</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="61"/>
+      <c r="B54" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="54">
+        <f>1150/1000</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D54" s="15">
+        <f t="shared" si="0"/>
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="E54" s="15">
+        <f t="shared" si="1"/>
+        <v>1.2649999999999999</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="61"/>
+      <c r="B55" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D55" s="15">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="E55" s="15">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001E-5</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="61"/>
+      <c r="B56" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="54">
+        <f>(C54*0.7)*4</f>
+        <v>3.2199999999999998</v>
+      </c>
+      <c r="D56" s="15">
+        <f t="shared" si="0"/>
+        <v>2.8979999999999997</v>
+      </c>
+      <c r="E56" s="15">
+        <f t="shared" si="1"/>
+        <v>3.5419999999999998</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="14.55" customHeight="1">
+      <c r="A57" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C57" s="55">
+        <f>46.96/7937</f>
+        <v>5.9165931712233839E-3</v>
+      </c>
+      <c r="D57" s="25">
+        <f t="shared" si="0"/>
+        <v>5.3249338541010455E-3</v>
+      </c>
+      <c r="E57" s="25">
+        <f t="shared" si="1"/>
+        <v>6.5082524883457232E-3</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="K57" s="13"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="62"/>
+      <c r="B58" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="55">
+        <f>86.6/7937</f>
+        <v>1.0910923522741589E-2</v>
+      </c>
+      <c r="D58" s="18">
+        <f t="shared" si="0"/>
+        <v>9.8198311704674312E-3</v>
+      </c>
+      <c r="E58" s="18">
+        <f t="shared" si="1"/>
+        <v>1.2002015875015749E-2</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="K58" s="13"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="62"/>
+      <c r="B59" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C59" s="55">
+        <f>36.52/7937</f>
+        <v>4.6012347234471469E-3</v>
+      </c>
+      <c r="D59" s="18">
+        <f t="shared" si="0"/>
+        <v>4.1411112511024325E-3</v>
+      </c>
+      <c r="E59" s="18">
+        <f t="shared" si="1"/>
+        <v>5.0613581957918621E-3</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="K59" s="13"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="62"/>
+      <c r="B60" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C60" s="55">
+        <f>46.96/7937</f>
+        <v>5.9165931712233839E-3</v>
+      </c>
+      <c r="D60" s="18">
+        <f t="shared" si="0"/>
+        <v>5.3249338541010455E-3</v>
+      </c>
+      <c r="E60" s="18">
+        <f t="shared" si="1"/>
+        <v>6.5082524883457232E-3</v>
+      </c>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="K60" s="13"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="62"/>
+      <c r="B61" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C61" s="55">
+        <f>55/7937</f>
+        <v>6.9295703666372686E-3</v>
+      </c>
+      <c r="D61" s="18">
+        <f t="shared" si="0"/>
+        <v>6.2366133299735418E-3</v>
+      </c>
+      <c r="E61" s="18">
+        <f t="shared" si="1"/>
+        <v>7.6225274033009964E-3</v>
+      </c>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="K61" s="13"/>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="62"/>
+      <c r="B62" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C62" s="55">
+        <f>5.61*60</f>
+        <v>336.6</v>
+      </c>
+      <c r="D62" s="18">
+        <f t="shared" si="0"/>
+        <v>302.94000000000005</v>
+      </c>
+      <c r="E62" s="18">
+        <f t="shared" si="1"/>
+        <v>370.26000000000005</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G62" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K62" s="13"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="62"/>
+      <c r="B63" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C63" s="55">
+        <f>0.55*60</f>
+        <v>33</v>
+      </c>
+      <c r="D63" s="18">
+        <f t="shared" si="0"/>
+        <v>29.7</v>
+      </c>
+      <c r="E63" s="18">
+        <f t="shared" si="1"/>
+        <v>36.300000000000004</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G63" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K63" s="13"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="62"/>
+      <c r="B64" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" s="56">
+        <f>2.5*60</f>
+        <v>150</v>
+      </c>
+      <c r="D64" s="18">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="E64" s="18">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G64" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="62"/>
+      <c r="B65" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" s="56">
+        <f>11.6*60</f>
+        <v>696</v>
+      </c>
+      <c r="D65" s="18">
+        <f t="shared" si="0"/>
+        <v>626.4</v>
+      </c>
+      <c r="E65" s="18">
+        <f t="shared" si="1"/>
+        <v>765.6</v>
+      </c>
+      <c r="F65" s="21"/>
+      <c r="G65" s="19"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="62"/>
+      <c r="B66" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C66" s="56">
+        <f>3.72*60</f>
+        <v>223.20000000000002</v>
+      </c>
+      <c r="D66" s="18">
+        <f t="shared" si="0"/>
+        <v>200.88000000000002</v>
+      </c>
+      <c r="E66" s="18">
+        <f t="shared" si="1"/>
+        <v>245.52000000000004</v>
+      </c>
+      <c r="F66" s="21"/>
+      <c r="G66" s="19"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="62"/>
+      <c r="B67" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="27">
+        <v>2</v>
+      </c>
+      <c r="D67" s="18">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="E67" s="18">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="G67" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="K67" s="13"/>
+    </row>
+    <row r="68" spans="1:11" ht="14.55" customHeight="1">
+      <c r="A68" s="62"/>
+      <c r="B68" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C68" s="27">
+        <v>0.95</v>
+      </c>
+      <c r="D68" s="18">
+        <f t="shared" ref="D68:D91" si="2">C68*0.9</f>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="E68" s="18">
+        <v>1</v>
+      </c>
+      <c r="F68" s="21"/>
+      <c r="G68" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K68" s="13"/>
+    </row>
+    <row r="69" spans="1:11" ht="14.55" customHeight="1">
+      <c r="A69" s="62"/>
+      <c r="B69" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C69" s="27">
+        <v>10</v>
+      </c>
+      <c r="D69" s="18">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="E69" s="18">
+        <f t="shared" ref="E69:E91" si="3">C69*1.1</f>
+        <v>11</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G69" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="K69" s="13"/>
+    </row>
+    <row r="70" spans="1:11" ht="14.55" customHeight="1">
+      <c r="A70" s="62"/>
+      <c r="B70" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" s="18">
+        <v>2.3315789473684214</v>
+      </c>
+      <c r="D70" s="18">
+        <f t="shared" si="2"/>
+        <v>2.0984210526315792</v>
+      </c>
+      <c r="E70" s="18">
+        <f t="shared" si="3"/>
+        <v>2.5647368421052636</v>
+      </c>
+      <c r="F70" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="K70" s="13"/>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="62"/>
+      <c r="B71" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C71" s="18">
+        <v>4.4784688995215309E-2</v>
+      </c>
+      <c r="D71" s="18">
+        <f t="shared" si="2"/>
+        <v>4.0306220095693776E-2</v>
+      </c>
+      <c r="E71" s="18">
+        <f t="shared" si="3"/>
+        <v>4.9263157894736842E-2</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G71" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="K71" s="13"/>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="62"/>
+      <c r="B72" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C72" s="18">
+        <v>4.2497607655502394</v>
+      </c>
+      <c r="D72" s="18">
+        <f t="shared" si="2"/>
+        <v>3.8247846889952157</v>
+      </c>
+      <c r="E72" s="18">
+        <f t="shared" si="3"/>
+        <v>4.674736842105264</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="K72" s="13"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="63"/>
+      <c r="B73" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" s="18">
+        <v>6</v>
+      </c>
+      <c r="D73" s="18">
+        <f t="shared" si="2"/>
+        <v>5.4</v>
+      </c>
+      <c r="E73" s="18">
+        <f t="shared" si="3"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="F73" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G73" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="K73" s="13"/>
+    </row>
+    <row r="74" spans="1:11" ht="14.55" customHeight="1">
+      <c r="A74" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="D74" s="41">
+        <f t="shared" si="2"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="E74" s="41">
+        <f t="shared" si="3"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="65"/>
+      <c r="B75" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" s="49">
+        <v>0.2</v>
+      </c>
+      <c r="D75" s="41">
+        <f t="shared" si="2"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="E75" s="41">
+        <f t="shared" si="3"/>
+        <v>0.22000000000000003</v>
+      </c>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="65"/>
+      <c r="B76" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="49">
+        <v>0.2</v>
+      </c>
+      <c r="D76" s="41">
+        <f t="shared" si="2"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="E76" s="41">
+        <f t="shared" si="3"/>
+        <v>0.22000000000000003</v>
+      </c>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="65"/>
+      <c r="B77" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="50">
+        <v>0.2</v>
+      </c>
+      <c r="D77" s="41">
+        <f t="shared" si="2"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="E77" s="41">
+        <f t="shared" si="3"/>
+        <v>0.22000000000000003</v>
+      </c>
+      <c r="F77" s="42"/>
+      <c r="G77" s="42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="65"/>
+      <c r="B78" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="D78" s="41">
+        <f t="shared" si="2"/>
+        <v>0.45</v>
+      </c>
+      <c r="E78" s="41">
+        <f t="shared" si="3"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="65"/>
+      <c r="B79" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="C79" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="D79" s="41">
+        <f t="shared" si="2"/>
+        <v>0.45</v>
+      </c>
+      <c r="E79" s="41">
+        <f t="shared" si="3"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="K79" s="13"/>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="65"/>
+      <c r="B80" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" s="50">
+        <v>0.25</v>
+      </c>
+      <c r="D80" s="41">
+        <f t="shared" si="2"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="E80" s="41">
+        <f t="shared" si="3"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="K80" s="13"/>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="65"/>
+      <c r="B81" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="D81" s="41">
+        <f t="shared" si="2"/>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="E81" s="41">
+        <f t="shared" si="3"/>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="K81" s="13"/>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="65"/>
+      <c r="B82" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="D82" s="41">
+        <f t="shared" si="2"/>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="E82" s="41">
+        <f t="shared" si="3"/>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="F82" s="42"/>
+      <c r="G82" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="K82" s="13"/>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="65"/>
+      <c r="B83" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="D83" s="41">
+        <f t="shared" si="2"/>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="E83" s="41">
+        <f t="shared" si="3"/>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="F83" s="42"/>
+      <c r="G83" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="K83" s="13"/>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="65"/>
+      <c r="B84" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" s="50">
+        <v>0.45</v>
+      </c>
+      <c r="D84" s="41">
+        <f t="shared" si="2"/>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="E84" s="41">
+        <f t="shared" si="3"/>
+        <v>0.49500000000000005</v>
+      </c>
+      <c r="F84" s="42"/>
+      <c r="G84" s="42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="65"/>
+      <c r="B85" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="C85" s="50">
+        <v>0.45</v>
+      </c>
+      <c r="D85" s="41">
+        <f t="shared" si="2"/>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="E85" s="41">
+        <f t="shared" si="3"/>
+        <v>0.49500000000000005</v>
+      </c>
+      <c r="F85" s="42"/>
+      <c r="G85" s="42" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="65"/>
+      <c r="B86" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="D86" s="41">
+        <f t="shared" si="2"/>
+        <v>0.45</v>
+      </c>
+      <c r="E86" s="41">
+        <f t="shared" si="3"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F86" s="42"/>
+      <c r="G86" s="42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="65"/>
+      <c r="B87" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C87" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="D87" s="41">
+        <f t="shared" si="2"/>
+        <v>0.63</v>
+      </c>
+      <c r="E87" s="41">
+        <f t="shared" si="3"/>
+        <v>0.77</v>
+      </c>
+      <c r="F87" s="42"/>
+      <c r="G87" s="42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="65"/>
+      <c r="B88" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C88" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="D88" s="41">
+        <f t="shared" si="2"/>
+        <v>0.63</v>
+      </c>
+      <c r="E88" s="41">
+        <f t="shared" si="3"/>
+        <v>0.77</v>
+      </c>
+      <c r="F88" s="42"/>
+      <c r="G88" s="42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="65"/>
+      <c r="B89" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C89" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="D89" s="41">
+        <f t="shared" si="2"/>
+        <v>0.63</v>
+      </c>
+      <c r="E89" s="41">
+        <f t="shared" si="3"/>
+        <v>0.77</v>
+      </c>
+      <c r="F89" s="42"/>
+      <c r="G89" s="42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="65"/>
+      <c r="B90" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C90" s="49">
+        <v>0.05</v>
+      </c>
+      <c r="D90" s="41">
+        <f t="shared" si="2"/>
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="E90" s="41">
+        <f t="shared" si="3"/>
+        <v>5.5000000000000007E-2</v>
+      </c>
+      <c r="F90" s="42"/>
+      <c r="G90" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="K90" s="13"/>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="65"/>
+      <c r="B91" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="C91" s="49">
+        <v>0.05</v>
+      </c>
+      <c r="D91" s="41">
+        <f t="shared" si="2"/>
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="E91" s="41">
+        <f t="shared" si="3"/>
+        <v>5.5000000000000007E-2</v>
+      </c>
+      <c r="F91" s="42"/>
+      <c r="G91" s="42" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="97" spans="11:11">
+      <c r="K97" s="13"/>
+    </row>
+    <row r="101" spans="11:11">
+      <c r="K101" s="13"/>
+    </row>
+    <row r="102" spans="11:11">
+      <c r="K102" s="13"/>
+    </row>
+    <row r="103" spans="11:11">
+      <c r="K103" s="13"/>
+    </row>
+    <row r="104" spans="11:11">
+      <c r="K104" s="13"/>
+    </row>
+    <row r="105" spans="11:11">
+      <c r="K105" s="13"/>
+    </row>
+    <row r="106" spans="11:11">
+      <c r="K106" s="13"/>
+    </row>
+    <row r="107" spans="11:11">
+      <c r="K107" s="13"/>
+    </row>
+    <row r="108" spans="11:11">
+      <c r="K108" s="13"/>
+    </row>
+    <row r="109" spans="11:11">
+      <c r="K109" s="13"/>
+    </row>
+    <row r="110" spans="11:11">
+      <c r="K110" s="13"/>
+    </row>
+    <row r="111" spans="11:11">
+      <c r="K111" s="13"/>
+    </row>
+    <row r="112" spans="11:11">
+      <c r="K112" s="13"/>
+    </row>
+    <row r="113" spans="11:11">
+      <c r="K113" s="13"/>
+    </row>
+    <row r="115" spans="11:11">
+      <c r="K115" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10895,12 +11052,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E134E5-91A9-214F-A953-DB87B8BF84DC}">
-  <dimension ref="A1:M115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D772B5C0-78A8-4453-9C12-C71D4E986150}">
+  <dimension ref="A1:M139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -10986,11 +11143,11 @@
         <v>1</v>
       </c>
       <c r="D5" s="11">
-        <f t="shared" ref="D5:D67" si="0">C5*0.9</f>
+        <f t="shared" ref="D5:D71" si="0">C5*0.9</f>
         <v>0.9</v>
       </c>
       <c r="E5" s="11">
-        <f t="shared" ref="E5:E67" si="1">C5*1.1</f>
+        <f t="shared" ref="E5:E71" si="1">C5*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -11026,18 +11183,19 @@
     <row r="7" spans="1:7">
       <c r="A7" s="68"/>
       <c r="B7" s="8" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
       <c r="C7" s="54">
-        <v>90</v>
+        <f>24*9</f>
+        <v>216</v>
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>194.4</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="1"/>
-        <v>99.000000000000014</v>
+        <v>237.60000000000002</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>135</v>
@@ -11049,19 +11207,19 @@
     <row r="8" spans="1:7">
       <c r="A8" s="68"/>
       <c r="B8" s="8" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
       <c r="C8" s="54">
-        <f>22.93/60</f>
-        <v>0.38216666666666665</v>
+        <f>74/60</f>
+        <v>1.2333333333333334</v>
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>0.34394999999999998</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
-        <v>0.42038333333333333</v>
+        <v>1.3566666666666669</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>136</v>
@@ -11073,18 +11231,18 @@
     <row r="9" spans="1:7">
       <c r="A9" s="68"/>
       <c r="B9" s="8" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
       <c r="C9" s="54">
-        <v>69.17</v>
+        <v>257</v>
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>62.253</v>
+        <v>231.3</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
-        <v>76.087000000000003</v>
+        <v>282.70000000000005</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>124</v>
@@ -11096,728 +11254,735 @@
     <row r="10" spans="1:7">
       <c r="A10" s="68"/>
       <c r="B10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="11">
-        <f>AVERAGE(23,38,31)</f>
-        <v>30.666666666666668</v>
+        <v>240</v>
+      </c>
+      <c r="C10" s="54">
+        <v>90</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>27.6</v>
+        <v>81</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="1"/>
-        <v>33.733333333333334</v>
+        <v>99.000000000000014</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>80</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="68"/>
       <c r="B11" s="8" t="s">
-        <v>134</v>
+        <v>241</v>
       </c>
       <c r="C11" s="54">
-        <f>8204*0.43</f>
-        <v>3527.72</v>
+        <f>22.93/60</f>
+        <v>0.38216666666666665</v>
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>3174.9479999999999</v>
+        <v>0.34394999999999998</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="1"/>
-        <v>3880.4920000000002</v>
+        <v>0.42038333333333333</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="68"/>
       <c r="B12" s="8" t="s">
-        <v>121</v>
+        <v>242</v>
       </c>
       <c r="C12" s="54">
-        <f>8204*0.57</f>
-        <v>4676.28</v>
+        <v>69.17</v>
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>4208.652</v>
+        <v>62.253</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="1"/>
-        <v>5143.9080000000004</v>
+        <v>76.087000000000003</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="68"/>
       <c r="B13" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="50">
-        <v>15</v>
-      </c>
-      <c r="D13" s="50">
-        <f t="shared" si="0"/>
-        <v>13.5</v>
-      </c>
-      <c r="E13" s="50">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
-      </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31" t="s">
-        <v>166</v>
+        <v>54</v>
+      </c>
+      <c r="C13" s="11">
+        <f>AVERAGE(23,38,31)</f>
+        <v>30.666666666666668</v>
+      </c>
+      <c r="D13" s="11">
+        <f t="shared" si="0"/>
+        <v>27.6</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="1"/>
+        <v>33.733333333333334</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="68"/>
       <c r="B14" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="50">
-        <v>70</v>
-      </c>
-      <c r="D14" s="50">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="E14" s="50">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31" t="s">
-        <v>167</v>
+        <v>134</v>
+      </c>
+      <c r="C14" s="54">
+        <f>(8204*0.43)</f>
+        <v>3527.72</v>
+      </c>
+      <c r="D14" s="11">
+        <f t="shared" si="0"/>
+        <v>3174.9479999999999</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" si="1"/>
+        <v>3880.4920000000002</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="68"/>
       <c r="B15" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="50">
-        <v>15</v>
-      </c>
-      <c r="D15" s="50">
-        <f t="shared" si="0"/>
-        <v>13.5</v>
-      </c>
-      <c r="E15" s="50">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
-      </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31" t="s">
-        <v>168</v>
+        <v>121</v>
+      </c>
+      <c r="C15" s="54">
+        <f>(8204*0.57)</f>
+        <v>4676.28</v>
+      </c>
+      <c r="D15" s="11">
+        <f t="shared" si="0"/>
+        <v>4208.652</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="1"/>
+        <v>5143.9080000000004</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="68"/>
-      <c r="B16" s="8" t="s">
-        <v>131</v>
+      <c r="B16" s="57" t="s">
+        <v>128</v>
       </c>
       <c r="C16" s="50">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D16" s="50">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="E16" s="50">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="31" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="68"/>
-      <c r="B17" s="8" t="s">
-        <v>132</v>
+      <c r="B17" s="57" t="s">
+        <v>129</v>
       </c>
       <c r="C17" s="50">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D17" s="50">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="E17" s="50">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="31" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="69"/>
-      <c r="B18" s="8" t="s">
-        <v>133</v>
+      <c r="A18" s="68"/>
+      <c r="B18" s="57" t="s">
+        <v>130</v>
       </c>
       <c r="C18" s="50">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D18" s="50">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>13.5</v>
       </c>
       <c r="E18" s="50">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>16.5</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="68"/>
+      <c r="B19" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="50">
+        <v>10</v>
+      </c>
+      <c r="D19" s="50">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E19" s="50">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="68"/>
+      <c r="B20" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="50">
+        <v>20</v>
+      </c>
+      <c r="D20" s="50">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E20" s="50">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="69"/>
+      <c r="B21" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="50">
+        <v>70</v>
+      </c>
+      <c r="D21" s="50">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="E21" s="50">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="30" customFormat="1" ht="14.7" customHeight="1">
-      <c r="A19" s="70" t="s">
+    <row r="22" spans="1:7" s="30" customFormat="1" ht="14.7" customHeight="1">
+      <c r="A22" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B22" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="44">
-        <f>214.17*C23</f>
+      <c r="C22" s="44">
+        <f>214.17*C26</f>
         <v>510.43849999999998</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D22" s="44">
         <f t="shared" si="0"/>
         <v>459.39465000000001</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E22" s="44">
         <f t="shared" si="1"/>
         <v>561.48235</v>
       </c>
-      <c r="F19" s="45" t="s">
+      <c r="F22" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="45" t="s">
+      <c r="G22" s="45" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="30" customFormat="1">
-      <c r="A20" s="71"/>
-      <c r="B20" s="43" t="s">
+    <row r="23" spans="1:7" s="30" customFormat="1">
+      <c r="A23" s="71"/>
+      <c r="B23" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="44">
-        <f>0.38*C23</f>
+      <c r="C23" s="44">
+        <f>0.38*C26</f>
         <v>0.90566666666666662</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D23" s="44">
         <f t="shared" si="0"/>
         <v>0.81509999999999994</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E23" s="44">
         <f t="shared" si="1"/>
         <v>0.99623333333333342</v>
       </c>
-      <c r="F20" s="45" t="s">
+      <c r="F23" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="G20" s="45" t="s">
+      <c r="G23" s="45" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="30" customFormat="1">
-      <c r="A21" s="71"/>
-      <c r="B21" s="43" t="s">
+    <row r="24" spans="1:7" s="30" customFormat="1">
+      <c r="A24" s="71"/>
+      <c r="B24" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="44">
-        <f>1.5*C23</f>
+      <c r="C24" s="44">
+        <f>1.5*C26</f>
         <v>3.5750000000000002</v>
       </c>
-      <c r="D21" s="44">
+      <c r="D24" s="44">
         <f t="shared" si="0"/>
         <v>3.2175000000000002</v>
       </c>
-      <c r="E21" s="44">
+      <c r="E24" s="44">
         <f t="shared" si="1"/>
         <v>3.9325000000000006</v>
       </c>
-      <c r="F21" s="45" t="s">
+      <c r="F24" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="45" t="s">
+      <c r="G24" s="45" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.55" customHeight="1">
-      <c r="A22" s="72" t="s">
+    <row r="25" spans="1:7" ht="14.55" customHeight="1">
+      <c r="A25" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B25" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="46">
+      <c r="C25" s="46">
         <f>5*12</f>
         <v>60</v>
       </c>
-      <c r="D22" s="46">
+      <c r="D25" s="46">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E25" s="46">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="F22" s="34" t="s">
+      <c r="F25" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="34" t="s">
+      <c r="G25" s="34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="73"/>
-      <c r="B23" s="22" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="73"/>
+      <c r="B26" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="24">
-        <f>(10+26+43+43+21)/C22</f>
+      <c r="C26" s="24">
+        <f>(10+26+43+43+21)/C25</f>
         <v>2.3833333333333333</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D26" s="24">
         <f t="shared" si="0"/>
         <v>2.145</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E26" s="24">
         <f t="shared" si="1"/>
         <v>2.621666666666667</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F26" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G26" s="23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="73"/>
-      <c r="B24" s="22" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" s="73"/>
+      <c r="B27" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="C24" s="54">
+      <c r="C27" s="54">
         <f>750*3</f>
         <v>2250</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D27" s="24">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E27" s="24">
         <f t="shared" si="1"/>
         <v>2475</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F27" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G27" s="23" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="73"/>
-      <c r="B25" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="54">
-        <f>(750+170+310+60)*3</f>
-        <v>3870</v>
-      </c>
-      <c r="D25" s="24">
-        <f t="shared" si="0"/>
-        <v>3483</v>
-      </c>
-      <c r="E25" s="24">
-        <f t="shared" si="1"/>
-        <v>4257</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="73"/>
-      <c r="B26" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="C26" s="59">
-        <v>1</v>
-      </c>
-      <c r="D26" s="33">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="E26" s="33">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="34" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="73"/>
-      <c r="B27" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" s="59">
-        <v>8</v>
-      </c>
-      <c r="D27" s="33">
-        <f t="shared" si="0"/>
-        <v>7.2</v>
-      </c>
-      <c r="E27" s="33">
-        <f t="shared" si="1"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27" s="34" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="73"/>
       <c r="B28" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="24">
-        <v>3</v>
+        <v>122</v>
+      </c>
+      <c r="C28" s="54">
+        <f>(750+170+310+60)*3</f>
+        <v>3870</v>
       </c>
       <c r="D28" s="24">
         <f t="shared" si="0"/>
-        <v>2.7</v>
+        <v>3483</v>
       </c>
       <c r="E28" s="24">
         <f t="shared" si="1"/>
-        <v>3.3000000000000003</v>
+        <v>4257</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="73"/>
-      <c r="B29" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="24">
+      <c r="B29" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="59">
         <v>1</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="33">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="33">
         <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="23" t="s">
-        <v>72</v>
+      <c r="G29" s="34" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="73"/>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="59">
+        <v>8</v>
+      </c>
+      <c r="D30" s="33">
+        <f t="shared" si="0"/>
+        <v>7.2</v>
+      </c>
+      <c r="E30" s="33">
+        <f t="shared" si="1"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="73"/>
+      <c r="B31" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="24">
+        <v>3</v>
+      </c>
+      <c r="D31" s="24">
+        <f t="shared" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="E31" s="24">
+        <f t="shared" si="1"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="73"/>
+      <c r="B32" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="24">
+        <v>1</v>
+      </c>
+      <c r="D32" s="24">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="E32" s="24">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="73"/>
+      <c r="B33" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C33" s="24">
         <v>1000</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D33" s="24">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E33" s="24">
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F33" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G33" s="23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="14.55" customHeight="1">
-      <c r="A31" s="74" t="s">
+    <row r="34" spans="1:13" ht="14.55" customHeight="1">
+      <c r="A34" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B34" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="54">
+      <c r="C34" s="54">
         <f>0.29+0.09+0.16</f>
         <v>0.54</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D34" s="12">
         <f t="shared" si="0"/>
         <v>0.48600000000000004</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E34" s="12">
         <f t="shared" si="1"/>
         <v>0.59400000000000008</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7" t="s">
+      <c r="F34" s="7"/>
+      <c r="G34" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14.55" customHeight="1">
-      <c r="A32" s="75"/>
-      <c r="B32" s="9" t="s">
+    <row r="35" spans="1:13" ht="14.55" customHeight="1">
+      <c r="A35" s="75"/>
+      <c r="B35" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="54">
+      <c r="C35" s="54">
         <f>0.2</f>
         <v>0.2</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D35" s="12">
         <f t="shared" si="0"/>
         <v>0.18000000000000002</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E35" s="12">
         <f t="shared" si="1"/>
         <v>0.22000000000000003</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="75"/>
-      <c r="B33" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" s="54">
-        <f>0.26</f>
-        <v>0.26</v>
-      </c>
-      <c r="D33" s="12">
-        <f t="shared" si="0"/>
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="E33" s="12">
-        <f t="shared" si="1"/>
-        <v>0.28600000000000003</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="75"/>
-      <c r="B34" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="54">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D34" s="12">
-        <f t="shared" si="0"/>
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="E34" s="12">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001E-5</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="75"/>
-      <c r="B35" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="54">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D35" s="12">
-        <f t="shared" si="0"/>
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="E35" s="12">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001E-5</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="75"/>
       <c r="B36" s="9" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="C36" s="54">
-        <v>1.0000000000000001E-5</v>
+        <f>0.26</f>
+        <v>0.26</v>
       </c>
       <c r="D36" s="12">
         <f t="shared" si="0"/>
-        <v>9.0000000000000002E-6</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="E36" s="12">
         <f t="shared" si="1"/>
-        <v>1.1000000000000001E-5</v>
+        <v>0.28600000000000003</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="75"/>
       <c r="B37" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="12">
-        <v>1.25</v>
+        <v>19</v>
+      </c>
+      <c r="C37" s="54">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D37" s="12">
         <f t="shared" si="0"/>
-        <v>1.125</v>
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="E37" s="12">
         <f t="shared" si="1"/>
-        <v>1.375</v>
+        <v>1.1000000000000001E-5</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="75"/>
       <c r="B38" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="12">
-        <v>1.25</v>
+        <v>13</v>
+      </c>
+      <c r="C38" s="54">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D38" s="12">
         <f t="shared" si="0"/>
-        <v>1.125</v>
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="E38" s="12">
         <f t="shared" si="1"/>
-        <v>1.375</v>
+        <v>1.1000000000000001E-5</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="75"/>
       <c r="B39" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C39" s="12">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C39" s="54">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D39" s="12">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="E39" s="12">
         <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>1.1000000000000001E-5</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="75"/>
       <c r="B40" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C40" s="12">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="D40" s="12">
         <f t="shared" si="0"/>
-        <v>1.08</v>
+        <v>1.125</v>
       </c>
       <c r="E40" s="12">
         <f t="shared" si="1"/>
-        <v>1.32</v>
+        <v>1.375</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="75"/>
       <c r="B41" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" s="12">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="D41" s="12">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>1.125</v>
       </c>
       <c r="E41" s="12">
         <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>1.375</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="75"/>
       <c r="B42" s="9" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="C42" s="12">
         <v>1</v>
@@ -11832,142 +11997,118 @@
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="75"/>
+      <c r="B43" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="D43" s="12">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+      <c r="E43" s="12">
+        <f t="shared" si="1"/>
+        <v>1.32</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="75"/>
+      <c r="B44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="12">
+        <v>1</v>
+      </c>
+      <c r="D44" s="12">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="E44" s="12">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="75"/>
+      <c r="B45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="12">
+        <v>1</v>
+      </c>
+      <c r="D45" s="12">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="E45" s="12">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A43" s="76" t="s">
+    <row r="46" spans="1:13" ht="14.55" customHeight="1">
+      <c r="A46" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B46" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="38">
+      <c r="C46" s="38">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D43" s="38">
+      <c r="D46" s="38">
         <f t="shared" si="0"/>
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="E43" s="38">
+      <c r="E46" s="38">
         <f t="shared" si="1"/>
         <v>1.1000000000000001E-5</v>
       </c>
-      <c r="F43" s="37" t="s">
+      <c r="F46" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="G43" s="39" t="s">
+      <c r="G46" s="39" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A44" s="77"/>
-      <c r="B44" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" s="38">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D44" s="38">
-        <f t="shared" si="0"/>
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="E44" s="38">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001E-5</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G44" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-    </row>
-    <row r="45" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A45" s="77"/>
-      <c r="B45" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" s="38">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D45" s="38">
-        <f t="shared" si="0"/>
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="E45" s="38">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001E-5</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G45" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
-    </row>
-    <row r="46" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A46" s="77"/>
-      <c r="B46" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="C46" s="53">
-        <f>4.44*$C$19</f>
-        <v>2266.3469399999999</v>
-      </c>
-      <c r="D46" s="38">
-        <f t="shared" si="0"/>
-        <v>2039.7122460000001</v>
-      </c>
-      <c r="E46" s="38">
-        <f t="shared" si="1"/>
-        <v>2492.9816340000002</v>
-      </c>
-      <c r="F46" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="G46" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="H46" s="48"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="51"/>
-    </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" ht="14.55" customHeight="1">
       <c r="A47" s="77"/>
       <c r="B47" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="36">
-        <f>0.00444*C25</f>
-        <v>17.1828</v>
-      </c>
-      <c r="D47" s="36">
-        <f t="shared" si="0"/>
-        <v>15.46452</v>
-      </c>
-      <c r="E47" s="36">
-        <f t="shared" si="1"/>
-        <v>18.90108</v>
+        <v>119</v>
+      </c>
+      <c r="C47" s="38">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D47" s="38">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="E47" s="38">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001E-5</v>
       </c>
       <c r="F47" s="37" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G47" s="39" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="I47" s="51"/>
       <c r="J47" s="51"/>
@@ -11975,28 +12116,27 @@
       <c r="L47" s="51"/>
       <c r="M47" s="51"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" ht="14.55" customHeight="1">
       <c r="A48" s="77"/>
       <c r="B48" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" s="36">
-        <f>0.00356*C25</f>
-        <v>13.777199999999999</v>
-      </c>
-      <c r="D48" s="36">
-        <f t="shared" si="0"/>
-        <v>12.399479999999999</v>
-      </c>
-      <c r="E48" s="36">
-        <f t="shared" si="1"/>
-        <v>15.154920000000001</v>
+        <v>120</v>
+      </c>
+      <c r="C48" s="38">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D48" s="38">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="E48" s="38">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001E-5</v>
       </c>
       <c r="F48" s="37" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G48" s="39" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="I48" s="51"/>
       <c r="J48" s="51"/>
@@ -12004,56 +12144,58 @@
       <c r="L48" s="51"/>
       <c r="M48" s="51"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" ht="14.55" customHeight="1">
       <c r="A49" s="77"/>
-      <c r="B49" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="36">
-        <f>0.000015*C25</f>
-        <v>5.8050000000000004E-2</v>
-      </c>
-      <c r="D49" s="36">
-        <f t="shared" si="0"/>
-        <v>5.2245000000000007E-2</v>
-      </c>
-      <c r="E49" s="36">
-        <f t="shared" si="1"/>
-        <v>6.3855000000000009E-2</v>
-      </c>
-      <c r="F49" s="37" t="s">
+      <c r="B49" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49" s="53">
+        <f>4.44*$C$22</f>
+        <v>2266.3469399999999</v>
+      </c>
+      <c r="D49" s="38">
+        <f t="shared" si="0"/>
+        <v>2039.7122460000001</v>
+      </c>
+      <c r="E49" s="38">
+        <f t="shared" si="1"/>
+        <v>2492.9816340000002</v>
+      </c>
+      <c r="F49" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="H49" s="48"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="51"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="77"/>
+      <c r="B50" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="36">
+        <f>0.00444*C28</f>
+        <v>17.1828</v>
+      </c>
+      <c r="D50" s="36">
+        <f t="shared" si="0"/>
+        <v>15.46452</v>
+      </c>
+      <c r="E50" s="36">
+        <f t="shared" si="1"/>
+        <v>18.90108</v>
+      </c>
+      <c r="F50" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G49" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="I49" s="51"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="51"/>
-      <c r="M49" s="51"/>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="78"/>
-      <c r="B50" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="C50" s="36">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D50" s="36">
-        <f t="shared" si="0"/>
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="E50" s="36">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001E-5</v>
-      </c>
-      <c r="F50" s="37" t="s">
-        <v>139</v>
-      </c>
       <c r="G50" s="39" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="I50" s="51"/>
       <c r="J50" s="51"/>
@@ -12061,107 +12203,122 @@
       <c r="L50" s="51"/>
       <c r="M50" s="51"/>
     </row>
-    <row r="51" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A51" s="60" t="s">
+    <row r="51" spans="1:13">
+      <c r="A51" s="77"/>
+      <c r="B51" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="36">
+        <f>0.00356*C28</f>
+        <v>13.777199999999999</v>
+      </c>
+      <c r="D51" s="36">
+        <f t="shared" si="0"/>
+        <v>12.399479999999999</v>
+      </c>
+      <c r="E51" s="36">
+        <f t="shared" si="1"/>
+        <v>15.154920000000001</v>
+      </c>
+      <c r="F51" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G51" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="51"/>
+      <c r="M51" s="51"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="77"/>
+      <c r="B52" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="36">
+        <f>0.000015*C28</f>
+        <v>5.8050000000000004E-2</v>
+      </c>
+      <c r="D52" s="36">
+        <f t="shared" si="0"/>
+        <v>5.2245000000000007E-2</v>
+      </c>
+      <c r="E52" s="36">
+        <f t="shared" si="1"/>
+        <v>6.3855000000000009E-2</v>
+      </c>
+      <c r="F52" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G52" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="I52" s="51"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="51"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="78"/>
+      <c r="B53" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="36">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D53" s="36">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="E53" s="36">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001E-5</v>
+      </c>
+      <c r="F53" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G53" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="I53" s="51"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="51"/>
+      <c r="L53" s="51"/>
+      <c r="M53" s="51"/>
+    </row>
+    <row r="54" spans="1:13" ht="14.55" customHeight="1">
+      <c r="A54" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B54" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="54">
+      <c r="C54" s="54">
         <f>800</f>
         <v>800</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D54" s="15">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E54" s="15">
         <f t="shared" si="1"/>
         <v>880.00000000000011</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="F54" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G54" s="16" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="61"/>
-      <c r="B52" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" s="15">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D52" s="15">
-        <f t="shared" si="0"/>
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="E52" s="15">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001E-5</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G52" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="61"/>
-      <c r="B53" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="15">
-        <f>AVERAGE(1808,8554,18177,14838,1304)</f>
-        <v>8936.2000000000007</v>
-      </c>
-      <c r="D53" s="15">
-        <f t="shared" si="0"/>
-        <v>8042.5800000000008</v>
-      </c>
-      <c r="E53" s="15">
-        <f t="shared" si="1"/>
-        <v>9829.8200000000015</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="61"/>
-      <c r="B54" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C54" s="54">
-        <f>1150/1000</f>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="D54" s="15">
-        <f t="shared" si="0"/>
-        <v>1.0349999999999999</v>
-      </c>
-      <c r="E54" s="15">
-        <f t="shared" si="1"/>
-        <v>1.2649999999999999</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G54" s="16" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="61"/>
       <c r="B55" s="14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C55" s="15">
         <v>1.0000000000000001E-5</v>
@@ -12175,876 +12332,1181 @@
         <v>1.1000000000000001E-5</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="61"/>
       <c r="B56" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="15">
+        <f>AVERAGE(1808,8554,18177,14838,1304)</f>
+        <v>8936.2000000000007</v>
+      </c>
+      <c r="D56" s="15">
+        <f t="shared" si="0"/>
+        <v>8042.5800000000008</v>
+      </c>
+      <c r="E56" s="15">
+        <f t="shared" si="1"/>
+        <v>9829.8200000000015</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="61"/>
+      <c r="B57" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="54">
+        <f>1150/1000</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D57" s="15">
+        <f t="shared" si="0"/>
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="E57" s="15">
+        <f t="shared" si="1"/>
+        <v>1.2649999999999999</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="61"/>
+      <c r="B58" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D58" s="15">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="E58" s="15">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001E-5</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="61"/>
+      <c r="B59" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C56" s="54">
-        <f>(C54*0.7)*4</f>
+      <c r="C59" s="54">
+        <f>(C57*0.7)*4</f>
         <v>3.2199999999999998</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D59" s="15">
         <f t="shared" si="0"/>
         <v>2.8979999999999997</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E59" s="15">
         <f t="shared" si="1"/>
         <v>3.5419999999999998</v>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="F59" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G56" s="16" t="s">
+      <c r="G59" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A57" s="79" t="s">
-        <v>33</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="C57" s="55">
-        <f>46.96/7937</f>
-        <v>5.9165931712233839E-3</v>
-      </c>
-      <c r="D57" s="25">
-        <f t="shared" si="0"/>
-        <v>5.3249338541010455E-3</v>
-      </c>
-      <c r="E57" s="25">
-        <f t="shared" si="1"/>
-        <v>6.5082524883457232E-3</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="K57" s="13"/>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="62"/>
-      <c r="B58" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C58" s="55">
-        <f>86.6/7937</f>
-        <v>1.0910923522741589E-2</v>
-      </c>
-      <c r="D58" s="18">
-        <f t="shared" si="0"/>
-        <v>9.8198311704674312E-3</v>
-      </c>
-      <c r="E58" s="18">
-        <f t="shared" si="1"/>
-        <v>1.2002015875015749E-2</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="K58" s="13"/>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="62"/>
-      <c r="B59" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="C59" s="55">
+    <row r="60" spans="1:13" ht="14.55" customHeight="1">
+      <c r="A60" s="79" t="s">
+        <v>215</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C60" s="55">
         <f>36.52/7937</f>
         <v>4.6012347234471469E-3</v>
       </c>
-      <c r="D59" s="18">
+      <c r="D60" s="25">
         <f t="shared" si="0"/>
         <v>4.1411112511024325E-3</v>
       </c>
-      <c r="E59" s="18">
+      <c r="E60" s="25">
         <f t="shared" si="1"/>
         <v>5.0613581957918621E-3</v>
       </c>
-      <c r="F59" s="19" t="s">
+      <c r="F60" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G59" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="K59" s="13"/>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="62"/>
-      <c r="B60" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="C60" s="55">
-        <f>46.96/7937</f>
-        <v>5.9165931712233839E-3</v>
-      </c>
-      <c r="D60" s="18">
-        <f t="shared" si="0"/>
-        <v>5.3249338541010455E-3</v>
-      </c>
-      <c r="E60" s="18">
-        <f t="shared" si="1"/>
-        <v>6.5082524883457232E-3</v>
-      </c>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
+      <c r="G60" s="19" t="s">
+        <v>196</v>
+      </c>
       <c r="K60" s="13"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="62"/>
       <c r="B61" s="17" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="C61" s="55">
-        <f>55/7937</f>
-        <v>6.9295703666372686E-3</v>
+        <f>83.48/7937</f>
+        <v>1.0517827894670531E-2</v>
       </c>
       <c r="D61" s="18">
         <f t="shared" si="0"/>
-        <v>6.2366133299735418E-3</v>
+        <v>9.4660451052034772E-3</v>
       </c>
       <c r="E61" s="18">
         <f t="shared" si="1"/>
-        <v>7.6225274033009964E-3</v>
-      </c>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
+        <v>1.1569610684137584E-2</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>101</v>
+      </c>
       <c r="K61" s="13"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="62"/>
       <c r="B62" s="17" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C62" s="55">
-        <f>5.61*60</f>
-        <v>336.6</v>
+        <f>41.74/7937</f>
+        <v>5.2589139473352654E-3</v>
       </c>
       <c r="D62" s="18">
         <f t="shared" si="0"/>
-        <v>302.94000000000005</v>
+        <v>4.7330225526017386E-3</v>
       </c>
       <c r="E62" s="18">
         <f t="shared" si="1"/>
-        <v>370.26000000000005</v>
+        <v>5.7848053420687922E-3</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K62" s="13"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="62"/>
       <c r="B63" s="17" t="s">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="C63" s="55">
-        <f>0.55*60</f>
-        <v>33</v>
+        <f>36.52/7937</f>
+        <v>4.6012347234471469E-3</v>
       </c>
       <c r="D63" s="18">
         <f t="shared" si="0"/>
-        <v>29.7</v>
+        <v>4.1411112511024325E-3</v>
       </c>
       <c r="E63" s="18">
         <f t="shared" si="1"/>
-        <v>36.300000000000004</v>
-      </c>
-      <c r="F63" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="G63" s="19" t="s">
-        <v>156</v>
-      </c>
+        <v>5.0613581957918621E-3</v>
+      </c>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
       <c r="K63" s="13"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="62"/>
-      <c r="B64" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="C64" s="56">
-        <f>2.5*60</f>
-        <v>150</v>
+      <c r="B64" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C64" s="55">
+        <f>52.17/7937</f>
+        <v>6.5730124732266606E-3</v>
       </c>
       <c r="D64" s="18">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>5.9157112259039949E-3</v>
       </c>
       <c r="E64" s="18">
         <f t="shared" si="1"/>
-        <v>165</v>
-      </c>
-      <c r="F64" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="G64" s="19" t="s">
-        <v>157</v>
-      </c>
+        <v>7.2303137205493272E-3</v>
+      </c>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="K64" s="13"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="62"/>
-      <c r="B65" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="C65" s="56">
-        <f>11.6*60</f>
-        <v>696</v>
+      <c r="B65" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C65" s="55">
+        <f>48.66*60</f>
+        <v>2919.6</v>
       </c>
       <c r="D65" s="18">
         <f t="shared" si="0"/>
-        <v>626.4</v>
+        <v>2627.64</v>
       </c>
       <c r="E65" s="18">
         <f t="shared" si="1"/>
-        <v>765.6</v>
-      </c>
-      <c r="F65" s="21"/>
-      <c r="G65" s="19"/>
+        <v>3211.56</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K65" s="13"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="62"/>
-      <c r="B66" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="C66" s="56">
-        <f>3.72*60</f>
-        <v>223.20000000000002</v>
+      <c r="B66" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C66" s="55">
+        <f>0.17*60</f>
+        <v>10.200000000000001</v>
       </c>
       <c r="D66" s="18">
         <f t="shared" si="0"/>
-        <v>200.88000000000002</v>
+        <v>9.1800000000000015</v>
       </c>
       <c r="E66" s="18">
         <f t="shared" si="1"/>
-        <v>245.52000000000004</v>
-      </c>
-      <c r="F66" s="21"/>
-      <c r="G66" s="19"/>
+        <v>11.220000000000002</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G66" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K66" s="13"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="62"/>
       <c r="B67" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C67" s="27">
-        <v>2</v>
+        <v>224</v>
+      </c>
+      <c r="C67" s="56">
+        <f>2.5*60</f>
+        <v>150</v>
       </c>
       <c r="D67" s="18">
         <f t="shared" si="0"/>
-        <v>1.8</v>
+        <v>135</v>
       </c>
       <c r="E67" s="18">
         <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F67" s="21" t="s">
-        <v>123</v>
+        <v>165</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>153</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="K67" s="13"/>
-    </row>
-    <row r="68" spans="1:11" ht="14.55" customHeight="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="62"/>
       <c r="B68" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C68" s="27">
-        <v>0.95</v>
+        <v>225</v>
+      </c>
+      <c r="C68" s="56">
+        <f>19.87*60</f>
+        <v>1192.2</v>
       </c>
       <c r="D68" s="18">
-        <f t="shared" ref="D68:D91" si="2">C68*0.9</f>
-        <v>0.85499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1072.98</v>
       </c>
       <c r="E68" s="18">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1311.42</v>
       </c>
       <c r="F68" s="21"/>
-      <c r="G68" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="K68" s="13"/>
-    </row>
-    <row r="69" spans="1:11" ht="14.55" customHeight="1">
+      <c r="G68" s="19"/>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="62"/>
       <c r="B69" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C69" s="27">
+        <v>226</v>
+      </c>
+      <c r="C69" s="56">
+        <f>2.7*60</f>
+        <v>162</v>
+      </c>
+      <c r="D69" s="18">
+        <f t="shared" si="0"/>
+        <v>145.80000000000001</v>
+      </c>
+      <c r="E69" s="18">
+        <f t="shared" si="1"/>
+        <v>178.20000000000002</v>
+      </c>
+      <c r="F69" s="21"/>
+      <c r="G69" s="19"/>
+    </row>
+    <row r="70" spans="1:11" ht="14.55" customHeight="1">
+      <c r="A70" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C70" s="55">
+        <f>46.96/7937</f>
+        <v>5.9165931712233839E-3</v>
+      </c>
+      <c r="D70" s="25">
+        <f t="shared" si="0"/>
+        <v>5.3249338541010455E-3</v>
+      </c>
+      <c r="E70" s="25">
+        <f t="shared" si="1"/>
+        <v>6.5082524883457232E-3</v>
+      </c>
+      <c r="F70" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="18">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="E69" s="18">
-        <f t="shared" ref="E69:E91" si="3">C69*1.1</f>
-        <v>11</v>
-      </c>
-      <c r="F69" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="G69" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="K69" s="13"/>
-    </row>
-    <row r="70" spans="1:11" ht="14.55" customHeight="1">
-      <c r="A70" s="62"/>
-      <c r="B70" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C70" s="18">
-        <v>2.3315789473684214</v>
-      </c>
-      <c r="D70" s="18">
-        <f t="shared" si="2"/>
-        <v>2.0984210526315792</v>
-      </c>
-      <c r="E70" s="18">
-        <f t="shared" si="3"/>
-        <v>2.5647368421052636</v>
-      </c>
-      <c r="F70" s="19" t="s">
-        <v>32</v>
-      </c>
       <c r="G70" s="19" t="s">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="K70" s="13"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="62"/>
       <c r="B71" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C71" s="18">
-        <v>4.4784688995215309E-2</v>
+        <v>228</v>
+      </c>
+      <c r="C71" s="55">
+        <f>86.6/7937</f>
+        <v>1.0910923522741589E-2</v>
       </c>
       <c r="D71" s="18">
-        <f t="shared" si="2"/>
-        <v>4.0306220095693776E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.8198311704674312E-3</v>
       </c>
       <c r="E71" s="18">
-        <f t="shared" si="3"/>
-        <v>4.9263157894736842E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.2002015875015749E-2</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="K71" s="13"/>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="62"/>
       <c r="B72" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C72" s="55">
+        <f>36.52/7937</f>
+        <v>4.6012347234471469E-3</v>
+      </c>
+      <c r="D72" s="18">
+        <f t="shared" ref="D72:D86" si="2">C72*0.9</f>
+        <v>4.1411112511024325E-3</v>
+      </c>
+      <c r="E72" s="18">
+        <f t="shared" ref="E72:E86" si="3">C72*1.1</f>
+        <v>5.0613581957918621E-3</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="K72" s="13"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="62"/>
+      <c r="B73" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C73" s="55">
+        <f>46.96/7937</f>
+        <v>5.9165931712233839E-3</v>
+      </c>
+      <c r="D73" s="18">
+        <f t="shared" si="2"/>
+        <v>5.3249338541010455E-3</v>
+      </c>
+      <c r="E73" s="18">
+        <f t="shared" si="3"/>
+        <v>6.5082524883457232E-3</v>
+      </c>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="K73" s="13"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="62"/>
+      <c r="B74" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C74" s="55">
+        <f>55/7937</f>
+        <v>6.9295703666372686E-3</v>
+      </c>
+      <c r="D74" s="18">
+        <f t="shared" si="2"/>
+        <v>6.2366133299735418E-3</v>
+      </c>
+      <c r="E74" s="18">
+        <f t="shared" si="3"/>
+        <v>7.6225274033009964E-3</v>
+      </c>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="K74" s="13"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="62"/>
+      <c r="B75" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="C75" s="55">
+        <f>5.61*60</f>
+        <v>336.6</v>
+      </c>
+      <c r="D75" s="18">
+        <f t="shared" si="2"/>
+        <v>302.94000000000005</v>
+      </c>
+      <c r="E75" s="18">
+        <f t="shared" si="3"/>
+        <v>370.26000000000005</v>
+      </c>
+      <c r="F75" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G75" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K75" s="13"/>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="62"/>
+      <c r="B76" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C76" s="55">
+        <f>0.55*60</f>
+        <v>33</v>
+      </c>
+      <c r="D76" s="18">
+        <f t="shared" si="2"/>
+        <v>29.7</v>
+      </c>
+      <c r="E76" s="18">
+        <f t="shared" si="3"/>
+        <v>36.300000000000004</v>
+      </c>
+      <c r="F76" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G76" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K76" s="13"/>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="62"/>
+      <c r="B77" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C77" s="56">
+        <f>2.5*60</f>
+        <v>150</v>
+      </c>
+      <c r="D77" s="18">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="E77" s="18">
+        <f t="shared" si="3"/>
+        <v>165</v>
+      </c>
+      <c r="F77" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G77" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="62"/>
+      <c r="B78" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="C78" s="56">
+        <f>11.6*60</f>
+        <v>696</v>
+      </c>
+      <c r="D78" s="18">
+        <f t="shared" si="2"/>
+        <v>626.4</v>
+      </c>
+      <c r="E78" s="18">
+        <f t="shared" si="3"/>
+        <v>765.6</v>
+      </c>
+      <c r="F78" s="21"/>
+      <c r="G78" s="19"/>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="62"/>
+      <c r="B79" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C79" s="56">
+        <f>3.72*60</f>
+        <v>223.20000000000002</v>
+      </c>
+      <c r="D79" s="18">
+        <f t="shared" si="2"/>
+        <v>200.88000000000002</v>
+      </c>
+      <c r="E79" s="18">
+        <f t="shared" si="3"/>
+        <v>245.52000000000004</v>
+      </c>
+      <c r="F79" s="21"/>
+      <c r="G79" s="19"/>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="62"/>
+      <c r="B80" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80" s="27">
+        <v>2</v>
+      </c>
+      <c r="D80" s="18">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="E80" s="18">
+        <f t="shared" si="3"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="G80" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="K80" s="13"/>
+    </row>
+    <row r="81" spans="1:11" ht="14.55" customHeight="1">
+      <c r="A81" s="62"/>
+      <c r="B81" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" s="27">
+        <v>0.95</v>
+      </c>
+      <c r="D81" s="18">
+        <f t="shared" si="2"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="E81" s="18">
+        <v>1</v>
+      </c>
+      <c r="F81" s="21"/>
+      <c r="G81" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K81" s="13"/>
+    </row>
+    <row r="82" spans="1:11" ht="14.55" customHeight="1">
+      <c r="A82" s="62"/>
+      <c r="B82" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C82" s="27">
+        <v>10</v>
+      </c>
+      <c r="D82" s="18">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="E82" s="18">
+        <f t="shared" ref="E82:E86" si="4">C82*1.1</f>
+        <v>11</v>
+      </c>
+      <c r="F82" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G82" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="K82" s="13"/>
+    </row>
+    <row r="83" spans="1:11" ht="14.55" customHeight="1">
+      <c r="A83" s="62"/>
+      <c r="B83" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" s="18">
+        <v>2.3315789473684214</v>
+      </c>
+      <c r="D83" s="18">
+        <f t="shared" si="2"/>
+        <v>2.0984210526315792</v>
+      </c>
+      <c r="E83" s="18">
+        <f t="shared" si="4"/>
+        <v>2.5647368421052636</v>
+      </c>
+      <c r="F83" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G83" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="K83" s="13"/>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="62"/>
+      <c r="B84" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C84" s="18">
+        <v>4.4784688995215309E-2</v>
+      </c>
+      <c r="D84" s="18">
+        <f t="shared" si="2"/>
+        <v>4.0306220095693776E-2</v>
+      </c>
+      <c r="E84" s="18">
+        <f t="shared" si="4"/>
+        <v>4.9263157894736842E-2</v>
+      </c>
+      <c r="F84" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G84" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="K84" s="13"/>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="62"/>
+      <c r="B85" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C72" s="18">
+      <c r="C85" s="18">
         <v>4.2497607655502394</v>
       </c>
-      <c r="D72" s="18">
+      <c r="D85" s="18">
         <f t="shared" si="2"/>
         <v>3.8247846889952157</v>
       </c>
-      <c r="E72" s="18">
-        <f t="shared" si="3"/>
+      <c r="E85" s="18">
+        <f t="shared" si="4"/>
         <v>4.674736842105264</v>
       </c>
-      <c r="F72" s="19" t="s">
+      <c r="F85" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G72" s="19" t="s">
+      <c r="G85" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="K72" s="13"/>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="63"/>
-      <c r="B73" s="17" t="s">
+      <c r="K85" s="13"/>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="63"/>
+      <c r="B86" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C73" s="18">
+      <c r="C86" s="18">
         <v>6</v>
       </c>
-      <c r="D73" s="18">
+      <c r="D86" s="18">
         <f t="shared" si="2"/>
         <v>5.4</v>
       </c>
-      <c r="E73" s="18">
-        <f t="shared" si="3"/>
+      <c r="E86" s="18">
+        <f t="shared" si="4"/>
         <v>6.6000000000000005</v>
       </c>
-      <c r="F73" s="19" t="s">
+      <c r="F86" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G73" s="19" t="s">
+      <c r="G86" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="K73" s="13"/>
-    </row>
-    <row r="74" spans="1:11" ht="14.55" customHeight="1">
-      <c r="A74" s="64" t="s">
+      <c r="K86" s="13"/>
+    </row>
+    <row r="87" spans="1:11" ht="14.55" customHeight="1">
+      <c r="A87" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="B74" s="40" t="s">
+      <c r="B87" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C74" s="49">
+      <c r="C87" s="49">
         <v>0.25</v>
       </c>
-      <c r="D74" s="41">
-        <f t="shared" si="2"/>
+      <c r="D87" s="41">
+        <f t="shared" ref="D87:D104" si="5">C87*0.9</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="E74" s="41">
-        <f t="shared" si="3"/>
+      <c r="E87" s="41">
+        <f t="shared" ref="E87:E104" si="6">C87*1.1</f>
         <v>0.27500000000000002</v>
-      </c>
-      <c r="F74" s="42"/>
-      <c r="G74" s="42" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="65"/>
-      <c r="B75" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C75" s="49">
-        <v>0.2</v>
-      </c>
-      <c r="D75" s="41">
-        <f t="shared" si="2"/>
-        <v>0.18000000000000002</v>
-      </c>
-      <c r="E75" s="41">
-        <f t="shared" si="3"/>
-        <v>0.22000000000000003</v>
-      </c>
-      <c r="F75" s="42"/>
-      <c r="G75" s="42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="65"/>
-      <c r="B76" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C76" s="49">
-        <v>0.2</v>
-      </c>
-      <c r="D76" s="41">
-        <f t="shared" si="2"/>
-        <v>0.18000000000000002</v>
-      </c>
-      <c r="E76" s="41">
-        <f t="shared" si="3"/>
-        <v>0.22000000000000003</v>
-      </c>
-      <c r="F76" s="42"/>
-      <c r="G76" s="42" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="65"/>
-      <c r="B77" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C77" s="50">
-        <v>0.2</v>
-      </c>
-      <c r="D77" s="41">
-        <f t="shared" si="2"/>
-        <v>0.18000000000000002</v>
-      </c>
-      <c r="E77" s="41">
-        <f t="shared" si="3"/>
-        <v>0.22000000000000003</v>
-      </c>
-      <c r="F77" s="42"/>
-      <c r="G77" s="42" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="65"/>
-      <c r="B78" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="C78" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="D78" s="41">
-        <f t="shared" si="2"/>
-        <v>0.45</v>
-      </c>
-      <c r="E78" s="41">
-        <f t="shared" si="3"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F78" s="42"/>
-      <c r="G78" s="42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="65"/>
-      <c r="B79" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="C79" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="D79" s="41">
-        <f t="shared" si="2"/>
-        <v>0.45</v>
-      </c>
-      <c r="E79" s="41">
-        <f t="shared" si="3"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F79" s="42"/>
-      <c r="G79" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="K79" s="13"/>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="65"/>
-      <c r="B80" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C80" s="50">
-        <v>0.25</v>
-      </c>
-      <c r="D80" s="41">
-        <f t="shared" si="2"/>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="E80" s="41">
-        <f t="shared" si="3"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="F80" s="42"/>
-      <c r="G80" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="K80" s="13"/>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="65"/>
-      <c r="B81" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C81" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="D81" s="41">
-        <f t="shared" si="2"/>
-        <v>9.0000000000000011E-2</v>
-      </c>
-      <c r="E81" s="41">
-        <f t="shared" si="3"/>
-        <v>0.11000000000000001</v>
-      </c>
-      <c r="F81" s="42"/>
-      <c r="G81" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="K81" s="13"/>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="65"/>
-      <c r="B82" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C82" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="D82" s="41">
-        <f t="shared" si="2"/>
-        <v>9.0000000000000011E-2</v>
-      </c>
-      <c r="E82" s="41">
-        <f t="shared" si="3"/>
-        <v>0.11000000000000001</v>
-      </c>
-      <c r="F82" s="42"/>
-      <c r="G82" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="K82" s="13"/>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="65"/>
-      <c r="B83" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C83" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="D83" s="41">
-        <f t="shared" si="2"/>
-        <v>9.0000000000000011E-2</v>
-      </c>
-      <c r="E83" s="41">
-        <f t="shared" si="3"/>
-        <v>0.11000000000000001</v>
-      </c>
-      <c r="F83" s="42"/>
-      <c r="G83" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="K83" s="13"/>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="65"/>
-      <c r="B84" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C84" s="50">
-        <v>0.45</v>
-      </c>
-      <c r="D84" s="41">
-        <f t="shared" si="2"/>
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="E84" s="41">
-        <f t="shared" si="3"/>
-        <v>0.49500000000000005</v>
-      </c>
-      <c r="F84" s="42"/>
-      <c r="G84" s="42" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="65"/>
-      <c r="B85" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="C85" s="50">
-        <v>0.45</v>
-      </c>
-      <c r="D85" s="41">
-        <f t="shared" si="2"/>
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="E85" s="41">
-        <f t="shared" si="3"/>
-        <v>0.49500000000000005</v>
-      </c>
-      <c r="F85" s="42"/>
-      <c r="G85" s="42" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="65"/>
-      <c r="B86" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C86" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="D86" s="41">
-        <f t="shared" si="2"/>
-        <v>0.45</v>
-      </c>
-      <c r="E86" s="41">
-        <f t="shared" si="3"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F86" s="42"/>
-      <c r="G86" s="42" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="65"/>
-      <c r="B87" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C87" s="49">
-        <v>0.7</v>
-      </c>
-      <c r="D87" s="41">
-        <f t="shared" si="2"/>
-        <v>0.63</v>
-      </c>
-      <c r="E87" s="41">
-        <f t="shared" si="3"/>
-        <v>0.77</v>
       </c>
       <c r="F87" s="42"/>
       <c r="G87" s="42" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="65"/>
       <c r="B88" s="40" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C88" s="49">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="D88" s="41">
-        <f t="shared" si="2"/>
-        <v>0.63</v>
+        <f t="shared" si="5"/>
+        <v>0.18000000000000002</v>
       </c>
       <c r="E88" s="41">
-        <f t="shared" si="3"/>
-        <v>0.77</v>
+        <f t="shared" si="6"/>
+        <v>0.22000000000000003</v>
       </c>
       <c r="F88" s="42"/>
       <c r="G88" s="42" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="65"/>
       <c r="B89" s="40" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C89" s="49">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="D89" s="41">
-        <f t="shared" si="2"/>
-        <v>0.63</v>
+        <f t="shared" si="5"/>
+        <v>0.18000000000000002</v>
       </c>
       <c r="E89" s="41">
-        <f t="shared" si="3"/>
-        <v>0.77</v>
+        <f t="shared" si="6"/>
+        <v>0.22000000000000003</v>
       </c>
       <c r="F89" s="42"/>
       <c r="G89" s="42" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="65"/>
       <c r="B90" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="C90" s="49">
-        <v>0.05</v>
+        <v>41</v>
+      </c>
+      <c r="C90" s="50">
+        <v>0.2</v>
       </c>
       <c r="D90" s="41">
-        <f t="shared" si="2"/>
-        <v>4.5000000000000005E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.18000000000000002</v>
       </c>
       <c r="E90" s="41">
-        <f t="shared" si="3"/>
-        <v>5.5000000000000007E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.22000000000000003</v>
       </c>
       <c r="F90" s="42"/>
       <c r="G90" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="K90" s="13"/>
+        <v>105</v>
+      </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="65"/>
       <c r="B91" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="C91" s="49">
-        <v>0.05</v>
+        <v>42</v>
+      </c>
+      <c r="C91" s="50">
+        <v>0.5</v>
       </c>
       <c r="D91" s="41">
-        <f t="shared" si="2"/>
-        <v>4.5000000000000005E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.45</v>
       </c>
       <c r="E91" s="41">
-        <f t="shared" si="3"/>
-        <v>5.5000000000000007E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F91" s="42"/>
       <c r="G91" s="42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="65"/>
+      <c r="B92" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="C92" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="D92" s="41">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+      <c r="E92" s="41">
+        <f t="shared" si="6"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F92" s="42"/>
+      <c r="G92" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="K92" s="13"/>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="65"/>
+      <c r="B93" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" s="50">
+        <v>0.25</v>
+      </c>
+      <c r="D93" s="41">
+        <f t="shared" si="5"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="E93" s="41">
+        <f t="shared" si="6"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F93" s="42"/>
+      <c r="G93" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="K93" s="13"/>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="65"/>
+      <c r="B94" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C94" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="D94" s="41">
+        <f t="shared" si="5"/>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="E94" s="41">
+        <f t="shared" si="6"/>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="F94" s="42"/>
+      <c r="G94" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="K94" s="13"/>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="65"/>
+      <c r="B95" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C95" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="D95" s="41">
+        <f t="shared" si="5"/>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="E95" s="41">
+        <f t="shared" si="6"/>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="F95" s="42"/>
+      <c r="G95" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="K95" s="13"/>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="65"/>
+      <c r="B96" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C96" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="D96" s="41">
+        <f t="shared" si="5"/>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="E96" s="41">
+        <f t="shared" si="6"/>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="F96" s="42"/>
+      <c r="G96" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="K96" s="13"/>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="65"/>
+      <c r="B97" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C97" s="50">
+        <v>0.45</v>
+      </c>
+      <c r="D97" s="41">
+        <f t="shared" si="5"/>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="E97" s="41">
+        <f t="shared" si="6"/>
+        <v>0.49500000000000005</v>
+      </c>
+      <c r="F97" s="42"/>
+      <c r="G97" s="42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="65"/>
+      <c r="B98" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="C98" s="50">
+        <v>0.45</v>
+      </c>
+      <c r="D98" s="41">
+        <f t="shared" si="5"/>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="E98" s="41">
+        <f t="shared" si="6"/>
+        <v>0.49500000000000005</v>
+      </c>
+      <c r="F98" s="42"/>
+      <c r="G98" s="42" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="65"/>
+      <c r="B99" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C99" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="D99" s="41">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+      <c r="E99" s="41">
+        <f t="shared" si="6"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F99" s="42"/>
+      <c r="G99" s="42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="65"/>
+      <c r="B100" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C100" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="D100" s="41">
+        <f t="shared" si="5"/>
+        <v>0.63</v>
+      </c>
+      <c r="E100" s="41">
+        <f t="shared" si="6"/>
+        <v>0.77</v>
+      </c>
+      <c r="F100" s="42"/>
+      <c r="G100" s="42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="65"/>
+      <c r="B101" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C101" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="D101" s="41">
+        <f t="shared" si="5"/>
+        <v>0.63</v>
+      </c>
+      <c r="E101" s="41">
+        <f t="shared" si="6"/>
+        <v>0.77</v>
+      </c>
+      <c r="F101" s="42"/>
+      <c r="G101" s="42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="65"/>
+      <c r="B102" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C102" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="D102" s="41">
+        <f t="shared" si="5"/>
+        <v>0.63</v>
+      </c>
+      <c r="E102" s="41">
+        <f t="shared" si="6"/>
+        <v>0.77</v>
+      </c>
+      <c r="F102" s="42"/>
+      <c r="G102" s="42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="65"/>
+      <c r="B103" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C103" s="49">
+        <v>0.05</v>
+      </c>
+      <c r="D103" s="41">
+        <f t="shared" si="5"/>
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="E103" s="41">
+        <f t="shared" si="6"/>
+        <v>5.5000000000000007E-2</v>
+      </c>
+      <c r="F103" s="42"/>
+      <c r="G103" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="K103" s="13"/>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="65"/>
+      <c r="B104" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="C104" s="49">
+        <v>0.05</v>
+      </c>
+      <c r="D104" s="41">
+        <f t="shared" si="5"/>
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="E104" s="41">
+        <f t="shared" si="6"/>
+        <v>5.5000000000000007E-2</v>
+      </c>
+      <c r="F104" s="42"/>
+      <c r="G104" s="42" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="97" spans="11:11">
-      <c r="K97" s="13"/>
-    </row>
-    <row r="101" spans="11:11">
-      <c r="K101" s="13"/>
-    </row>
-    <row r="102" spans="11:11">
-      <c r="K102" s="13"/>
-    </row>
-    <row r="103" spans="11:11">
-      <c r="K103" s="13"/>
-    </row>
-    <row r="104" spans="11:11">
-      <c r="K104" s="13"/>
-    </row>
-    <row r="105" spans="11:11">
-      <c r="K105" s="13"/>
-    </row>
-    <row r="106" spans="11:11">
-      <c r="K106" s="13"/>
-    </row>
-    <row r="107" spans="11:11">
-      <c r="K107" s="13"/>
-    </row>
-    <row r="108" spans="11:11">
-      <c r="K108" s="13"/>
-    </row>
-    <row r="109" spans="11:11">
-      <c r="K109" s="13"/>
-    </row>
-    <row r="110" spans="11:11">
-      <c r="K110" s="13"/>
-    </row>
-    <row r="111" spans="11:11">
-      <c r="K111" s="13"/>
-    </row>
-    <row r="112" spans="11:11">
-      <c r="K112" s="13"/>
-    </row>
-    <row r="113" spans="11:11">
-      <c r="K113" s="13"/>
-    </row>
-    <row r="115" spans="11:11">
-      <c r="K115" s="13"/>
+    <row r="121" spans="11:11">
+      <c r="K121" s="13"/>
+    </row>
+    <row r="125" spans="11:11">
+      <c r="K125" s="13"/>
+    </row>
+    <row r="126" spans="11:11">
+      <c r="K126" s="13"/>
+    </row>
+    <row r="127" spans="11:11">
+      <c r="K127" s="13"/>
+    </row>
+    <row r="128" spans="11:11">
+      <c r="K128" s="13"/>
+    </row>
+    <row r="129" spans="11:11">
+      <c r="K129" s="13"/>
+    </row>
+    <row r="130" spans="11:11">
+      <c r="K130" s="13"/>
+    </row>
+    <row r="131" spans="11:11">
+      <c r="K131" s="13"/>
+    </row>
+    <row r="132" spans="11:11">
+      <c r="K132" s="13"/>
+    </row>
+    <row r="133" spans="11:11">
+      <c r="K133" s="13"/>
+    </row>
+    <row r="134" spans="11:11">
+      <c r="K134" s="13"/>
+    </row>
+    <row r="135" spans="11:11">
+      <c r="K135" s="13"/>
+    </row>
+    <row r="136" spans="11:11">
+      <c r="K136" s="13"/>
+    </row>
+    <row r="137" spans="11:11">
+      <c r="K137" s="13"/>
+    </row>
+    <row r="139" spans="11:11">
+      <c r="K139" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="A57:A73"/>
-    <mergeCell ref="A74:A91"/>
+  <mergeCells count="10">
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A60:A69"/>
+    <mergeCell ref="A87:A104"/>
+    <mergeCell ref="A70:A86"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A4:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A30"/>
-    <mergeCell ref="A31:A42"/>
-    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="A4:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="A34:A45"/>
+    <mergeCell ref="A46:A53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Data/Antera_inputs_v2.xlsx
+++ b/Data/Antera_inputs_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giparoli\Documents\Projetos\AEco\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F519CA48-6812-4377-AACE-83792A41E7FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFA74C1-55C9-4A7C-A95E-304479A7CA78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32025" yWindow="3315" windowWidth="17280" windowHeight="9075" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antera_spray_etanol" sheetId="11" r:id="rId1"/>
@@ -1401,7 +1401,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1455,12 +1455,6 @@
       <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1804,6 +1798,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1854,9 +1851,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2375,14 +2369,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="28"/>
@@ -2413,7 +2407,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -2438,7 +2432,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
-      <c r="A5" s="68"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="8" t="s">
         <v>185</v>
       </c>
@@ -2461,7 +2455,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
@@ -2484,7 +2478,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="68"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="8" t="s">
         <v>125</v>
       </c>
@@ -2507,7 +2501,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="68"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="8" t="s">
         <v>126</v>
       </c>
@@ -2531,7 +2525,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="68"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="8" t="s">
         <v>127</v>
       </c>
@@ -2554,7 +2548,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="68"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="8" t="s">
         <v>54</v>
       </c>
@@ -2578,7 +2572,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="68"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="8" t="s">
         <v>134</v>
       </c>
@@ -2602,7 +2596,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="68"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="8" t="s">
         <v>121</v>
       </c>
@@ -2626,7 +2620,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="68"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="8" t="s">
         <v>128</v>
       </c>
@@ -2647,7 +2641,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="68"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="8" t="s">
         <v>129</v>
       </c>
@@ -2668,7 +2662,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="68"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="8" t="s">
         <v>130</v>
       </c>
@@ -2689,7 +2683,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="68"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="8" t="s">
         <v>131</v>
       </c>
@@ -2710,7 +2704,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="68"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="8" t="s">
         <v>132</v>
       </c>
@@ -2731,7 +2725,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="69"/>
+      <c r="A18" s="70"/>
       <c r="B18" s="8" t="s">
         <v>133</v>
       </c>
@@ -2752,7 +2746,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="30" customFormat="1" ht="14.7" customHeight="1">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="71" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="43" t="s">
@@ -2778,7 +2772,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" s="30" customFormat="1">
-      <c r="A20" s="71"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="43" t="s">
         <v>62</v>
       </c>
@@ -2802,7 +2796,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="30" customFormat="1">
-      <c r="A21" s="71"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="43" t="s">
         <v>63</v>
       </c>
@@ -2826,7 +2820,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.55" customHeight="1">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="73" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="32" t="s">
@@ -2852,7 +2846,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="73"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="22" t="s">
         <v>64</v>
       </c>
@@ -2876,7 +2870,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="73"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="22" t="s">
         <v>174</v>
       </c>
@@ -2900,7 +2894,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="73"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="22" t="s">
         <v>122</v>
       </c>
@@ -2924,7 +2918,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="73"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="32" t="s">
         <v>175</v>
       </c>
@@ -2947,7 +2941,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="73"/>
+      <c r="A27" s="74"/>
       <c r="B27" s="32" t="s">
         <v>176</v>
       </c>
@@ -2970,7 +2964,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="73"/>
+      <c r="A28" s="74"/>
       <c r="B28" s="22" t="s">
         <v>70</v>
       </c>
@@ -2993,7 +2987,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="73"/>
+      <c r="A29" s="74"/>
       <c r="B29" s="22" t="s">
         <v>71</v>
       </c>
@@ -3016,7 +3010,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="73"/>
+      <c r="A30" s="74"/>
       <c r="B30" s="22" t="s">
         <v>74</v>
       </c>
@@ -3039,7 +3033,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.55" customHeight="1">
-      <c r="A31" s="74" t="s">
+      <c r="A31" s="75" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -3063,7 +3057,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.55" customHeight="1">
-      <c r="A32" s="75"/>
+      <c r="A32" s="76"/>
       <c r="B32" s="9" t="s">
         <v>12</v>
       </c>
@@ -3085,7 +3079,7 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="75"/>
+      <c r="A33" s="76"/>
       <c r="B33" s="9" t="s">
         <v>142</v>
       </c>
@@ -3107,7 +3101,7 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="75"/>
+      <c r="A34" s="76"/>
       <c r="B34" s="9" t="s">
         <v>19</v>
       </c>
@@ -3128,7 +3122,7 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="75"/>
+      <c r="A35" s="76"/>
       <c r="B35" s="9" t="s">
         <v>13</v>
       </c>
@@ -3149,7 +3143,7 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="75"/>
+      <c r="A36" s="76"/>
       <c r="B36" s="9" t="s">
         <v>14</v>
       </c>
@@ -3170,7 +3164,7 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="75"/>
+      <c r="A37" s="76"/>
       <c r="B37" s="9" t="s">
         <v>15</v>
       </c>
@@ -3191,7 +3185,7 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="75"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="9" t="s">
         <v>16</v>
       </c>
@@ -3212,7 +3206,7 @@
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="75"/>
+      <c r="A39" s="76"/>
       <c r="B39" s="9" t="s">
         <v>146</v>
       </c>
@@ -3233,7 +3227,7 @@
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="75"/>
+      <c r="A40" s="76"/>
       <c r="B40" s="9" t="s">
         <v>20</v>
       </c>
@@ -3254,7 +3248,7 @@
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="75"/>
+      <c r="A41" s="76"/>
       <c r="B41" s="9" t="s">
         <v>17</v>
       </c>
@@ -3275,7 +3269,7 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="75"/>
+      <c r="A42" s="76"/>
       <c r="B42" s="9" t="s">
         <v>18</v>
       </c>
@@ -3296,7 +3290,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A43" s="76" t="s">
+      <c r="A43" s="77" t="s">
         <v>35</v>
       </c>
       <c r="B43" s="35" t="s">
@@ -3321,7 +3315,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A44" s="77"/>
+      <c r="A44" s="78"/>
       <c r="B44" s="35" t="s">
         <v>119</v>
       </c>
@@ -3349,7 +3343,7 @@
       <c r="M44" s="51"/>
     </row>
     <row r="45" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A45" s="77"/>
+      <c r="A45" s="78"/>
       <c r="B45" s="35" t="s">
         <v>120</v>
       </c>
@@ -3377,7 +3371,7 @@
       <c r="M45" s="51"/>
     </row>
     <row r="46" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A46" s="77"/>
+      <c r="A46" s="78"/>
       <c r="B46" s="47" t="s">
         <v>194</v>
       </c>
@@ -3407,7 +3401,7 @@
       <c r="M46" s="51"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="77"/>
+      <c r="A47" s="78"/>
       <c r="B47" s="35" t="s">
         <v>21</v>
       </c>
@@ -3436,7 +3430,7 @@
       <c r="M47" s="51"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="77"/>
+      <c r="A48" s="78"/>
       <c r="B48" s="35" t="s">
         <v>22</v>
       </c>
@@ -3465,7 +3459,7 @@
       <c r="M48" s="51"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="77"/>
+      <c r="A49" s="78"/>
       <c r="B49" s="35" t="s">
         <v>23</v>
       </c>
@@ -3494,7 +3488,7 @@
       <c r="M49" s="51"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="78"/>
+      <c r="A50" s="79"/>
       <c r="B50" s="35" t="s">
         <v>138</v>
       </c>
@@ -3666,7 +3660,7 @@
       </c>
     </row>
     <row r="57" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A57" s="79" t="s">
+      <c r="A57" s="62" t="s">
         <v>33</v>
       </c>
       <c r="B57" s="17" t="s">
@@ -3693,7 +3687,7 @@
       <c r="K57" s="13"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="62"/>
+      <c r="A58" s="63"/>
       <c r="B58" s="17" t="s">
         <v>151</v>
       </c>
@@ -3718,7 +3712,7 @@
       <c r="K58" s="13"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="62"/>
+      <c r="A59" s="63"/>
       <c r="B59" s="17" t="s">
         <v>197</v>
       </c>
@@ -3743,7 +3737,7 @@
       <c r="K59" s="13"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="62"/>
+      <c r="A60" s="63"/>
       <c r="B60" s="17" t="s">
         <v>198</v>
       </c>
@@ -3764,7 +3758,7 @@
       <c r="K60" s="13"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="62"/>
+      <c r="A61" s="63"/>
       <c r="B61" s="17" t="s">
         <v>199</v>
       </c>
@@ -3785,7 +3779,7 @@
       <c r="K61" s="13"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="62"/>
+      <c r="A62" s="63"/>
       <c r="B62" s="17" t="s">
         <v>210</v>
       </c>
@@ -3810,7 +3804,7 @@
       <c r="K62" s="13"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="62"/>
+      <c r="A63" s="63"/>
       <c r="B63" s="17" t="s">
         <v>155</v>
       </c>
@@ -3835,7 +3829,7 @@
       <c r="K63" s="13"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="62"/>
+      <c r="A64" s="63"/>
       <c r="B64" s="20" t="s">
         <v>200</v>
       </c>
@@ -3859,7 +3853,7 @@
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="62"/>
+      <c r="A65" s="63"/>
       <c r="B65" s="20" t="s">
         <v>201</v>
       </c>
@@ -3879,7 +3873,7 @@
       <c r="G65" s="19"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="62"/>
+      <c r="A66" s="63"/>
       <c r="B66" s="20" t="s">
         <v>202</v>
       </c>
@@ -3899,7 +3893,7 @@
       <c r="G66" s="19"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="62"/>
+      <c r="A67" s="63"/>
       <c r="B67" s="20" t="s">
         <v>117</v>
       </c>
@@ -3923,7 +3917,7 @@
       <c r="K67" s="13"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="62"/>
+      <c r="A68" s="63"/>
       <c r="B68" s="20" t="s">
         <v>203</v>
       </c>
@@ -3946,7 +3940,7 @@
       <c r="K68" s="13"/>
     </row>
     <row r="69" spans="1:11" ht="14.55" customHeight="1">
-      <c r="A69" s="62"/>
+      <c r="A69" s="63"/>
       <c r="B69" s="20" t="s">
         <v>159</v>
       </c>
@@ -3968,7 +3962,7 @@
       <c r="K69" s="13"/>
     </row>
     <row r="70" spans="1:11" ht="14.55" customHeight="1">
-      <c r="A70" s="62"/>
+      <c r="A70" s="63"/>
       <c r="B70" s="20" t="s">
         <v>204</v>
       </c>
@@ -3988,7 +3982,7 @@
       <c r="K70" s="13"/>
     </row>
     <row r="71" spans="1:11" ht="14.55" customHeight="1">
-      <c r="A71" s="62"/>
+      <c r="A71" s="63"/>
       <c r="B71" s="20" t="s">
         <v>206</v>
       </c>
@@ -4012,7 +4006,7 @@
       <c r="K71" s="13"/>
     </row>
     <row r="72" spans="1:11" ht="14.55" customHeight="1">
-      <c r="A72" s="62"/>
+      <c r="A72" s="63"/>
       <c r="B72" s="20" t="s">
         <v>207</v>
       </c>
@@ -4035,7 +4029,7 @@
       <c r="K72" s="13"/>
     </row>
     <row r="73" spans="1:11" ht="14.55" customHeight="1">
-      <c r="A73" s="62"/>
+      <c r="A73" s="63"/>
       <c r="B73" s="17" t="s">
         <v>161</v>
       </c>
@@ -4059,7 +4053,7 @@
       <c r="K73" s="13"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="62"/>
+      <c r="A74" s="63"/>
       <c r="B74" s="17" t="s">
         <v>162</v>
       </c>
@@ -4083,7 +4077,7 @@
       <c r="K74" s="13"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="62"/>
+      <c r="A75" s="63"/>
       <c r="B75" s="17" t="s">
         <v>164</v>
       </c>
@@ -4107,7 +4101,7 @@
       <c r="K75" s="13"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="63"/>
+      <c r="A76" s="64"/>
       <c r="B76" s="17" t="s">
         <v>76</v>
       </c>
@@ -4131,7 +4125,7 @@
       <c r="K76" s="13"/>
     </row>
     <row r="77" spans="1:11" ht="14.55" customHeight="1">
-      <c r="A77" s="64" t="s">
+      <c r="A77" s="65" t="s">
         <v>38</v>
       </c>
       <c r="B77" s="40" t="s">
@@ -4154,7 +4148,7 @@
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="65"/>
+      <c r="A78" s="66"/>
       <c r="B78" s="40" t="s">
         <v>48</v>
       </c>
@@ -4175,7 +4169,7 @@
       </c>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="65"/>
+      <c r="A79" s="66"/>
       <c r="B79" s="40" t="s">
         <v>40</v>
       </c>
@@ -4196,7 +4190,7 @@
       </c>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="65"/>
+      <c r="A80" s="66"/>
       <c r="B80" s="40" t="s">
         <v>41</v>
       </c>
@@ -4217,7 +4211,7 @@
       </c>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="65"/>
+      <c r="A81" s="66"/>
       <c r="B81" s="40" t="s">
         <v>42</v>
       </c>
@@ -4238,7 +4232,7 @@
       </c>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="65"/>
+      <c r="A82" s="66"/>
       <c r="B82" s="40" t="s">
         <v>188</v>
       </c>
@@ -4260,7 +4254,7 @@
       <c r="K82" s="13"/>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="65"/>
+      <c r="A83" s="66"/>
       <c r="B83" s="40" t="s">
         <v>43</v>
       </c>
@@ -4282,7 +4276,7 @@
       <c r="K83" s="13"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="65"/>
+      <c r="A84" s="66"/>
       <c r="B84" s="40" t="s">
         <v>49</v>
       </c>
@@ -4304,7 +4298,7 @@
       <c r="K84" s="13"/>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="65"/>
+      <c r="A85" s="66"/>
       <c r="B85" s="40" t="s">
         <v>44</v>
       </c>
@@ -4326,7 +4320,7 @@
       <c r="K85" s="13"/>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="65"/>
+      <c r="A86" s="66"/>
       <c r="B86" s="40" t="s">
         <v>45</v>
       </c>
@@ -4348,7 +4342,7 @@
       <c r="K86" s="13"/>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="65"/>
+      <c r="A87" s="66"/>
       <c r="B87" s="40" t="s">
         <v>46</v>
       </c>
@@ -4369,7 +4363,7 @@
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="65"/>
+      <c r="A88" s="66"/>
       <c r="B88" s="40" t="s">
         <v>189</v>
       </c>
@@ -4390,7 +4384,7 @@
       </c>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="65"/>
+      <c r="A89" s="66"/>
       <c r="B89" s="40" t="s">
         <v>47</v>
       </c>
@@ -4411,7 +4405,7 @@
       </c>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="65"/>
+      <c r="A90" s="66"/>
       <c r="B90" s="40" t="s">
         <v>50</v>
       </c>
@@ -4432,7 +4426,7 @@
       </c>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="65"/>
+      <c r="A91" s="66"/>
       <c r="B91" s="40" t="s">
         <v>51</v>
       </c>
@@ -4453,7 +4447,7 @@
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="65"/>
+      <c r="A92" s="66"/>
       <c r="B92" s="40" t="s">
         <v>52</v>
       </c>
@@ -4474,7 +4468,7 @@
       </c>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="65"/>
+      <c r="A93" s="66"/>
       <c r="B93" s="40" t="s">
         <v>53</v>
       </c>
@@ -4496,7 +4490,7 @@
       <c r="K93" s="13"/>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="65"/>
+      <c r="A94" s="66"/>
       <c r="B94" s="40" t="s">
         <v>190</v>
       </c>
@@ -4585,7 +4579,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -4597,19 +4591,20 @@
     <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="75.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="66" t="s">
+    <row r="1" spans="1:9">
+      <c r="B1" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="B2" s="28"/>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -4617,7 +4612,7 @@
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -4637,8 +4632,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1">
-      <c r="A4" s="68" t="s">
+    <row r="4" spans="1:9" ht="15" customHeight="1">
+      <c r="A4" s="69" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -4662,8 +4657,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1">
-      <c r="A5" s="68"/>
+    <row r="5" spans="1:9" ht="15" customHeight="1">
+      <c r="A5" s="69"/>
       <c r="B5" s="8" t="s">
         <v>185</v>
       </c>
@@ -4685,8 +4680,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="68"/>
+    <row r="6" spans="1:9">
+      <c r="A6" s="69"/>
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
@@ -4708,8 +4703,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="68"/>
+    <row r="7" spans="1:9">
+      <c r="A7" s="69"/>
       <c r="B7" s="8" t="s">
         <v>125</v>
       </c>
@@ -4731,8 +4726,8 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="68"/>
+    <row r="8" spans="1:9">
+      <c r="A8" s="69"/>
       <c r="B8" s="8" t="s">
         <v>126</v>
       </c>
@@ -4754,9 +4749,13 @@
       <c r="G8" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="68"/>
+      <c r="I8">
+        <f>C7*C8*C9*C10*(C11+C12)</f>
+        <v>5857481725.1626673</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="69"/>
       <c r="B9" s="8" t="s">
         <v>127</v>
       </c>
@@ -4777,9 +4776,13 @@
       <c r="G9" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="68"/>
+      <c r="I9">
+        <f>C7*C8*C9*C10</f>
+        <v>713978.75733333337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="69"/>
       <c r="B10" s="8" t="s">
         <v>54</v>
       </c>
@@ -4802,8 +4805,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="68"/>
+    <row r="11" spans="1:9">
+      <c r="A11" s="69"/>
       <c r="B11" s="8" t="s">
         <v>134</v>
       </c>
@@ -4826,8 +4829,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="68"/>
+    <row r="12" spans="1:9">
+      <c r="A12" s="69"/>
       <c r="B12" s="8" t="s">
         <v>121</v>
       </c>
@@ -4850,8 +4853,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="68"/>
+    <row r="13" spans="1:9">
+      <c r="A13" s="69"/>
       <c r="B13" s="8" t="s">
         <v>128</v>
       </c>
@@ -4871,8 +4874,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="68"/>
+    <row r="14" spans="1:9">
+      <c r="A14" s="69"/>
       <c r="B14" s="8" t="s">
         <v>129</v>
       </c>
@@ -4892,8 +4895,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="68"/>
+    <row r="15" spans="1:9">
+      <c r="A15" s="69"/>
       <c r="B15" s="8" t="s">
         <v>130</v>
       </c>
@@ -4913,8 +4916,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="68"/>
+    <row r="16" spans="1:9">
+      <c r="A16" s="69"/>
       <c r="B16" s="8" t="s">
         <v>131</v>
       </c>
@@ -4935,7 +4938,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="68"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="8" t="s">
         <v>132</v>
       </c>
@@ -4956,7 +4959,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="69"/>
+      <c r="A18" s="70"/>
       <c r="B18" s="8" t="s">
         <v>133</v>
       </c>
@@ -4977,7 +4980,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="30" customFormat="1" ht="14.7" customHeight="1">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="71" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="43" t="s">
@@ -5003,7 +5006,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" s="30" customFormat="1">
-      <c r="A20" s="71"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="43" t="s">
         <v>62</v>
       </c>
@@ -5027,7 +5030,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="30" customFormat="1">
-      <c r="A21" s="71"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="43" t="s">
         <v>63</v>
       </c>
@@ -5051,7 +5054,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.55" customHeight="1">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="73" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="32" t="s">
@@ -5077,7 +5080,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="73"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="22" t="s">
         <v>64</v>
       </c>
@@ -5101,7 +5104,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="73"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="22" t="s">
         <v>174</v>
       </c>
@@ -5125,7 +5128,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="73"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="22" t="s">
         <v>122</v>
       </c>
@@ -5149,7 +5152,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="73"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="32" t="s">
         <v>175</v>
       </c>
@@ -5172,7 +5175,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="73"/>
+      <c r="A27" s="74"/>
       <c r="B27" s="32" t="s">
         <v>176</v>
       </c>
@@ -5195,7 +5198,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="73"/>
+      <c r="A28" s="74"/>
       <c r="B28" s="22" t="s">
         <v>70</v>
       </c>
@@ -5218,7 +5221,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="73"/>
+      <c r="A29" s="74"/>
       <c r="B29" s="22" t="s">
         <v>71</v>
       </c>
@@ -5241,7 +5244,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="73"/>
+      <c r="A30" s="74"/>
       <c r="B30" s="22" t="s">
         <v>74</v>
       </c>
@@ -5264,7 +5267,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.55" customHeight="1">
-      <c r="A31" s="74" t="s">
+      <c r="A31" s="75" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -5288,7 +5291,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.55" customHeight="1">
-      <c r="A32" s="75"/>
+      <c r="A32" s="76"/>
       <c r="B32" s="9" t="s">
         <v>12</v>
       </c>
@@ -5310,7 +5313,7 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="75"/>
+      <c r="A33" s="76"/>
       <c r="B33" s="9" t="s">
         <v>142</v>
       </c>
@@ -5332,7 +5335,7 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="75"/>
+      <c r="A34" s="76"/>
       <c r="B34" s="9" t="s">
         <v>19</v>
       </c>
@@ -5353,7 +5356,7 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="75"/>
+      <c r="A35" s="76"/>
       <c r="B35" s="9" t="s">
         <v>13</v>
       </c>
@@ -5374,7 +5377,7 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="75"/>
+      <c r="A36" s="76"/>
       <c r="B36" s="9" t="s">
         <v>14</v>
       </c>
@@ -5395,7 +5398,7 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="75"/>
+      <c r="A37" s="76"/>
       <c r="B37" s="9" t="s">
         <v>15</v>
       </c>
@@ -5416,7 +5419,7 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="75"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="9" t="s">
         <v>16</v>
       </c>
@@ -5437,7 +5440,7 @@
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="75"/>
+      <c r="A39" s="76"/>
       <c r="B39" s="9" t="s">
         <v>146</v>
       </c>
@@ -5458,7 +5461,7 @@
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="75"/>
+      <c r="A40" s="76"/>
       <c r="B40" s="9" t="s">
         <v>20</v>
       </c>
@@ -5479,7 +5482,7 @@
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="75"/>
+      <c r="A41" s="76"/>
       <c r="B41" s="9" t="s">
         <v>17</v>
       </c>
@@ -5500,7 +5503,7 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="75"/>
+      <c r="A42" s="76"/>
       <c r="B42" s="9" t="s">
         <v>18</v>
       </c>
@@ -5521,7 +5524,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A43" s="76" t="s">
+      <c r="A43" s="77" t="s">
         <v>35</v>
       </c>
       <c r="B43" s="35" t="s">
@@ -5546,7 +5549,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A44" s="77"/>
+      <c r="A44" s="78"/>
       <c r="B44" s="35" t="s">
         <v>119</v>
       </c>
@@ -5574,7 +5577,7 @@
       <c r="M44" s="51"/>
     </row>
     <row r="45" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A45" s="77"/>
+      <c r="A45" s="78"/>
       <c r="B45" s="35" t="s">
         <v>120</v>
       </c>
@@ -5602,7 +5605,7 @@
       <c r="M45" s="51"/>
     </row>
     <row r="46" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A46" s="77"/>
+      <c r="A46" s="78"/>
       <c r="B46" s="47" t="s">
         <v>194</v>
       </c>
@@ -5632,7 +5635,7 @@
       <c r="M46" s="51"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="77"/>
+      <c r="A47" s="78"/>
       <c r="B47" s="35" t="s">
         <v>21</v>
       </c>
@@ -5661,7 +5664,7 @@
       <c r="M47" s="51"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="77"/>
+      <c r="A48" s="78"/>
       <c r="B48" s="35" t="s">
         <v>22</v>
       </c>
@@ -5690,7 +5693,7 @@
       <c r="M48" s="51"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="77"/>
+      <c r="A49" s="78"/>
       <c r="B49" s="35" t="s">
         <v>23</v>
       </c>
@@ -5719,7 +5722,7 @@
       <c r="M49" s="51"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="78"/>
+      <c r="A50" s="79"/>
       <c r="B50" s="35" t="s">
         <v>138</v>
       </c>
@@ -5891,7 +5894,7 @@
       </c>
     </row>
     <row r="57" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A57" s="79" t="s">
+      <c r="A57" s="62" t="s">
         <v>33</v>
       </c>
       <c r="B57" s="17" t="s">
@@ -5918,7 +5921,7 @@
       <c r="K57" s="13"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="62"/>
+      <c r="A58" s="63"/>
       <c r="B58" s="17" t="s">
         <v>151</v>
       </c>
@@ -5943,7 +5946,7 @@
       <c r="K58" s="13"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="62"/>
+      <c r="A59" s="63"/>
       <c r="B59" s="17" t="s">
         <v>197</v>
       </c>
@@ -5968,7 +5971,7 @@
       <c r="K59" s="13"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="62"/>
+      <c r="A60" s="63"/>
       <c r="B60" s="17" t="s">
         <v>198</v>
       </c>
@@ -5989,7 +5992,7 @@
       <c r="K60" s="13"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="62"/>
+      <c r="A61" s="63"/>
       <c r="B61" s="17" t="s">
         <v>199</v>
       </c>
@@ -6010,7 +6013,7 @@
       <c r="K61" s="13"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="62"/>
+      <c r="A62" s="63"/>
       <c r="B62" s="17" t="s">
         <v>214</v>
       </c>
@@ -6035,7 +6038,7 @@
       <c r="K62" s="13"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="62"/>
+      <c r="A63" s="63"/>
       <c r="B63" s="17" t="s">
         <v>155</v>
       </c>
@@ -6060,7 +6063,7 @@
       <c r="K63" s="13"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="62"/>
+      <c r="A64" s="63"/>
       <c r="B64" s="20" t="s">
         <v>200</v>
       </c>
@@ -6084,7 +6087,7 @@
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="62"/>
+      <c r="A65" s="63"/>
       <c r="B65" s="20" t="s">
         <v>201</v>
       </c>
@@ -6104,7 +6107,7 @@
       <c r="G65" s="19"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="62"/>
+      <c r="A66" s="63"/>
       <c r="B66" s="20" t="s">
         <v>202</v>
       </c>
@@ -6124,7 +6127,7 @@
       <c r="G66" s="19"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="62"/>
+      <c r="A67" s="63"/>
       <c r="B67" s="20" t="s">
         <v>117</v>
       </c>
@@ -6148,7 +6151,7 @@
       <c r="K67" s="13"/>
     </row>
     <row r="68" spans="1:11" ht="14.55" customHeight="1">
-      <c r="A68" s="62"/>
+      <c r="A68" s="63"/>
       <c r="B68" s="20" t="s">
         <v>159</v>
       </c>
@@ -6169,7 +6172,7 @@
       <c r="K68" s="13"/>
     </row>
     <row r="69" spans="1:11" ht="14.55" customHeight="1">
-      <c r="A69" s="62"/>
+      <c r="A69" s="63"/>
       <c r="B69" s="20" t="s">
         <v>206</v>
       </c>
@@ -6191,7 +6194,7 @@
       <c r="K69" s="13"/>
     </row>
     <row r="70" spans="1:11" ht="14.55" customHeight="1">
-      <c r="A70" s="62"/>
+      <c r="A70" s="63"/>
       <c r="B70" s="17" t="s">
         <v>161</v>
       </c>
@@ -6215,7 +6218,7 @@
       <c r="K70" s="13"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="62"/>
+      <c r="A71" s="63"/>
       <c r="B71" s="17" t="s">
         <v>162</v>
       </c>
@@ -6239,7 +6242,7 @@
       <c r="K71" s="13"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="62"/>
+      <c r="A72" s="63"/>
       <c r="B72" s="17" t="s">
         <v>164</v>
       </c>
@@ -6263,7 +6266,7 @@
       <c r="K72" s="13"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="63"/>
+      <c r="A73" s="64"/>
       <c r="B73" s="17" t="s">
         <v>76</v>
       </c>
@@ -6287,7 +6290,7 @@
       <c r="K73" s="13"/>
     </row>
     <row r="74" spans="1:11" ht="14.55" customHeight="1">
-      <c r="A74" s="64" t="s">
+      <c r="A74" s="65" t="s">
         <v>38</v>
       </c>
       <c r="B74" s="40" t="s">
@@ -6310,7 +6313,7 @@
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="65"/>
+      <c r="A75" s="66"/>
       <c r="B75" s="40" t="s">
         <v>48</v>
       </c>
@@ -6331,7 +6334,7 @@
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="65"/>
+      <c r="A76" s="66"/>
       <c r="B76" s="40" t="s">
         <v>40</v>
       </c>
@@ -6352,7 +6355,7 @@
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="65"/>
+      <c r="A77" s="66"/>
       <c r="B77" s="40" t="s">
         <v>41</v>
       </c>
@@ -6373,7 +6376,7 @@
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="65"/>
+      <c r="A78" s="66"/>
       <c r="B78" s="40" t="s">
         <v>42</v>
       </c>
@@ -6394,7 +6397,7 @@
       </c>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="65"/>
+      <c r="A79" s="66"/>
       <c r="B79" s="40" t="s">
         <v>188</v>
       </c>
@@ -6416,7 +6419,7 @@
       <c r="K79" s="13"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="65"/>
+      <c r="A80" s="66"/>
       <c r="B80" s="40" t="s">
         <v>43</v>
       </c>
@@ -6438,7 +6441,7 @@
       <c r="K80" s="13"/>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="65"/>
+      <c r="A81" s="66"/>
       <c r="B81" s="40" t="s">
         <v>49</v>
       </c>
@@ -6460,7 +6463,7 @@
       <c r="K81" s="13"/>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="65"/>
+      <c r="A82" s="66"/>
       <c r="B82" s="40" t="s">
         <v>44</v>
       </c>
@@ -6482,7 +6485,7 @@
       <c r="K82" s="13"/>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="65"/>
+      <c r="A83" s="66"/>
       <c r="B83" s="40" t="s">
         <v>45</v>
       </c>
@@ -6504,7 +6507,7 @@
       <c r="K83" s="13"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="65"/>
+      <c r="A84" s="66"/>
       <c r="B84" s="40" t="s">
         <v>46</v>
       </c>
@@ -6525,7 +6528,7 @@
       </c>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="65"/>
+      <c r="A85" s="66"/>
       <c r="B85" s="40" t="s">
         <v>189</v>
       </c>
@@ -6546,7 +6549,7 @@
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="65"/>
+      <c r="A86" s="66"/>
       <c r="B86" s="40" t="s">
         <v>47</v>
       </c>
@@ -6567,7 +6570,7 @@
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="65"/>
+      <c r="A87" s="66"/>
       <c r="B87" s="40" t="s">
         <v>50</v>
       </c>
@@ -6588,7 +6591,7 @@
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="65"/>
+      <c r="A88" s="66"/>
       <c r="B88" s="40" t="s">
         <v>51</v>
       </c>
@@ -6609,7 +6612,7 @@
       </c>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="65"/>
+      <c r="A89" s="66"/>
       <c r="B89" s="40" t="s">
         <v>52</v>
       </c>
@@ -6630,7 +6633,7 @@
       </c>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="65"/>
+      <c r="A90" s="66"/>
       <c r="B90" s="40" t="s">
         <v>53</v>
       </c>
@@ -6652,7 +6655,7 @@
       <c r="K90" s="13"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="65"/>
+      <c r="A91" s="66"/>
       <c r="B91" s="40" t="s">
         <v>190</v>
       </c>
@@ -6756,14 +6759,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="28"/>
@@ -6794,7 +6797,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -6819,7 +6822,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
-      <c r="A5" s="68"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="8" t="s">
         <v>185</v>
       </c>
@@ -6842,7 +6845,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
@@ -6865,7 +6868,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="68"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="8" t="s">
         <v>125</v>
       </c>
@@ -6889,7 +6892,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="68"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="8" t="s">
         <v>126</v>
       </c>
@@ -6913,7 +6916,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="68"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="8" t="s">
         <v>127</v>
       </c>
@@ -6936,7 +6939,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="68"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="8" t="s">
         <v>54</v>
       </c>
@@ -6960,7 +6963,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="68"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="8" t="s">
         <v>134</v>
       </c>
@@ -6984,7 +6987,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="68"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="8" t="s">
         <v>121</v>
       </c>
@@ -7008,7 +7011,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="68"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="57" t="s">
         <v>128</v>
       </c>
@@ -7029,7 +7032,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="68"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="57" t="s">
         <v>129</v>
       </c>
@@ -7050,7 +7053,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="68"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="57" t="s">
         <v>130</v>
       </c>
@@ -7071,7 +7074,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="68"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="57" t="s">
         <v>131</v>
       </c>
@@ -7092,7 +7095,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="68"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="57" t="s">
         <v>132</v>
       </c>
@@ -7113,7 +7116,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="69"/>
+      <c r="A18" s="70"/>
       <c r="B18" s="57" t="s">
         <v>133</v>
       </c>
@@ -7134,7 +7137,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="30" customFormat="1" ht="14.7" customHeight="1">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="71" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="43" t="s">
@@ -7160,7 +7163,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" s="30" customFormat="1">
-      <c r="A20" s="71"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="43" t="s">
         <v>62</v>
       </c>
@@ -7184,7 +7187,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="30" customFormat="1">
-      <c r="A21" s="71"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="43" t="s">
         <v>63</v>
       </c>
@@ -7208,7 +7211,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.55" customHeight="1">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="73" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="32" t="s">
@@ -7234,7 +7237,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="73"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="22" t="s">
         <v>64</v>
       </c>
@@ -7258,7 +7261,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="73"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="22" t="s">
         <v>174</v>
       </c>
@@ -7282,7 +7285,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="73"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="22" t="s">
         <v>122</v>
       </c>
@@ -7306,7 +7309,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="73"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="32" t="s">
         <v>175</v>
       </c>
@@ -7329,7 +7332,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="73"/>
+      <c r="A27" s="74"/>
       <c r="B27" s="32" t="s">
         <v>176</v>
       </c>
@@ -7352,7 +7355,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="73"/>
+      <c r="A28" s="74"/>
       <c r="B28" s="22" t="s">
         <v>70</v>
       </c>
@@ -7375,7 +7378,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="73"/>
+      <c r="A29" s="74"/>
       <c r="B29" s="22" t="s">
         <v>71</v>
       </c>
@@ -7398,7 +7401,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="73"/>
+      <c r="A30" s="74"/>
       <c r="B30" s="22" t="s">
         <v>74</v>
       </c>
@@ -7421,7 +7424,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.55" customHeight="1">
-      <c r="A31" s="74" t="s">
+      <c r="A31" s="75" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -7445,7 +7448,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.55" customHeight="1">
-      <c r="A32" s="75"/>
+      <c r="A32" s="76"/>
       <c r="B32" s="9" t="s">
         <v>12</v>
       </c>
@@ -7467,7 +7470,7 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="75"/>
+      <c r="A33" s="76"/>
       <c r="B33" s="9" t="s">
         <v>142</v>
       </c>
@@ -7489,7 +7492,7 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="75"/>
+      <c r="A34" s="76"/>
       <c r="B34" s="9" t="s">
         <v>19</v>
       </c>
@@ -7510,7 +7513,7 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="75"/>
+      <c r="A35" s="76"/>
       <c r="B35" s="9" t="s">
         <v>13</v>
       </c>
@@ -7531,7 +7534,7 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="75"/>
+      <c r="A36" s="76"/>
       <c r="B36" s="9" t="s">
         <v>14</v>
       </c>
@@ -7552,7 +7555,7 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="75"/>
+      <c r="A37" s="76"/>
       <c r="B37" s="9" t="s">
         <v>15</v>
       </c>
@@ -7573,7 +7576,7 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="75"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="9" t="s">
         <v>16</v>
       </c>
@@ -7594,7 +7597,7 @@
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="75"/>
+      <c r="A39" s="76"/>
       <c r="B39" s="9" t="s">
         <v>146</v>
       </c>
@@ -7615,7 +7618,7 @@
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="75"/>
+      <c r="A40" s="76"/>
       <c r="B40" s="9" t="s">
         <v>20</v>
       </c>
@@ -7636,7 +7639,7 @@
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="75"/>
+      <c r="A41" s="76"/>
       <c r="B41" s="9" t="s">
         <v>17</v>
       </c>
@@ -7657,7 +7660,7 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="75"/>
+      <c r="A42" s="76"/>
       <c r="B42" s="9" t="s">
         <v>18</v>
       </c>
@@ -7678,7 +7681,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A43" s="76" t="s">
+      <c r="A43" s="77" t="s">
         <v>35</v>
       </c>
       <c r="B43" s="35" t="s">
@@ -7703,7 +7706,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A44" s="77"/>
+      <c r="A44" s="78"/>
       <c r="B44" s="35" t="s">
         <v>119</v>
       </c>
@@ -7731,7 +7734,7 @@
       <c r="M44" s="51"/>
     </row>
     <row r="45" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A45" s="77"/>
+      <c r="A45" s="78"/>
       <c r="B45" s="35" t="s">
         <v>120</v>
       </c>
@@ -7759,7 +7762,7 @@
       <c r="M45" s="51"/>
     </row>
     <row r="46" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A46" s="77"/>
+      <c r="A46" s="78"/>
       <c r="B46" s="47" t="s">
         <v>194</v>
       </c>
@@ -7789,7 +7792,7 @@
       <c r="M46" s="51"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="77"/>
+      <c r="A47" s="78"/>
       <c r="B47" s="35" t="s">
         <v>21</v>
       </c>
@@ -7818,7 +7821,7 @@
       <c r="M47" s="51"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="77"/>
+      <c r="A48" s="78"/>
       <c r="B48" s="35" t="s">
         <v>22</v>
       </c>
@@ -7847,7 +7850,7 @@
       <c r="M48" s="51"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="77"/>
+      <c r="A49" s="78"/>
       <c r="B49" s="35" t="s">
         <v>23</v>
       </c>
@@ -7876,7 +7879,7 @@
       <c r="M49" s="51"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="78"/>
+      <c r="A50" s="79"/>
       <c r="B50" s="35" t="s">
         <v>138</v>
       </c>
@@ -8048,7 +8051,7 @@
       </c>
     </row>
     <row r="57" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A57" s="79" t="s">
+      <c r="A57" s="62" t="s">
         <v>33</v>
       </c>
       <c r="B57" s="17" t="s">
@@ -8075,7 +8078,7 @@
       <c r="K57" s="13"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="62"/>
+      <c r="A58" s="63"/>
       <c r="B58" s="17" t="s">
         <v>151</v>
       </c>
@@ -8100,7 +8103,7 @@
       <c r="K58" s="13"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="62"/>
+      <c r="A59" s="63"/>
       <c r="B59" s="17" t="s">
         <v>197</v>
       </c>
@@ -8125,7 +8128,7 @@
       <c r="K59" s="13"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="62"/>
+      <c r="A60" s="63"/>
       <c r="B60" s="17" t="s">
         <v>198</v>
       </c>
@@ -8146,7 +8149,7 @@
       <c r="K60" s="13"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="62"/>
+      <c r="A61" s="63"/>
       <c r="B61" s="17" t="s">
         <v>199</v>
       </c>
@@ -8167,7 +8170,7 @@
       <c r="K61" s="13"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="62"/>
+      <c r="A62" s="63"/>
       <c r="B62" s="17" t="s">
         <v>214</v>
       </c>
@@ -8192,7 +8195,7 @@
       <c r="K62" s="13"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="62"/>
+      <c r="A63" s="63"/>
       <c r="B63" s="17" t="s">
         <v>155</v>
       </c>
@@ -8217,7 +8220,7 @@
       <c r="K63" s="13"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="62"/>
+      <c r="A64" s="63"/>
       <c r="B64" s="20" t="s">
         <v>200</v>
       </c>
@@ -8241,7 +8244,7 @@
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="62"/>
+      <c r="A65" s="63"/>
       <c r="B65" s="20" t="s">
         <v>201</v>
       </c>
@@ -8261,7 +8264,7 @@
       <c r="G65" s="19"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="62"/>
+      <c r="A66" s="63"/>
       <c r="B66" s="20" t="s">
         <v>202</v>
       </c>
@@ -8281,7 +8284,7 @@
       <c r="G66" s="19"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="62"/>
+      <c r="A67" s="63"/>
       <c r="B67" s="20" t="s">
         <v>117</v>
       </c>
@@ -8305,7 +8308,7 @@
       <c r="K67" s="13"/>
     </row>
     <row r="68" spans="1:11" ht="14.55" customHeight="1">
-      <c r="A68" s="62"/>
+      <c r="A68" s="63"/>
       <c r="B68" s="20" t="s">
         <v>159</v>
       </c>
@@ -8325,7 +8328,7 @@
       <c r="K68" s="13"/>
     </row>
     <row r="69" spans="1:11" ht="14.55" customHeight="1">
-      <c r="A69" s="62"/>
+      <c r="A69" s="63"/>
       <c r="B69" s="20" t="s">
         <v>206</v>
       </c>
@@ -8349,7 +8352,7 @@
       <c r="K69" s="13"/>
     </row>
     <row r="70" spans="1:11" ht="14.55" customHeight="1">
-      <c r="A70" s="62"/>
+      <c r="A70" s="63"/>
       <c r="B70" s="17" t="s">
         <v>161</v>
       </c>
@@ -8373,7 +8376,7 @@
       <c r="K70" s="13"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="62"/>
+      <c r="A71" s="63"/>
       <c r="B71" s="17" t="s">
         <v>162</v>
       </c>
@@ -8397,7 +8400,7 @@
       <c r="K71" s="13"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="62"/>
+      <c r="A72" s="63"/>
       <c r="B72" s="17" t="s">
         <v>164</v>
       </c>
@@ -8421,7 +8424,7 @@
       <c r="K72" s="13"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="63"/>
+      <c r="A73" s="64"/>
       <c r="B73" s="17" t="s">
         <v>76</v>
       </c>
@@ -8445,7 +8448,7 @@
       <c r="K73" s="13"/>
     </row>
     <row r="74" spans="1:11" ht="14.55" customHeight="1">
-      <c r="A74" s="64" t="s">
+      <c r="A74" s="65" t="s">
         <v>38</v>
       </c>
       <c r="B74" s="40" t="s">
@@ -8468,7 +8471,7 @@
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="65"/>
+      <c r="A75" s="66"/>
       <c r="B75" s="40" t="s">
         <v>48</v>
       </c>
@@ -8489,7 +8492,7 @@
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="65"/>
+      <c r="A76" s="66"/>
       <c r="B76" s="40" t="s">
         <v>40</v>
       </c>
@@ -8510,7 +8513,7 @@
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="65"/>
+      <c r="A77" s="66"/>
       <c r="B77" s="40" t="s">
         <v>41</v>
       </c>
@@ -8531,7 +8534,7 @@
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="65"/>
+      <c r="A78" s="66"/>
       <c r="B78" s="40" t="s">
         <v>42</v>
       </c>
@@ -8552,7 +8555,7 @@
       </c>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="65"/>
+      <c r="A79" s="66"/>
       <c r="B79" s="40" t="s">
         <v>188</v>
       </c>
@@ -8574,7 +8577,7 @@
       <c r="K79" s="13"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="65"/>
+      <c r="A80" s="66"/>
       <c r="B80" s="40" t="s">
         <v>43</v>
       </c>
@@ -8596,7 +8599,7 @@
       <c r="K80" s="13"/>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="65"/>
+      <c r="A81" s="66"/>
       <c r="B81" s="40" t="s">
         <v>49</v>
       </c>
@@ -8618,7 +8621,7 @@
       <c r="K81" s="13"/>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="65"/>
+      <c r="A82" s="66"/>
       <c r="B82" s="40" t="s">
         <v>44</v>
       </c>
@@ -8640,7 +8643,7 @@
       <c r="K82" s="13"/>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="65"/>
+      <c r="A83" s="66"/>
       <c r="B83" s="40" t="s">
         <v>45</v>
       </c>
@@ -8662,7 +8665,7 @@
       <c r="K83" s="13"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="65"/>
+      <c r="A84" s="66"/>
       <c r="B84" s="40" t="s">
         <v>46</v>
       </c>
@@ -8683,7 +8686,7 @@
       </c>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="65"/>
+      <c r="A85" s="66"/>
       <c r="B85" s="40" t="s">
         <v>189</v>
       </c>
@@ -8704,7 +8707,7 @@
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="65"/>
+      <c r="A86" s="66"/>
       <c r="B86" s="40" t="s">
         <v>47</v>
       </c>
@@ -8725,7 +8728,7 @@
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="65"/>
+      <c r="A87" s="66"/>
       <c r="B87" s="40" t="s">
         <v>50</v>
       </c>
@@ -8746,7 +8749,7 @@
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="65"/>
+      <c r="A88" s="66"/>
       <c r="B88" s="40" t="s">
         <v>51</v>
       </c>
@@ -8767,7 +8770,7 @@
       </c>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="65"/>
+      <c r="A89" s="66"/>
       <c r="B89" s="40" t="s">
         <v>52</v>
       </c>
@@ -8788,7 +8791,7 @@
       </c>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="65"/>
+      <c r="A90" s="66"/>
       <c r="B90" s="40" t="s">
         <v>53</v>
       </c>
@@ -8810,7 +8813,7 @@
       <c r="K90" s="13"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="65"/>
+      <c r="A91" s="66"/>
       <c r="B91" s="40" t="s">
         <v>190</v>
       </c>
@@ -8914,14 +8917,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="28"/>
@@ -8952,7 +8955,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -8977,7 +8980,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
-      <c r="A5" s="68"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="8" t="s">
         <v>185</v>
       </c>
@@ -9000,7 +9003,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
@@ -9023,7 +9026,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="68"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="8" t="s">
         <v>125</v>
       </c>
@@ -9046,7 +9049,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="68"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="8" t="s">
         <v>126</v>
       </c>
@@ -9070,7 +9073,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="68"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="8" t="s">
         <v>127</v>
       </c>
@@ -9093,7 +9096,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="68"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="8" t="s">
         <v>54</v>
       </c>
@@ -9117,7 +9120,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="68"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="8" t="s">
         <v>134</v>
       </c>
@@ -9141,7 +9144,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="68"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="8" t="s">
         <v>121</v>
       </c>
@@ -9165,7 +9168,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="68"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="8" t="s">
         <v>128</v>
       </c>
@@ -9186,7 +9189,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="68"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="8" t="s">
         <v>129</v>
       </c>
@@ -9207,7 +9210,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="68"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="8" t="s">
         <v>130</v>
       </c>
@@ -9228,7 +9231,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="68"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="8" t="s">
         <v>131</v>
       </c>
@@ -9249,7 +9252,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="68"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="8" t="s">
         <v>132</v>
       </c>
@@ -9270,7 +9273,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="69"/>
+      <c r="A18" s="70"/>
       <c r="B18" s="8" t="s">
         <v>133</v>
       </c>
@@ -9291,7 +9294,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="30" customFormat="1" ht="14.7" customHeight="1">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="71" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="43" t="s">
@@ -9317,7 +9320,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" s="30" customFormat="1">
-      <c r="A20" s="71"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="43" t="s">
         <v>62</v>
       </c>
@@ -9341,7 +9344,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="30" customFormat="1">
-      <c r="A21" s="71"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="43" t="s">
         <v>63</v>
       </c>
@@ -9365,7 +9368,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.55" customHeight="1">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="73" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="32" t="s">
@@ -9391,7 +9394,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="73"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="22" t="s">
         <v>64</v>
       </c>
@@ -9415,7 +9418,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="73"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="22" t="s">
         <v>174</v>
       </c>
@@ -9439,7 +9442,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="73"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="22" t="s">
         <v>122</v>
       </c>
@@ -9463,7 +9466,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="73"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="32" t="s">
         <v>175</v>
       </c>
@@ -9486,7 +9489,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="73"/>
+      <c r="A27" s="74"/>
       <c r="B27" s="32" t="s">
         <v>176</v>
       </c>
@@ -9509,7 +9512,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="73"/>
+      <c r="A28" s="74"/>
       <c r="B28" s="22" t="s">
         <v>70</v>
       </c>
@@ -9532,7 +9535,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="73"/>
+      <c r="A29" s="74"/>
       <c r="B29" s="22" t="s">
         <v>71</v>
       </c>
@@ -9555,7 +9558,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="73"/>
+      <c r="A30" s="74"/>
       <c r="B30" s="22" t="s">
         <v>74</v>
       </c>
@@ -9578,7 +9581,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.55" customHeight="1">
-      <c r="A31" s="74" t="s">
+      <c r="A31" s="75" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -9602,7 +9605,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.55" customHeight="1">
-      <c r="A32" s="75"/>
+      <c r="A32" s="76"/>
       <c r="B32" s="9" t="s">
         <v>12</v>
       </c>
@@ -9624,7 +9627,7 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="75"/>
+      <c r="A33" s="76"/>
       <c r="B33" s="9" t="s">
         <v>142</v>
       </c>
@@ -9646,7 +9649,7 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="75"/>
+      <c r="A34" s="76"/>
       <c r="B34" s="9" t="s">
         <v>19</v>
       </c>
@@ -9667,7 +9670,7 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="75"/>
+      <c r="A35" s="76"/>
       <c r="B35" s="9" t="s">
         <v>13</v>
       </c>
@@ -9688,7 +9691,7 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="75"/>
+      <c r="A36" s="76"/>
       <c r="B36" s="9" t="s">
         <v>14</v>
       </c>
@@ -9709,7 +9712,7 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="75"/>
+      <c r="A37" s="76"/>
       <c r="B37" s="9" t="s">
         <v>15</v>
       </c>
@@ -9730,7 +9733,7 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="75"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="9" t="s">
         <v>16</v>
       </c>
@@ -9751,7 +9754,7 @@
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="75"/>
+      <c r="A39" s="76"/>
       <c r="B39" s="9" t="s">
         <v>146</v>
       </c>
@@ -9772,7 +9775,7 @@
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="75"/>
+      <c r="A40" s="76"/>
       <c r="B40" s="9" t="s">
         <v>20</v>
       </c>
@@ -9793,7 +9796,7 @@
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="75"/>
+      <c r="A41" s="76"/>
       <c r="B41" s="9" t="s">
         <v>17</v>
       </c>
@@ -9814,7 +9817,7 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="75"/>
+      <c r="A42" s="76"/>
       <c r="B42" s="9" t="s">
         <v>18</v>
       </c>
@@ -9835,7 +9838,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A43" s="76" t="s">
+      <c r="A43" s="77" t="s">
         <v>35</v>
       </c>
       <c r="B43" s="35" t="s">
@@ -9860,7 +9863,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A44" s="77"/>
+      <c r="A44" s="78"/>
       <c r="B44" s="35" t="s">
         <v>119</v>
       </c>
@@ -9888,7 +9891,7 @@
       <c r="M44" s="51"/>
     </row>
     <row r="45" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A45" s="77"/>
+      <c r="A45" s="78"/>
       <c r="B45" s="35" t="s">
         <v>120</v>
       </c>
@@ -9916,7 +9919,7 @@
       <c r="M45" s="51"/>
     </row>
     <row r="46" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A46" s="77"/>
+      <c r="A46" s="78"/>
       <c r="B46" s="47" t="s">
         <v>194</v>
       </c>
@@ -9946,7 +9949,7 @@
       <c r="M46" s="51"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="77"/>
+      <c r="A47" s="78"/>
       <c r="B47" s="35" t="s">
         <v>21</v>
       </c>
@@ -9975,7 +9978,7 @@
       <c r="M47" s="51"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="77"/>
+      <c r="A48" s="78"/>
       <c r="B48" s="35" t="s">
         <v>22</v>
       </c>
@@ -10004,7 +10007,7 @@
       <c r="M48" s="51"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="77"/>
+      <c r="A49" s="78"/>
       <c r="B49" s="35" t="s">
         <v>23</v>
       </c>
@@ -10033,7 +10036,7 @@
       <c r="M49" s="51"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="78"/>
+      <c r="A50" s="79"/>
       <c r="B50" s="35" t="s">
         <v>138</v>
       </c>
@@ -10205,7 +10208,7 @@
       </c>
     </row>
     <row r="57" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A57" s="79" t="s">
+      <c r="A57" s="62" t="s">
         <v>33</v>
       </c>
       <c r="B57" s="17" t="s">
@@ -10232,7 +10235,7 @@
       <c r="K57" s="13"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="62"/>
+      <c r="A58" s="63"/>
       <c r="B58" s="17" t="s">
         <v>151</v>
       </c>
@@ -10257,7 +10260,7 @@
       <c r="K58" s="13"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="62"/>
+      <c r="A59" s="63"/>
       <c r="B59" s="17" t="s">
         <v>197</v>
       </c>
@@ -10282,7 +10285,7 @@
       <c r="K59" s="13"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="62"/>
+      <c r="A60" s="63"/>
       <c r="B60" s="17" t="s">
         <v>198</v>
       </c>
@@ -10303,7 +10306,7 @@
       <c r="K60" s="13"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="62"/>
+      <c r="A61" s="63"/>
       <c r="B61" s="17" t="s">
         <v>199</v>
       </c>
@@ -10324,7 +10327,7 @@
       <c r="K61" s="13"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="62"/>
+      <c r="A62" s="63"/>
       <c r="B62" s="17" t="s">
         <v>214</v>
       </c>
@@ -10349,7 +10352,7 @@
       <c r="K62" s="13"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="62"/>
+      <c r="A63" s="63"/>
       <c r="B63" s="17" t="s">
         <v>155</v>
       </c>
@@ -10374,7 +10377,7 @@
       <c r="K63" s="13"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="62"/>
+      <c r="A64" s="63"/>
       <c r="B64" s="20" t="s">
         <v>200</v>
       </c>
@@ -10398,7 +10401,7 @@
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="62"/>
+      <c r="A65" s="63"/>
       <c r="B65" s="20" t="s">
         <v>201</v>
       </c>
@@ -10418,7 +10421,7 @@
       <c r="G65" s="19"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="62"/>
+      <c r="A66" s="63"/>
       <c r="B66" s="20" t="s">
         <v>202</v>
       </c>
@@ -10438,7 +10441,7 @@
       <c r="G66" s="19"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="62"/>
+      <c r="A67" s="63"/>
       <c r="B67" s="20" t="s">
         <v>117</v>
       </c>
@@ -10462,7 +10465,7 @@
       <c r="K67" s="13"/>
     </row>
     <row r="68" spans="1:11" ht="14.55" customHeight="1">
-      <c r="A68" s="62"/>
+      <c r="A68" s="63"/>
       <c r="B68" s="20" t="s">
         <v>159</v>
       </c>
@@ -10483,7 +10486,7 @@
       <c r="K68" s="13"/>
     </row>
     <row r="69" spans="1:11" ht="14.55" customHeight="1">
-      <c r="A69" s="62"/>
+      <c r="A69" s="63"/>
       <c r="B69" s="20" t="s">
         <v>206</v>
       </c>
@@ -10507,7 +10510,7 @@
       <c r="K69" s="13"/>
     </row>
     <row r="70" spans="1:11" ht="14.55" customHeight="1">
-      <c r="A70" s="62"/>
+      <c r="A70" s="63"/>
       <c r="B70" s="17" t="s">
         <v>161</v>
       </c>
@@ -10531,7 +10534,7 @@
       <c r="K70" s="13"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="62"/>
+      <c r="A71" s="63"/>
       <c r="B71" s="17" t="s">
         <v>162</v>
       </c>
@@ -10555,7 +10558,7 @@
       <c r="K71" s="13"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="62"/>
+      <c r="A72" s="63"/>
       <c r="B72" s="17" t="s">
         <v>164</v>
       </c>
@@ -10579,7 +10582,7 @@
       <c r="K72" s="13"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="63"/>
+      <c r="A73" s="64"/>
       <c r="B73" s="17" t="s">
         <v>76</v>
       </c>
@@ -10603,7 +10606,7 @@
       <c r="K73" s="13"/>
     </row>
     <row r="74" spans="1:11" ht="14.55" customHeight="1">
-      <c r="A74" s="64" t="s">
+      <c r="A74" s="65" t="s">
         <v>38</v>
       </c>
       <c r="B74" s="40" t="s">
@@ -10626,7 +10629,7 @@
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="65"/>
+      <c r="A75" s="66"/>
       <c r="B75" s="40" t="s">
         <v>48</v>
       </c>
@@ -10647,7 +10650,7 @@
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="65"/>
+      <c r="A76" s="66"/>
       <c r="B76" s="40" t="s">
         <v>40</v>
       </c>
@@ -10668,7 +10671,7 @@
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="65"/>
+      <c r="A77" s="66"/>
       <c r="B77" s="40" t="s">
         <v>41</v>
       </c>
@@ -10689,7 +10692,7 @@
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="65"/>
+      <c r="A78" s="66"/>
       <c r="B78" s="40" t="s">
         <v>42</v>
       </c>
@@ -10710,7 +10713,7 @@
       </c>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="65"/>
+      <c r="A79" s="66"/>
       <c r="B79" s="40" t="s">
         <v>188</v>
       </c>
@@ -10732,7 +10735,7 @@
       <c r="K79" s="13"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="65"/>
+      <c r="A80" s="66"/>
       <c r="B80" s="40" t="s">
         <v>43</v>
       </c>
@@ -10754,7 +10757,7 @@
       <c r="K80" s="13"/>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="65"/>
+      <c r="A81" s="66"/>
       <c r="B81" s="40" t="s">
         <v>49</v>
       </c>
@@ -10776,7 +10779,7 @@
       <c r="K81" s="13"/>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="65"/>
+      <c r="A82" s="66"/>
       <c r="B82" s="40" t="s">
         <v>44</v>
       </c>
@@ -10798,7 +10801,7 @@
       <c r="K82" s="13"/>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="65"/>
+      <c r="A83" s="66"/>
       <c r="B83" s="40" t="s">
         <v>45</v>
       </c>
@@ -10820,7 +10823,7 @@
       <c r="K83" s="13"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="65"/>
+      <c r="A84" s="66"/>
       <c r="B84" s="40" t="s">
         <v>46</v>
       </c>
@@ -10841,7 +10844,7 @@
       </c>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="65"/>
+      <c r="A85" s="66"/>
       <c r="B85" s="40" t="s">
         <v>189</v>
       </c>
@@ -10862,7 +10865,7 @@
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="65"/>
+      <c r="A86" s="66"/>
       <c r="B86" s="40" t="s">
         <v>47</v>
       </c>
@@ -10883,7 +10886,7 @@
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="65"/>
+      <c r="A87" s="66"/>
       <c r="B87" s="40" t="s">
         <v>50</v>
       </c>
@@ -10904,7 +10907,7 @@
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="65"/>
+      <c r="A88" s="66"/>
       <c r="B88" s="40" t="s">
         <v>51</v>
       </c>
@@ -10925,7 +10928,7 @@
       </c>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="65"/>
+      <c r="A89" s="66"/>
       <c r="B89" s="40" t="s">
         <v>52</v>
       </c>
@@ -10946,7 +10949,7 @@
       </c>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="65"/>
+      <c r="A90" s="66"/>
       <c r="B90" s="40" t="s">
         <v>53</v>
       </c>
@@ -10968,7 +10971,7 @@
       <c r="K90" s="13"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="65"/>
+      <c r="A91" s="66"/>
       <c r="B91" s="40" t="s">
         <v>190</v>
       </c>
@@ -11055,9 +11058,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D772B5C0-78A8-4453-9C12-C71D4E986150}">
   <dimension ref="A1:M139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -11069,19 +11072,20 @@
     <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="75.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="66" t="s">
+    <row r="1" spans="1:10">
+      <c r="B1" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="B2" s="28"/>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -11089,7 +11093,7 @@
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:10">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -11109,8 +11113,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1">
-      <c r="A4" s="68" t="s">
+    <row r="4" spans="1:10" ht="15" customHeight="1">
+      <c r="A4" s="69" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -11134,8 +11138,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1">
-      <c r="A5" s="68"/>
+    <row r="5" spans="1:10" ht="15" customHeight="1">
+      <c r="A5" s="69"/>
       <c r="B5" s="8" t="s">
         <v>185</v>
       </c>
@@ -11157,8 +11161,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="68"/>
+    <row r="6" spans="1:10">
+      <c r="A6" s="69"/>
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
@@ -11180,8 +11184,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="68"/>
+    <row r="7" spans="1:10">
+      <c r="A7" s="69"/>
       <c r="B7" s="8" t="s">
         <v>237</v>
       </c>
@@ -11204,8 +11208,8 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="68"/>
+    <row r="8" spans="1:10">
+      <c r="A8" s="69"/>
       <c r="B8" s="8" t="s">
         <v>238</v>
       </c>
@@ -11227,9 +11231,17 @@
       <c r="G8" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="68"/>
+      <c r="I8">
+        <f>C7*C8*C9*C13</f>
+        <v>2099587.2000000002</v>
+      </c>
+      <c r="J8">
+        <f>I8+I9</f>
+        <v>2172546.3326000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="69"/>
       <c r="B9" s="8" t="s">
         <v>239</v>
       </c>
@@ -11250,9 +11262,13 @@
       <c r="G9" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="68"/>
+      <c r="I9">
+        <f>C10*C11*C12*C13</f>
+        <v>72959.132599999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="69"/>
       <c r="B10" s="8" t="s">
         <v>240</v>
       </c>
@@ -11274,8 +11290,8 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="68"/>
+    <row r="11" spans="1:10">
+      <c r="A11" s="69"/>
       <c r="B11" s="8" t="s">
         <v>241</v>
       </c>
@@ -11298,8 +11314,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="68"/>
+    <row r="12" spans="1:10">
+      <c r="A12" s="69"/>
       <c r="B12" s="8" t="s">
         <v>242</v>
       </c>
@@ -11321,8 +11337,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="68"/>
+    <row r="13" spans="1:10">
+      <c r="A13" s="69"/>
       <c r="B13" s="8" t="s">
         <v>54</v>
       </c>
@@ -11345,8 +11361,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="68"/>
+    <row r="14" spans="1:10">
+      <c r="A14" s="69"/>
       <c r="B14" s="8" t="s">
         <v>134</v>
       </c>
@@ -11369,8 +11385,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="68"/>
+    <row r="15" spans="1:10">
+      <c r="A15" s="69"/>
       <c r="B15" s="8" t="s">
         <v>121</v>
       </c>
@@ -11393,8 +11409,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="68"/>
+    <row r="16" spans="1:10">
+      <c r="A16" s="69"/>
       <c r="B16" s="57" t="s">
         <v>128</v>
       </c>
@@ -11415,7 +11431,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="68"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="57" t="s">
         <v>129</v>
       </c>
@@ -11436,7 +11452,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="68"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="57" t="s">
         <v>130</v>
       </c>
@@ -11457,7 +11473,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="68"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="57" t="s">
         <v>131</v>
       </c>
@@ -11478,7 +11494,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="68"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="57" t="s">
         <v>132</v>
       </c>
@@ -11499,7 +11515,7 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="69"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="57" t="s">
         <v>133</v>
       </c>
@@ -11520,7 +11536,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" s="30" customFormat="1" ht="14.7" customHeight="1">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="71" t="s">
         <v>56</v>
       </c>
       <c r="B22" s="43" t="s">
@@ -11546,7 +11562,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" s="30" customFormat="1">
-      <c r="A23" s="71"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="43" t="s">
         <v>62</v>
       </c>
@@ -11570,7 +11586,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" s="30" customFormat="1">
-      <c r="A24" s="71"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="43" t="s">
         <v>63</v>
       </c>
@@ -11594,7 +11610,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.55" customHeight="1">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="73" t="s">
         <v>58</v>
       </c>
       <c r="B25" s="32" t="s">
@@ -11620,7 +11636,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="73"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="22" t="s">
         <v>64</v>
       </c>
@@ -11644,7 +11660,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="73"/>
+      <c r="A27" s="74"/>
       <c r="B27" s="22" t="s">
         <v>174</v>
       </c>
@@ -11668,7 +11684,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="73"/>
+      <c r="A28" s="74"/>
       <c r="B28" s="22" t="s">
         <v>122</v>
       </c>
@@ -11692,7 +11708,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="73"/>
+      <c r="A29" s="74"/>
       <c r="B29" s="32" t="s">
         <v>175</v>
       </c>
@@ -11715,7 +11731,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="73"/>
+      <c r="A30" s="74"/>
       <c r="B30" s="32" t="s">
         <v>176</v>
       </c>
@@ -11738,7 +11754,7 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="73"/>
+      <c r="A31" s="74"/>
       <c r="B31" s="22" t="s">
         <v>70</v>
       </c>
@@ -11761,7 +11777,7 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="73"/>
+      <c r="A32" s="74"/>
       <c r="B32" s="22" t="s">
         <v>71</v>
       </c>
@@ -11784,7 +11800,7 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="73"/>
+      <c r="A33" s="74"/>
       <c r="B33" s="22" t="s">
         <v>74</v>
       </c>
@@ -11807,7 +11823,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="75" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -11831,7 +11847,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A35" s="75"/>
+      <c r="A35" s="76"/>
       <c r="B35" s="9" t="s">
         <v>12</v>
       </c>
@@ -11853,7 +11869,7 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="75"/>
+      <c r="A36" s="76"/>
       <c r="B36" s="9" t="s">
         <v>142</v>
       </c>
@@ -11875,7 +11891,7 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="75"/>
+      <c r="A37" s="76"/>
       <c r="B37" s="9" t="s">
         <v>19</v>
       </c>
@@ -11896,7 +11912,7 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="75"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="9" t="s">
         <v>13</v>
       </c>
@@ -11917,7 +11933,7 @@
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="75"/>
+      <c r="A39" s="76"/>
       <c r="B39" s="9" t="s">
         <v>14</v>
       </c>
@@ -11938,7 +11954,7 @@
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="75"/>
+      <c r="A40" s="76"/>
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -11959,7 +11975,7 @@
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="75"/>
+      <c r="A41" s="76"/>
       <c r="B41" s="9" t="s">
         <v>16</v>
       </c>
@@ -11980,7 +11996,7 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="75"/>
+      <c r="A42" s="76"/>
       <c r="B42" s="9" t="s">
         <v>146</v>
       </c>
@@ -12001,7 +12017,7 @@
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="75"/>
+      <c r="A43" s="76"/>
       <c r="B43" s="9" t="s">
         <v>20</v>
       </c>
@@ -12022,7 +12038,7 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="75"/>
+      <c r="A44" s="76"/>
       <c r="B44" s="9" t="s">
         <v>17</v>
       </c>
@@ -12043,7 +12059,7 @@
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="75"/>
+      <c r="A45" s="76"/>
       <c r="B45" s="9" t="s">
         <v>18</v>
       </c>
@@ -12064,7 +12080,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A46" s="76" t="s">
+      <c r="A46" s="77" t="s">
         <v>35</v>
       </c>
       <c r="B46" s="35" t="s">
@@ -12089,7 +12105,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A47" s="77"/>
+      <c r="A47" s="78"/>
       <c r="B47" s="35" t="s">
         <v>119</v>
       </c>
@@ -12117,7 +12133,7 @@
       <c r="M47" s="51"/>
     </row>
     <row r="48" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A48" s="77"/>
+      <c r="A48" s="78"/>
       <c r="B48" s="35" t="s">
         <v>120</v>
       </c>
@@ -12145,7 +12161,7 @@
       <c r="M48" s="51"/>
     </row>
     <row r="49" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A49" s="77"/>
+      <c r="A49" s="78"/>
       <c r="B49" s="47" t="s">
         <v>194</v>
       </c>
@@ -12175,7 +12191,7 @@
       <c r="M49" s="51"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="77"/>
+      <c r="A50" s="78"/>
       <c r="B50" s="35" t="s">
         <v>21</v>
       </c>
@@ -12204,7 +12220,7 @@
       <c r="M50" s="51"/>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="77"/>
+      <c r="A51" s="78"/>
       <c r="B51" s="35" t="s">
         <v>22</v>
       </c>
@@ -12233,7 +12249,7 @@
       <c r="M51" s="51"/>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="77"/>
+      <c r="A52" s="78"/>
       <c r="B52" s="35" t="s">
         <v>23</v>
       </c>
@@ -12262,7 +12278,7 @@
       <c r="M52" s="51"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="78"/>
+      <c r="A53" s="79"/>
       <c r="B53" s="35" t="s">
         <v>138</v>
       </c>
@@ -12434,7 +12450,7 @@
       </c>
     </row>
     <row r="60" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A60" s="79" t="s">
+      <c r="A60" s="62" t="s">
         <v>215</v>
       </c>
       <c r="B60" s="17" t="s">
@@ -12461,7 +12477,7 @@
       <c r="K60" s="13"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="62"/>
+      <c r="A61" s="63"/>
       <c r="B61" s="17" t="s">
         <v>218</v>
       </c>
@@ -12486,7 +12502,7 @@
       <c r="K61" s="13"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="62"/>
+      <c r="A62" s="63"/>
       <c r="B62" s="17" t="s">
         <v>219</v>
       </c>
@@ -12511,7 +12527,7 @@
       <c r="K62" s="13"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="62"/>
+      <c r="A63" s="63"/>
       <c r="B63" s="17" t="s">
         <v>220</v>
       </c>
@@ -12532,7 +12548,7 @@
       <c r="K63" s="13"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="62"/>
+      <c r="A64" s="63"/>
       <c r="B64" s="17" t="s">
         <v>221</v>
       </c>
@@ -12553,7 +12569,7 @@
       <c r="K64" s="13"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="62"/>
+      <c r="A65" s="63"/>
       <c r="B65" s="17" t="s">
         <v>222</v>
       </c>
@@ -12578,7 +12594,7 @@
       <c r="K65" s="13"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="62"/>
+      <c r="A66" s="63"/>
       <c r="B66" s="17" t="s">
         <v>223</v>
       </c>
@@ -12603,7 +12619,7 @@
       <c r="K66" s="13"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="62"/>
+      <c r="A67" s="63"/>
       <c r="B67" s="20" t="s">
         <v>224</v>
       </c>
@@ -12627,7 +12643,7 @@
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="62"/>
+      <c r="A68" s="63"/>
       <c r="B68" s="20" t="s">
         <v>225</v>
       </c>
@@ -12647,7 +12663,7 @@
       <c r="G68" s="19"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="62"/>
+      <c r="A69" s="63"/>
       <c r="B69" s="20" t="s">
         <v>226</v>
       </c>
@@ -12667,7 +12683,7 @@
       <c r="G69" s="19"/>
     </row>
     <row r="70" spans="1:11" ht="14.55" customHeight="1">
-      <c r="A70" s="79" t="s">
+      <c r="A70" s="62" t="s">
         <v>216</v>
       </c>
       <c r="B70" s="17" t="s">
@@ -12694,7 +12710,7 @@
       <c r="K70" s="13"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="62"/>
+      <c r="A71" s="63"/>
       <c r="B71" s="17" t="s">
         <v>228</v>
       </c>
@@ -12719,7 +12735,7 @@
       <c r="K71" s="13"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="62"/>
+      <c r="A72" s="63"/>
       <c r="B72" s="17" t="s">
         <v>229</v>
       </c>
@@ -12732,7 +12748,7 @@
         <v>4.1411112511024325E-3</v>
       </c>
       <c r="E72" s="18">
-        <f t="shared" ref="E72:E86" si="3">C72*1.1</f>
+        <f t="shared" ref="E72:E80" si="3">C72*1.1</f>
         <v>5.0613581957918621E-3</v>
       </c>
       <c r="F72" s="19" t="s">
@@ -12744,7 +12760,7 @@
       <c r="K72" s="13"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="62"/>
+      <c r="A73" s="63"/>
       <c r="B73" s="17" t="s">
         <v>230</v>
       </c>
@@ -12765,7 +12781,7 @@
       <c r="K73" s="13"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="62"/>
+      <c r="A74" s="63"/>
       <c r="B74" s="17" t="s">
         <v>231</v>
       </c>
@@ -12786,7 +12802,7 @@
       <c r="K74" s="13"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="62"/>
+      <c r="A75" s="63"/>
       <c r="B75" s="17" t="s">
         <v>232</v>
       </c>
@@ -12811,7 +12827,7 @@
       <c r="K75" s="13"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="62"/>
+      <c r="A76" s="63"/>
       <c r="B76" s="17" t="s">
         <v>233</v>
       </c>
@@ -12836,7 +12852,7 @@
       <c r="K76" s="13"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="62"/>
+      <c r="A77" s="63"/>
       <c r="B77" s="20" t="s">
         <v>234</v>
       </c>
@@ -12860,7 +12876,7 @@
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="62"/>
+      <c r="A78" s="63"/>
       <c r="B78" s="20" t="s">
         <v>235</v>
       </c>
@@ -12880,7 +12896,7 @@
       <c r="G78" s="19"/>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="62"/>
+      <c r="A79" s="63"/>
       <c r="B79" s="20" t="s">
         <v>236</v>
       </c>
@@ -12900,7 +12916,7 @@
       <c r="G79" s="19"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="62"/>
+      <c r="A80" s="63"/>
       <c r="B80" s="20" t="s">
         <v>117</v>
       </c>
@@ -12924,7 +12940,7 @@
       <c r="K80" s="13"/>
     </row>
     <row r="81" spans="1:11" ht="14.55" customHeight="1">
-      <c r="A81" s="62"/>
+      <c r="A81" s="63"/>
       <c r="B81" s="20" t="s">
         <v>159</v>
       </c>
@@ -12945,7 +12961,7 @@
       <c r="K81" s="13"/>
     </row>
     <row r="82" spans="1:11" ht="14.55" customHeight="1">
-      <c r="A82" s="62"/>
+      <c r="A82" s="63"/>
       <c r="B82" s="20" t="s">
         <v>206</v>
       </c>
@@ -12969,7 +12985,7 @@
       <c r="K82" s="13"/>
     </row>
     <row r="83" spans="1:11" ht="14.55" customHeight="1">
-      <c r="A83" s="62"/>
+      <c r="A83" s="63"/>
       <c r="B83" s="17" t="s">
         <v>161</v>
       </c>
@@ -12993,7 +13009,7 @@
       <c r="K83" s="13"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="62"/>
+      <c r="A84" s="63"/>
       <c r="B84" s="17" t="s">
         <v>162</v>
       </c>
@@ -13017,7 +13033,7 @@
       <c r="K84" s="13"/>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="62"/>
+      <c r="A85" s="63"/>
       <c r="B85" s="17" t="s">
         <v>164</v>
       </c>
@@ -13041,7 +13057,7 @@
       <c r="K85" s="13"/>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="63"/>
+      <c r="A86" s="64"/>
       <c r="B86" s="17" t="s">
         <v>76</v>
       </c>
@@ -13065,7 +13081,7 @@
       <c r="K86" s="13"/>
     </row>
     <row r="87" spans="1:11" ht="14.55" customHeight="1">
-      <c r="A87" s="64" t="s">
+      <c r="A87" s="65" t="s">
         <v>38</v>
       </c>
       <c r="B87" s="40" t="s">
@@ -13088,7 +13104,7 @@
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="65"/>
+      <c r="A88" s="66"/>
       <c r="B88" s="40" t="s">
         <v>48</v>
       </c>
@@ -13109,7 +13125,7 @@
       </c>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="65"/>
+      <c r="A89" s="66"/>
       <c r="B89" s="40" t="s">
         <v>40</v>
       </c>
@@ -13130,7 +13146,7 @@
       </c>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="65"/>
+      <c r="A90" s="66"/>
       <c r="B90" s="40" t="s">
         <v>41</v>
       </c>
@@ -13151,7 +13167,7 @@
       </c>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="65"/>
+      <c r="A91" s="66"/>
       <c r="B91" s="40" t="s">
         <v>42</v>
       </c>
@@ -13172,7 +13188,7 @@
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="65"/>
+      <c r="A92" s="66"/>
       <c r="B92" s="40" t="s">
         <v>188</v>
       </c>
@@ -13194,7 +13210,7 @@
       <c r="K92" s="13"/>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="65"/>
+      <c r="A93" s="66"/>
       <c r="B93" s="40" t="s">
         <v>43</v>
       </c>
@@ -13216,7 +13232,7 @@
       <c r="K93" s="13"/>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="65"/>
+      <c r="A94" s="66"/>
       <c r="B94" s="40" t="s">
         <v>49</v>
       </c>
@@ -13238,7 +13254,7 @@
       <c r="K94" s="13"/>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="65"/>
+      <c r="A95" s="66"/>
       <c r="B95" s="40" t="s">
         <v>44</v>
       </c>
@@ -13260,7 +13276,7 @@
       <c r="K95" s="13"/>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="65"/>
+      <c r="A96" s="66"/>
       <c r="B96" s="40" t="s">
         <v>45</v>
       </c>
@@ -13282,7 +13298,7 @@
       <c r="K96" s="13"/>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="65"/>
+      <c r="A97" s="66"/>
       <c r="B97" s="40" t="s">
         <v>46</v>
       </c>
@@ -13303,7 +13319,7 @@
       </c>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="65"/>
+      <c r="A98" s="66"/>
       <c r="B98" s="40" t="s">
         <v>189</v>
       </c>
@@ -13324,7 +13340,7 @@
       </c>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="65"/>
+      <c r="A99" s="66"/>
       <c r="B99" s="40" t="s">
         <v>47</v>
       </c>
@@ -13345,7 +13361,7 @@
       </c>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="65"/>
+      <c r="A100" s="66"/>
       <c r="B100" s="40" t="s">
         <v>50</v>
       </c>
@@ -13366,7 +13382,7 @@
       </c>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="65"/>
+      <c r="A101" s="66"/>
       <c r="B101" s="40" t="s">
         <v>51</v>
       </c>
@@ -13387,7 +13403,7 @@
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="65"/>
+      <c r="A102" s="66"/>
       <c r="B102" s="40" t="s">
         <v>52</v>
       </c>
@@ -13408,7 +13424,7 @@
       </c>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="65"/>
+      <c r="A103" s="66"/>
       <c r="B103" s="40" t="s">
         <v>53</v>
       </c>
@@ -13430,7 +13446,7 @@
       <c r="K103" s="13"/>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="65"/>
+      <c r="A104" s="66"/>
       <c r="B104" s="40" t="s">
         <v>190</v>
       </c>
